--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F74B14-8AEB-4401-8A4B-E0AA0348784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7F7D3-F887-4E85-BB6A-E458FDA77F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <sheet name="Missing Number" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="277">
   <si>
     <t>*</t>
   </si>
@@ -988,6 +987,24 @@
   </si>
   <si>
     <t>Worst -&gt; O(n^2)</t>
+  </si>
+  <si>
+    <t>ip=[1,0,3]</t>
+  </si>
+  <si>
+    <t>s1=0, s2=0</t>
+  </si>
+  <si>
+    <t>s1=s1+i</t>
+  </si>
+  <si>
+    <t>s2=s2+ip[i]</t>
+  </si>
+  <si>
+    <t>print s1-s2</t>
+  </si>
+  <si>
+    <t>Best -&gt; O(n)</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1196,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3421,11 +3438,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -3662,207 +3679,229 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B23B0-C7CC-4CF7-AD28-83FA91A9D6EB}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="3.77734375" customWidth="1"/>
+    <col min="1" max="16" width="3.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>157</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="M4" t="s">
+    <row r="4" spans="1:21">
+      <c r="R4" t="s">
         <v>17</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="U4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>256</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
         <v>18</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>258</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="P7">
+      <c r="U7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>259</v>
       </c>
-      <c r="M8" t="s">
+      <c r="R8" t="s">
         <v>18</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>181</v>
       </c>
-      <c r="M10" t="s">
+      <c r="R10" t="s">
         <v>17</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="U10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="M11" t="s">
+    <row r="11" spans="1:21">
+      <c r="R11" t="s">
         <v>18</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="H12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>266</v>
       </c>
-      <c r="M13" t="s">
+      <c r="H13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R13" t="s">
         <v>17</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="M14" t="s">
+      <c r="H14" t="s">
+        <v>261</v>
+      </c>
+      <c r="R14" t="s">
         <v>18</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:21">
       <c r="B15" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="I15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="C16" t="s">
         <v>267</v>
       </c>
-      <c r="M16" t="s">
+      <c r="I16" t="s">
+        <v>274</v>
+      </c>
+      <c r="R16" t="s">
         <v>17</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:19">
       <c r="D17" t="s">
         <v>263</v>
       </c>
-      <c r="M17" t="s">
+      <c r="H17" t="s">
+        <v>275</v>
+      </c>
+      <c r="R17" t="s">
         <v>18</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:19">
       <c r="D18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="C20" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="I20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="C21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:19">
       <c r="B24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:19">
       <c r="B25" t="s">
         <v>270</v>
       </c>
@@ -4061,21 +4100,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -4145,17 +4184,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7F7D3-F887-4E85-BB6A-E458FDA77F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066D93D-BF19-47DB-894A-3E3F667DBB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="pyramid" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="rmvIndxAllOccrence" sheetId="8" r:id="rId8"/>
     <sheet name="sandGlassPtrn" sheetId="9" r:id="rId9"/>
     <sheet name="Missing Number" sheetId="10" r:id="rId10"/>
+    <sheet name="MulDigInArray" sheetId="11" r:id="rId11"/>
+    <sheet name="dimndPtrnInsideEmpty" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="338">
   <si>
     <t>*</t>
   </si>
@@ -1005,6 +1007,189 @@
   </si>
   <si>
     <t>Best -&gt; O(n)</t>
+  </si>
+  <si>
+    <t>apart from index val multiple all other index val</t>
+  </si>
+  <si>
+    <t>PSCode</t>
+  </si>
+  <si>
+    <t>initiate the ip array</t>
+  </si>
+  <si>
+    <t>initiate the op array to the size of ip array</t>
+  </si>
+  <si>
+    <t>initiate outer inc loop and validate otr inc loop &lt; ip array len</t>
+  </si>
+  <si>
+    <t>initiate inner inc loop and validate inr inc loop &lt; ip array len</t>
+  </si>
+  <si>
+    <t>validate otr inc loop var is not equal to inr inc loop</t>
+  </si>
+  <si>
+    <t>initiate mul var and assign one</t>
+  </si>
+  <si>
+    <t>multiply the mul var with inr inc loop index val and assign to maul var</t>
+  </si>
+  <si>
+    <t>assign mul var val to otr inc loop var indexth of op array</t>
+  </si>
+  <si>
+    <t>print op array</t>
+  </si>
+  <si>
+    <t>Diamond pattern with inside empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   C   C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D     D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E       E</t>
+  </si>
+  <si>
+    <t>F         F</t>
+  </si>
+  <si>
+    <t>Diamond Pattern in Java</t>
+  </si>
+  <si>
+    <t>Enter a Character between A to Z : F</t>
+  </si>
+  <si>
+    <t>as per char entered need to calculate the rows</t>
+  </si>
+  <si>
+    <t>i.e. A =1, B=2</t>
+  </si>
+  <si>
+    <t>Line = rows X 2</t>
+  </si>
+  <si>
+    <t>Have to calculate space to be printed out</t>
+  </si>
+  <si>
+    <t>Have to calculate space to be printed inbetween</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B  B</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>(rows * 2)-1</t>
+  </si>
+  <si>
+    <t>Max out Space</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>rows -1</t>
+  </si>
+  <si>
+    <t>max in space</t>
+  </si>
+  <si>
+    <t>Max out space *2</t>
+  </si>
+  <si>
+    <t>min Char print</t>
+  </si>
+  <si>
+    <t>max char print</t>
+  </si>
+  <si>
+    <t>Initiate input char and assign val to it</t>
+  </si>
+  <si>
+    <t>initiate row var and assign 1</t>
+  </si>
+  <si>
+    <t>initiate inc loop and validate char var is less or equal to 'Z'</t>
+  </si>
+  <si>
+    <t>initiate an char var and assign "A" to it</t>
+  </si>
+  <si>
+    <t>validate char var equals input char</t>
+  </si>
+  <si>
+    <t>row ++</t>
+  </si>
+  <si>
+    <t>char var ++</t>
+  </si>
+  <si>
+    <t>initiate line var and assign (row * 2) -1</t>
+  </si>
+  <si>
+    <t>initiate outer inc loop and validate otr inc loop var is less than line var</t>
+  </si>
+  <si>
+    <t>initiate inr out spc loop and validate inr out spc loop var  is less than spc var</t>
+  </si>
+  <si>
+    <t>initiate spc var and assign row - otr inc loop var</t>
+  </si>
+  <si>
+    <t>Validate otr inc loop is less or equal to row var</t>
+  </si>
+  <si>
+    <t>validate otr inc loop is greater than row var</t>
+  </si>
+  <si>
+    <t>print space and increase inr out spc loop</t>
+  </si>
+  <si>
+    <t>validate otr inc loop equals 0</t>
+  </si>
+  <si>
+    <t>print A</t>
+  </si>
+  <si>
+    <t>validate otr inc loop not equals 0</t>
+  </si>
+  <si>
+    <t>team size</t>
+  </si>
+  <si>
+    <t>1st round</t>
+  </si>
+  <si>
+    <t>2nd Round</t>
+  </si>
+  <si>
+    <t>3rdround</t>
+  </si>
+  <si>
+    <t>total match</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1202,6 +1387,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3415,7 +3616,7 @@
   <dimension ref="B2:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3681,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B23B0-C7CC-4CF7-AD28-83FA91A9D6EB}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3904,6 +4105,667 @@
     <row r="25" spans="1:19">
       <c r="B25" t="s">
         <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF0D3F1-1CB2-4405-9226-28079A9226E5}">
+  <dimension ref="B2:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="19">
+        <f>2*3*4</f>
+        <v>24</v>
+      </c>
+      <c r="D4" s="19">
+        <f>1*3*4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="19">
+        <f>1*2*4</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="19">
+        <f>1*2*3</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19">
+        <f>2*12</f>
+        <v>24</v>
+      </c>
+      <c r="D9" s="19">
+        <f>7*12</f>
+        <v>84</v>
+      </c>
+      <c r="E9" s="19">
+        <f>7*2</f>
+        <v>14</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1853AA-8C6F-4737-B749-ABE29EEEBFCD}">
+  <dimension ref="A1:AN24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="9" max="9" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="22" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="N2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O3" s="24">
+        <v>3</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="AI3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <f>AJ3/2</f>
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <f>(AL3/2)+1</f>
+        <v>2.5</v>
+      </c>
+      <c r="AN3">
+        <f>AM3/2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="P4" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ4">
+        <f>3+2+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" s="24">
+        <v>1</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O8" s="24">
+        <v>2</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="S8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="T9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20"/>
+      <c r="S10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="S11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="20"/>
+      <c r="R12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="R13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="S14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="T15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="T16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="19:21">
+      <c r="U17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="19:21">
+      <c r="T18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="19:21">
+      <c r="U19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="19:21">
+      <c r="T20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="19:21">
+      <c r="S24" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +5767,7 @@
   <dimension ref="B2:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5387,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A794B95-1054-412D-942C-48CEF07704EA}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5403,7 +6265,13 @@
     <col min="18" max="18" width="3" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="6"/>
+    <col min="21" max="26" width="8.88671875" style="6"/>
+    <col min="27" max="27" width="2.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="3" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" style="6"/>
+    <col min="33" max="41" width="3.77734375" style="6" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066D93D-BF19-47DB-894A-3E3F667DBB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B04A3C-928B-4C54-8B2C-D1A62C6D02A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="pyramid" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="351">
   <si>
     <t>*</t>
   </si>
@@ -1190,6 +1190,45 @@
   </si>
   <si>
     <t>total match</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a = a+b</t>
+  </si>
+  <si>
+    <t>b=a-b</t>
+  </si>
+  <si>
+    <t>a=a-b</t>
+  </si>
+  <si>
+    <t>a==b</t>
+  </si>
+  <si>
+    <t>b++</t>
+  </si>
+  <si>
+    <t>a&lt;b</t>
+  </si>
+  <si>
+    <t>a++</t>
+  </si>
+  <si>
+    <t>a,b = b,a</t>
+  </si>
+  <si>
+    <t>a == b</t>
+  </si>
+  <si>
+    <t>b==len-1</t>
+  </si>
+  <si>
+    <t>return a</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1382,12 +1421,6 @@
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1401,8 +1434,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3639,11 +3675,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -4128,19 +4164,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>3</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
       <c r="G2" s="6"/>
@@ -4154,11 +4190,11 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -4168,22 +4204,22 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>2*3*4</f>
         <v>24</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>1*3*4</f>
         <v>12</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>1*2*4</f>
         <v>8</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <f>1*2*3</f>
         <v>6</v>
       </c>
@@ -4198,11 +4234,11 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4212,11 +4248,11 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>278</v>
@@ -4228,19 +4264,19 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>7</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4250,11 +4286,11 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>279</v>
@@ -4266,22 +4302,22 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f>2*12</f>
         <v>24</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f>7*12</f>
         <v>84</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f>7*2</f>
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
         <v>280</v>
@@ -4413,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1853AA-8C6F-4737-B749-ABE29EEEBFCD}">
   <dimension ref="A1:AN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
@@ -4446,11 +4482,11 @@
       <c r="N2" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" t="s">
         <v>181</v>
       </c>
@@ -4479,11 +4515,11 @@
       <c r="N3" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="19">
         <v>3</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
       <c r="AI3" t="s">
         <v>333</v>
       </c>
@@ -4520,13 +4556,13 @@
       <c r="N4" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="19">
         <v>5</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="19"/>
       <c r="R4" t="s">
         <v>316</v>
       </c>
@@ -4550,11 +4586,11 @@
       <c r="N5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
       <c r="R5" t="s">
         <v>319</v>
       </c>
@@ -4574,11 +4610,11 @@
       <c r="N6" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
       <c r="R6" t="s">
         <v>317</v>
       </c>
@@ -4590,11 +4626,11 @@
       <c r="N7" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
       <c r="R7" t="s">
         <v>318</v>
       </c>
@@ -4606,21 +4642,21 @@
       <c r="C8" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="19">
         <v>2</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
       <c r="S8" t="s">
         <v>320</v>
       </c>
@@ -4632,13 +4668,13 @@
       <c r="C9" t="s">
         <v>298</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="T9" t="s">
         <v>90</v>
       </c>
@@ -4650,16 +4686,16 @@
       <c r="C10" t="s">
         <v>299</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="18"/>
       <c r="S10" t="s">
         <v>321</v>
       </c>
@@ -4671,16 +4707,16 @@
       <c r="C11" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="N11" s="20"/>
+      <c r="N11" s="18"/>
       <c r="S11" t="s">
         <v>322</v>
       </c>
@@ -4692,16 +4728,16 @@
       <c r="C12" t="s">
         <v>301</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="18"/>
       <c r="R12" t="s">
         <v>323</v>
       </c>
@@ -4710,25 +4746,25 @@
       <c r="A13" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="R13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
       <c r="S14" t="s">
         <v>327</v>
       </c>
@@ -4962,21 +4998,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -5046,17 +5082,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -6549,10 +6585,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6562,17 +6598,17 @@
     <col min="15" max="20" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -6597,13 +6633,26 @@
       <c r="T3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="X3">
+        <v>47</v>
+      </c>
+      <c r="Y3">
+        <f>X3/16</f>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="Y4">
+        <f>2/16</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -6613,18 +6662,37 @@
       <c r="O6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="AB6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="AB7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="AB8" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC8">
+        <f>AC6+AC7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -6643,84 +6711,271 @@
       <c r="R9" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="AB9" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC9">
+        <f>AC8-AC7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="AB10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC10">
+        <f>AC8-AC9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:32">
       <c r="B13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="AA14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="B15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="AA15" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>220</v>
       </c>
       <c r="H17" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="AA17" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="B18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="AA18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="C19" t="s">
         <v>222</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="AB20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>225</v>
       </c>
       <c r="H21" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="AA21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="C23" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="AB23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="C24" t="s">
         <v>227</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="AB26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="AA27" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B04A3C-928B-4C54-8B2C-D1A62C6D02A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84887A07-C2AE-4A19-B208-E53CF3FE9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="362">
   <si>
     <t>*</t>
   </si>
@@ -1229,6 +1229,39 @@
   </si>
   <si>
     <t>return a</t>
+  </si>
+  <si>
+    <t>a%2==0</t>
+  </si>
+  <si>
+    <t>b%2==0</t>
+  </si>
+  <si>
+    <t>a,b=b,a</t>
+  </si>
+  <si>
+    <t>a++ b++</t>
+  </si>
+  <si>
+    <t>k=1</t>
+  </si>
+  <si>
+    <t>r==k</t>
+  </si>
+  <si>
+    <t>l==k</t>
+  </si>
+  <si>
+    <t>l=r</t>
+  </si>
+  <si>
+    <t>l++ r--</t>
+  </si>
+  <si>
+    <t>l!=k</t>
+  </si>
+  <si>
+    <t>r!=k</t>
   </si>
 </sst>
 </file>
@@ -6585,10 +6618,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="AL6" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17:AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6598,17 +6631,17 @@
     <col min="15" max="20" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -6641,18 +6674,18 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:50">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:50">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -6669,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -6680,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -6692,7 +6725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -6719,7 +6752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:50">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -6727,18 +6760,57 @@
         <f>AC8-AC9</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AS10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
+      <c r="AN12">
+        <v>5</v>
+      </c>
+      <c r="AO12">
+        <v>6</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>2</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -6760,8 +6832,20 @@
       <c r="AF13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AJ13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -6771,8 +6855,26 @@
       <c r="AB14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AJ14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -6782,8 +6884,44 @@
       <c r="AB15" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>5</v>
+      </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>2</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -6805,8 +6943,20 @@
       <c r="AF16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AK16" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6819,8 +6969,29 @@
       <c r="AC17" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AJ17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>358</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -6836,8 +7007,44 @@
       <c r="AD18" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AN18">
+        <v>5</v>
+      </c>
+      <c r="AO18">
+        <v>6</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>2</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -6862,8 +7069,20 @@
       <c r="AF19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AK19" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -6873,8 +7092,26 @@
       <c r="AD20" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AJ20" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -6887,8 +7124,26 @@
       <c r="AB21" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>5</v>
+      </c>
+      <c r="AO21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -6910,8 +7165,14 @@
       <c r="AF22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AL22" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -6921,8 +7182,17 @@
       <c r="AE23" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AJ23" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -6932,8 +7202,26 @@
       <c r="AB24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>3</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+      <c r="AO24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -6952,16 +7240,34 @@
       <c r="AF25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AL25" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
       <c r="AF26" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AJ26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
       <c r="AA27" t="s">
         <v>345</v>
       </c>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84887A07-C2AE-4A19-B208-E53CF3FE9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD7DEF-849F-49F8-B6D6-BCF59A865A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="494">
   <si>
     <t>*</t>
   </si>
@@ -1263,12 +1263,757 @@
   <si>
     <t>r!=k</t>
   </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n1.len&lt;n2.len</t>
+  </si>
+  <si>
+    <t>n1.len&lt;1 &amp;&amp; n2.len&lt;1</t>
+  </si>
+  <si>
+    <t>n1.len&lt;1</t>
+  </si>
+  <si>
+    <t>return n2</t>
+  </si>
+  <si>
+    <t>len=n1.len</t>
+  </si>
+  <si>
+    <t>n2.len&lt;1</t>
+  </si>
+  <si>
+    <t>return n1</t>
+  </si>
+  <si>
+    <t>len=n2.len</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>i&lt;len</t>
+  </si>
+  <si>
+    <t>op = []</t>
+  </si>
+  <si>
+    <t>op[i] = n1[i]</t>
+  </si>
+  <si>
+    <t>op[i++] = n1[i]</t>
+  </si>
+  <si>
+    <t>if len&lt;n1.len</t>
+  </si>
+  <si>
+    <t>x=0</t>
+  </si>
+  <si>
+    <t>x&lt;n1.len-len</t>
+  </si>
+  <si>
+    <t>if len&lt;n2.len</t>
+  </si>
+  <si>
+    <t>x&lt;n2.len-len</t>
+  </si>
+  <si>
+    <t>op[i++] = n2[i]</t>
+  </si>
+  <si>
+    <t>n2.len&lt;=n1.len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2.len&lt;=n1.len </t>
+  </si>
+  <si>
+    <t>len=3</t>
+  </si>
+  <si>
+    <t>0&lt;3</t>
+  </si>
+  <si>
+    <t>op[0]=n1[0]</t>
+  </si>
+  <si>
+    <t>op[1]=n2[0]</t>
+  </si>
+  <si>
+    <t>op[i++]=n2[i-1]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>len=0</t>
+  </si>
+  <si>
+    <t>i++</t>
+  </si>
+  <si>
+    <t>max = (n[i]-1)*(n[j]-1)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m=0</t>
+  </si>
+  <si>
+    <r>
+      <t>((n[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]-1) * (n[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]-1))&gt;m</t>
+    </r>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>l++, r--</t>
+  </si>
+  <si>
+    <r>
+      <t>m=((n[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]-1) * (n[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]-1))</t>
+    </r>
+  </si>
+  <si>
+    <t>l&lt;=r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>lp1</t>
+  </si>
+  <si>
+    <t>lp2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.len</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">++, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1)*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1))&gt;0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1)*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1))&gt;20</t>
+    </r>
+  </si>
+  <si>
+    <t>lp3</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1)*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1))&gt;20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1)*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1))&gt;20</t>
+    </r>
+  </si>
+  <si>
+    <t>lp4</t>
+  </si>
+  <si>
+    <t>m1=0</t>
+  </si>
+  <si>
+    <t>m2=0</t>
+  </si>
+  <si>
+    <t>lt = 0</t>
+  </si>
+  <si>
+    <t>rt = 0</t>
+  </si>
+  <si>
+    <t>m1 = n[l]</t>
+  </si>
+  <si>
+    <t>n[l]&gt;m1</t>
+  </si>
+  <si>
+    <t>m2=n[r]</t>
+  </si>
+  <si>
+    <t>n[r]&gt;m2</t>
+  </si>
+  <si>
+    <t>n[r]&gt;m1</t>
+  </si>
+  <si>
+    <t>m1=n[r]</t>
+  </si>
+  <si>
+    <t>n[l]&gt;m2</t>
+  </si>
+  <si>
+    <t>m2=n[l]</t>
+  </si>
+  <si>
+    <t>n[l]&lt;n[r]</t>
+  </si>
+  <si>
+    <t>5&gt;3</t>
+  </si>
+  <si>
+    <t>5&gt;0</t>
+  </si>
+  <si>
+    <t>m1 = 5</t>
+  </si>
+  <si>
+    <t>3&gt;0</t>
+  </si>
+  <si>
+    <t>6&gt;2</t>
+  </si>
+  <si>
+    <t>6&gt;5</t>
+  </si>
+  <si>
+    <t>m1 = 6</t>
+  </si>
+  <si>
+    <t>2&gt;3</t>
+  </si>
+  <si>
+    <t>l==r</t>
+  </si>
+  <si>
+    <t>4&lt;4</t>
+  </si>
+  <si>
+    <t>4&gt;6</t>
+  </si>
+  <si>
+    <t>4&gt;3</t>
+  </si>
+  <si>
+    <t>m2=4</t>
+  </si>
+  <si>
+    <t>m2=3</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>s.len + 1</t>
+  </si>
+  <si>
+    <t>op[]</t>
+  </si>
+  <si>
+    <t>set len of max</t>
+  </si>
+  <si>
+    <t>if s[i] == I</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>op[i]=min++</t>
+  </si>
+  <si>
+    <t>op[i] = max-1</t>
+  </si>
+  <si>
+    <t>max --</t>
+  </si>
+  <si>
+    <t>i&lt;s.len</t>
+  </si>
+  <si>
+    <t>i==i</t>
+  </si>
+  <si>
+    <t>op[0]=0</t>
+  </si>
+  <si>
+    <t>min++</t>
+  </si>
+  <si>
+    <t>min=1</t>
+  </si>
+  <si>
+    <t>d==d</t>
+  </si>
+  <si>
+    <t>op[1] = 5-1</t>
+  </si>
+  <si>
+    <t>op[1] = 4</t>
+  </si>
+  <si>
+    <t>max - -</t>
+  </si>
+  <si>
+    <t>max = 4</t>
+  </si>
+  <si>
+    <t>op[2]=1</t>
+  </si>
+  <si>
+    <t>min=2</t>
+  </si>
+  <si>
+    <t>op[3]=4-1</t>
+  </si>
+  <si>
+    <t>op[3]=3</t>
+  </si>
+  <si>
+    <t>max = 3</t>
+  </si>
+  <si>
+    <t>s[i]==I</t>
+  </si>
+  <si>
+    <t>op[i+1] = min</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>op[4]=2</t>
+  </si>
+  <si>
+    <t>op=[0,4,1,3,2]</t>
+  </si>
+  <si>
+    <t>6+1</t>
+  </si>
+  <si>
+    <t>op[0] = 7-1</t>
+  </si>
+  <si>
+    <t>op[0]=6</t>
+  </si>
+  <si>
+    <t>max--</t>
+  </si>
+  <si>
+    <t>max = 6</t>
+  </si>
+  <si>
+    <t>op[1]=6-1</t>
+  </si>
+  <si>
+    <t>op[1]=5</t>
+  </si>
+  <si>
+    <t>max = 5</t>
+  </si>
+  <si>
+    <t>op[2]=0</t>
+  </si>
+  <si>
+    <t>min = 1</t>
+  </si>
+  <si>
+    <t>op[3]=1</t>
+  </si>
+  <si>
+    <t>min = 2</t>
+  </si>
+  <si>
+    <t>lp5</t>
+  </si>
+  <si>
+    <t>op[4]=5-1</t>
+  </si>
+  <si>
+    <t>op[4]=4</t>
+  </si>
+  <si>
+    <t>lp6</t>
+  </si>
+  <si>
+    <t>op[5]=2</t>
+  </si>
+  <si>
+    <t>min = 3</t>
+  </si>
+  <si>
+    <t>op[6]=4-1</t>
+  </si>
+  <si>
+    <t>op[6]=3</t>
+  </si>
+  <si>
+    <t>op[i+1] = max-1</t>
+  </si>
+  <si>
+    <t>op = [6,5,0,1,4,2,3]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +2120,35 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1430,7 +2204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1472,6 +2246,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6618,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:DG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL6" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17:AV17"/>
+    <sheetView tabSelected="1" topLeftCell="CC3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="DF23" sqref="DF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6629,19 +7415,31 @@
     <col min="1" max="13" width="3.77734375" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="58" width="3.77734375" customWidth="1"/>
+    <col min="66" max="71" width="3.77734375" style="24" customWidth="1"/>
+    <col min="72" max="75" width="3.77734375" customWidth="1"/>
+    <col min="78" max="91" width="3.77734375" customWidth="1"/>
+    <col min="95" max="95" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="96" max="101" width="3.77734375" customWidth="1"/>
+    <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
+    <col min="106" max="111" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:111">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:111">
       <c r="A2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:50">
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -6674,18 +7472,77 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:111">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="5" spans="1:50">
+      <c r="BN4" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="CA4" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="CB4" s="24"/>
+      <c r="CC4" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="24"/>
+      <c r="CF4" s="24"/>
+      <c r="CQ4" t="s">
+        <v>440</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="CT4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>440</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>310</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>310</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>441</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>441</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>310</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:50">
+      <c r="CA5" s="24"/>
+      <c r="CB5" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="CC5" s="24"/>
+      <c r="CD5" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="CE5" s="24"/>
+      <c r="CF5" s="24"/>
+    </row>
+    <row r="6" spans="1:111">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -6701,8 +7558,37 @@
       <c r="AC6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:50">
+      <c r="BO6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
+      <c r="CA6" s="24"/>
+      <c r="CB6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD6" s="27"/>
+      <c r="CE6" s="27"/>
+      <c r="CF6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>442</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>442</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -6712,8 +7598,59 @@
       <c r="AC7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:50">
+      <c r="BN7" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BO7" s="25">
+        <v>5</v>
+      </c>
+      <c r="BP7" s="25">
+        <v>6</v>
+      </c>
+      <c r="BQ7" s="25">
+        <v>4</v>
+      </c>
+      <c r="BR7" s="25">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="25">
+        <v>3</v>
+      </c>
+      <c r="CA7" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="CB7" s="25">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="25">
+        <v>6</v>
+      </c>
+      <c r="CD7" s="25">
+        <v>4</v>
+      </c>
+      <c r="CE7" s="25">
+        <v>2</v>
+      </c>
+      <c r="CF7" s="25">
+        <v>3</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>401</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>448</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>448</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -6724,8 +7661,38 @@
         <f>AC6+AC7</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:50">
+      <c r="BU8" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>403</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>426</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>425</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>443</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>444</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>443</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>444</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>472</v>
+      </c>
+      <c r="DE8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -6751,8 +7718,35 @@
         <f>AC8-AC7</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:50">
+      <c r="BN9" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BO9" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>397</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>427</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>421</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>445</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>446</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>445</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -6763,13 +7757,89 @@
       <c r="AS10" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:50">
+      <c r="BP10" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="BQ10" s="24">
+        <f>((5-1)*(6-1))</f>
+        <v>20</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>400</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>428</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>422</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>452</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>453</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>403</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:50">
+      <c r="BA11" t="s">
+        <v>362</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BD11">
+        <v>3</v>
+      </c>
+      <c r="BE11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>2</v>
+      </c>
+      <c r="BJ11">
+        <v>3</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>406</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>429</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>423</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>447</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>454</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>473</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -6809,8 +7879,61 @@
       <c r="AX12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:50">
+      <c r="BA12" t="s">
+        <v>363</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>5</v>
+      </c>
+      <c r="BD12">
+        <v>6</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>6</v>
+      </c>
+      <c r="BO12" s="27"/>
+      <c r="BP12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ12" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS12" s="27"/>
+      <c r="BU12" t="s">
+        <v>402</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>439</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>424</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>449</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>455</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>456</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>475</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -6844,8 +7967,47 @@
       <c r="AX13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:50">
+      <c r="BA13" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>384</v>
+      </c>
+      <c r="BO13" s="25">
+        <v>5</v>
+      </c>
+      <c r="BP13" s="25">
+        <v>6</v>
+      </c>
+      <c r="BQ13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BR13" s="25">
+        <v>2</v>
+      </c>
+      <c r="BS13" s="25">
+        <v>3</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>139</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>139</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>404</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>457</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>404</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -6873,8 +8035,40 @@
       <c r="AT14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:50">
+      <c r="BA14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>385</v>
+      </c>
+      <c r="CA14" s="24"/>
+      <c r="CC14" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD14" s="27"/>
+      <c r="CE14" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>418</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>450</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>458</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>459</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>477</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -6920,8 +8114,56 @@
       <c r="AX15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:50">
+      <c r="BB15" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN15" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO15" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="CA15" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="CB15" s="25">
+        <v>5</v>
+      </c>
+      <c r="CC15" s="25">
+        <v>6</v>
+      </c>
+      <c r="CD15" s="25">
+        <v>4</v>
+      </c>
+      <c r="CE15" s="25">
+        <v>2</v>
+      </c>
+      <c r="CF15" s="25">
+        <v>3</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>417</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>451</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>460</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>461</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>475</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -6955,8 +8197,41 @@
       <c r="AW16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:50">
+      <c r="BA16" t="s">
+        <v>364</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>404</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>430</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>420</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>467</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>453</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>409</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6990,8 +8265,40 @@
       <c r="AV17" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="18" spans="1:50">
+      <c r="BB17" t="s">
+        <v>366</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>390</v>
+      </c>
+      <c r="BO17" s="27"/>
+      <c r="BQ17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS17" s="27"/>
+      <c r="CC17" t="s">
+        <v>431</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>419</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>492</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>462</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -7043,8 +8350,53 @@
       <c r="AX18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:50">
+      <c r="BC18" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>388</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>391</v>
+      </c>
+      <c r="BO18" s="25">
+        <v>5</v>
+      </c>
+      <c r="BP18" s="25">
+        <v>6</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>4</v>
+      </c>
+      <c r="BR18" s="25">
+        <v>2</v>
+      </c>
+      <c r="BS18" s="25">
+        <v>3</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>432</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>399</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>139</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>455</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>463</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>455</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:110">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -7081,8 +8433,29 @@
       <c r="AV19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:50">
+      <c r="BB19" t="s">
+        <v>368</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>433</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>468</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>412</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>457</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>412</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:110">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -7110,8 +8483,26 @@
       <c r="AT20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:50">
+      <c r="BA20" t="s">
+        <v>383</v>
+      </c>
+      <c r="BN20" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="BO20" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>464</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>465</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:110">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -7142,8 +8533,28 @@
       <c r="AO21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:50">
+      <c r="BB21" t="s">
+        <v>369</v>
+      </c>
+      <c r="CA21" s="24"/>
+      <c r="CD21" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="CE21" s="27"/>
+      <c r="CY21" t="s">
+        <v>460</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>466</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>455</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:110">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -7171,8 +8582,48 @@
       <c r="AN22" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="23" spans="1:50">
+      <c r="BC22" t="s">
+        <v>370</v>
+      </c>
+      <c r="BO22" s="27"/>
+      <c r="BR22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA22" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="CB22" s="25">
+        <v>5</v>
+      </c>
+      <c r="CC22" s="25">
+        <v>6</v>
+      </c>
+      <c r="CD22" s="25">
+        <v>4</v>
+      </c>
+      <c r="CE22" s="25">
+        <v>2</v>
+      </c>
+      <c r="CF22" s="25">
+        <v>3</v>
+      </c>
+      <c r="CW22" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>457</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>484</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:110">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -7191,8 +8642,41 @@
       <c r="AL23" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="24" spans="1:50">
+      <c r="BB23" t="s">
+        <v>371</v>
+      </c>
+      <c r="BO23" s="25">
+        <v>5</v>
+      </c>
+      <c r="BP23" s="25">
+        <v>6</v>
+      </c>
+      <c r="BQ23" s="25">
+        <v>4</v>
+      </c>
+      <c r="BR23" s="25">
+        <v>2</v>
+      </c>
+      <c r="BS23" s="25">
+        <v>3</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>409</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>435</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>485</v>
+      </c>
+      <c r="DF23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:110">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -7220,8 +8704,23 @@
       <c r="AO24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:50">
+      <c r="BA24" t="s">
+        <v>374</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>436</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>470</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>475</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:110">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -7246,8 +8745,26 @@
       <c r="AO25" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="26" spans="1:50">
+      <c r="BA25" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN25" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BO25" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>437</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>487</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:110">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -7266,8 +8783,20 @@
       <c r="AM26" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="27" spans="1:50">
+      <c r="BA26" t="s">
+        <v>373</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>438</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>471</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:110">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -7283,9 +8812,82 @@
       <c r="AE27" t="s">
         <v>350</v>
       </c>
+      <c r="BB27" t="s">
+        <v>376</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>455</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:110">
+      <c r="BB28" t="s">
+        <v>389</v>
+      </c>
+      <c r="DA28" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:110">
+      <c r="BA29" t="s">
+        <v>377</v>
+      </c>
+      <c r="DC29" t="s">
+        <v>490</v>
+      </c>
+      <c r="DF29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:110">
+      <c r="BB30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110">
+      <c r="BB31" t="s">
+        <v>379</v>
+      </c>
+      <c r="DB31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:110">
+      <c r="BC32" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="53:55">
+      <c r="BA33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="53:55">
+      <c r="BB34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="53:55">
+      <c r="BB35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="53:55">
+      <c r="BC36" t="s">
+        <v>382</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD7DEF-849F-49F8-B6D6-BCF59A865A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CE0C5-11DE-4936-B3B6-E59AF3AB9836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="532">
   <si>
     <t>*</t>
   </si>
@@ -2008,12 +2008,126 @@
   <si>
     <t>op = [6,5,0,1,4,2,3]</t>
   </si>
+  <si>
+    <t>s[i]=='I'</t>
+  </si>
+  <si>
+    <t>op[i]&lt;op[i+1]</t>
+  </si>
+  <si>
+    <t>s[i]=='D'</t>
+  </si>
+  <si>
+    <t>op[i]&gt;op[i+1]</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>S='DDD'</t>
+  </si>
+  <si>
+    <t>op=[4,3,2,1]</t>
+  </si>
+  <si>
+    <t>S='III'</t>
+  </si>
+  <si>
+    <t>op=[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>op start==1 &amp; length &lt;=9</t>
+  </si>
+  <si>
+    <t>S='ID'</t>
+  </si>
+  <si>
+    <t>op=[1,3,2]</t>
+  </si>
+  <si>
+    <t>S='DI'</t>
+  </si>
+  <si>
+    <t>op=[2,1,3]</t>
+  </si>
+  <si>
+    <t>S='IIDDI'</t>
+  </si>
+  <si>
+    <t>op=[1,2,5,4,3,6]</t>
+  </si>
+  <si>
+    <t>S='IIDD'</t>
+  </si>
+  <si>
+    <t>op=[1,2,5,4,3]</t>
+  </si>
+  <si>
+    <t>op=''</t>
+  </si>
+  <si>
+    <t>i=1</t>
+  </si>
+  <si>
+    <t>op=op+i</t>
+  </si>
+  <si>
+    <t>for(; i&lt;=s.len+1; i++)</t>
+  </si>
+  <si>
+    <t>for(j=0;j&lt;s.len;j++)</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>s[k]=='I'</t>
+  </si>
+  <si>
+    <t>s[j]=='D'</t>
+  </si>
+  <si>
+    <t>k=j</t>
+  </si>
+  <si>
+    <t>for(;k&lt;s.len;k++)</t>
+  </si>
+  <si>
+    <t>count=1</t>
+  </si>
+  <si>
+    <t>count++</t>
+  </si>
+  <si>
+    <t>count=2</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>op[j++]=d - -</t>
+  </si>
+  <si>
+    <t>S='IDIDDI'</t>
+  </si>
+  <si>
+    <t>op=[1,3,2,6,5,4,7]</t>
+  </si>
+  <si>
+    <t>j - -</t>
+  </si>
+  <si>
+    <t>d=op[k]</t>
+  </si>
+  <si>
+    <t>for(;count&gt;=0;count - -)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2149,8 +2263,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,6 +2303,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,7 +2353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2241,22 +2390,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4494,11 +4655,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -5817,21 +5978,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -5901,17 +6062,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -7404,10 +7565,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:DG36"/>
+  <dimension ref="A1:ER90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DF23" sqref="DF23"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="FQ15" sqref="FQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7416,21 +7577,24 @@
     <col min="14" max="14" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="2" style="5" bestFit="1" customWidth="1"/>
     <col min="53" max="58" width="3.77734375" customWidth="1"/>
-    <col min="66" max="71" width="3.77734375" style="24" customWidth="1"/>
+    <col min="66" max="71" width="3.77734375" style="22" customWidth="1"/>
     <col min="72" max="75" width="3.77734375" customWidth="1"/>
     <col min="78" max="91" width="3.77734375" customWidth="1"/>
     <col min="95" max="95" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="96" max="101" width="3.77734375" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
     <col min="106" max="111" width="3.77734375" customWidth="1"/>
+    <col min="117" max="122" width="3.77734375" customWidth="1"/>
+    <col min="123" max="129" width="3.77734375" style="5" customWidth="1"/>
+    <col min="130" max="152" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111">
+    <row r="1" spans="1:148">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:148">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -7438,8 +7602,11 @@
       <c r="BO2" s="18" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="3" spans="1:111">
+      <c r="DJ2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:148">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -7471,25 +7638,43 @@
         <f>X3/16</f>
         <v>2.9375</v>
       </c>
-    </row>
-    <row r="4" spans="1:111">
+      <c r="DJ3" t="s">
+        <v>494</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>440</v>
+      </c>
+      <c r="DN3" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DO3" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DP3" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DQ3" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:148">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-      <c r="BN4" s="24" t="s">
+      <c r="BN4" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="CA4" s="24" t="s">
+      <c r="CA4" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="CB4" s="24"/>
-      <c r="CC4" s="24" t="s">
+      <c r="CB4" s="22"/>
+      <c r="CC4" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="24"/>
+      <c r="CD4" s="22"/>
+      <c r="CE4" s="22"/>
+      <c r="CF4" s="22"/>
       <c r="CQ4" t="s">
         <v>440</v>
       </c>
@@ -7526,23 +7711,32 @@
       <c r="DG4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="5" spans="1:111">
+      <c r="DK4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="CA5" s="24"/>
-      <c r="CB5" s="24" t="s">
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="CC5" s="24"/>
-      <c r="CD5" s="24" t="s">
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="CE5" s="24"/>
-      <c r="CF5" s="24"/>
-    </row>
-    <row r="6" spans="1:111">
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="22"/>
+      <c r="DJ5" t="s">
+        <v>496</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -7558,21 +7752,21 @@
       <c r="AC6">
         <v>5</v>
       </c>
-      <c r="BO6" s="27" t="s">
+      <c r="BO6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="BP6" s="27" t="s">
+      <c r="BP6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
-      <c r="CA6" s="24"/>
-      <c r="CB6" s="27" t="s">
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="CD6" s="27"/>
-      <c r="CE6" s="27"/>
-      <c r="CF6" s="27" t="s">
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="24"/>
+      <c r="CF6" s="24" t="s">
         <v>133</v>
       </c>
       <c r="CQ6" t="s">
@@ -7587,8 +7781,14 @@
       <c r="DB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:111">
+      <c r="DK6" t="s">
+        <v>497</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -7598,40 +7798,40 @@
       <c r="AC7">
         <v>3</v>
       </c>
-      <c r="BN7" s="26" t="s">
+      <c r="BN7" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="BO7" s="25">
+      <c r="BO7" s="23">
         <v>5</v>
       </c>
-      <c r="BP7" s="25">
+      <c r="BP7" s="23">
         <v>6</v>
       </c>
-      <c r="BQ7" s="25">
+      <c r="BQ7" s="23">
         <v>4</v>
       </c>
-      <c r="BR7" s="25">
+      <c r="BR7" s="23">
         <v>2</v>
       </c>
-      <c r="BS7" s="25">
+      <c r="BS7" s="23">
         <v>3</v>
       </c>
-      <c r="CA7" s="26" t="s">
+      <c r="CA7" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="CB7" s="25">
+      <c r="CB7" s="23">
         <v>5</v>
       </c>
-      <c r="CC7" s="25">
+      <c r="CC7" s="23">
         <v>6</v>
       </c>
-      <c r="CD7" s="25">
+      <c r="CD7" s="23">
         <v>4</v>
       </c>
-      <c r="CE7" s="25">
+      <c r="CE7" s="23">
         <v>2</v>
       </c>
-      <c r="CF7" s="25">
+      <c r="CF7" s="23">
         <v>3</v>
       </c>
       <c r="CH7" t="s">
@@ -7649,8 +7849,58 @@
       <c r="DB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:111">
+      <c r="DM7" t="s">
+        <v>515</v>
+      </c>
+      <c r="DW7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA7" s="5"/>
+      <c r="ED7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI7" s="5"/>
+      <c r="EL7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ7" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -7691,8 +7941,68 @@
       <c r="DE8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:111">
+      <c r="DJ8" t="s">
+        <v>503</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>514</v>
+      </c>
+      <c r="DW8" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY8" s="28">
+        <v>3</v>
+      </c>
+      <c r="DZ8" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA8" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED8" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE8" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF8" s="28">
+        <v>3</v>
+      </c>
+      <c r="EG8" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH8" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI8" s="28">
+        <v>6</v>
+      </c>
+      <c r="EL8" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM8" s="28">
+        <v>2</v>
+      </c>
+      <c r="EN8" s="28">
+        <v>3</v>
+      </c>
+      <c r="EO8" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP8" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ8" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER8" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:148">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -7718,7 +8028,7 @@
         <f>AC8-AC7</f>
         <v>5</v>
       </c>
-      <c r="BN9" s="24" t="s">
+      <c r="BN9" s="22" t="s">
         <v>403</v>
       </c>
       <c r="BO9" s="18" t="s">
@@ -7745,8 +8055,30 @@
       <c r="DB9" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="10" spans="1:111">
+      <c r="DM9" t="s">
+        <v>516</v>
+      </c>
+      <c r="DW9" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ9" s="5"/>
+      <c r="EA9" s="5"/>
+      <c r="ED9" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EE9" s="5"/>
+      <c r="EF9" s="5"/>
+      <c r="EG9" s="5"/>
+      <c r="EH9" s="5"/>
+      <c r="EL9" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EM9" s="5"/>
+      <c r="EN9" s="5"/>
+      <c r="EO9" s="5"/>
+      <c r="EP9" s="5"/>
+    </row>
+    <row r="10" spans="1:148">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -7757,10 +8089,10 @@
       <c r="AS10" t="s">
         <v>355</v>
       </c>
-      <c r="BP10" s="24" t="s">
+      <c r="BP10" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="BQ10" s="24">
+      <c r="BQ10" s="22">
         <f>((5-1)*(6-1))</f>
         <v>20</v>
       </c>
@@ -7788,8 +8120,14 @@
       <c r="DB10" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="11" spans="1:111">
+      <c r="DJ10" t="s">
+        <v>255</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:148">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -7838,8 +8176,61 @@
       <c r="DF11" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="12" spans="1:111">
+      <c r="DJ11" t="s">
+        <v>499</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>520</v>
+      </c>
+      <c r="DW11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA11" s="5"/>
+      <c r="ED11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI11" s="5"/>
+      <c r="EL11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN11" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ11" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:148">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -7900,14 +8291,14 @@
       <c r="BJ12">
         <v>6</v>
       </c>
-      <c r="BO12" s="27"/>
-      <c r="BP12" s="27" t="s">
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="BQ12" s="27" t="s">
+      <c r="BQ12" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="BS12" s="27"/>
+      <c r="BS12" s="24"/>
       <c r="BU12" t="s">
         <v>402</v>
       </c>
@@ -7932,8 +8323,68 @@
       <c r="DE12" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="13" spans="1:111">
+      <c r="DJ12" t="s">
+        <v>500</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>219</v>
+      </c>
+      <c r="DW12" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX12" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY12" s="28">
+        <v>3</v>
+      </c>
+      <c r="DZ12" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA12" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED12" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE12" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF12" s="28">
+        <v>3</v>
+      </c>
+      <c r="EG12" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH12" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI12" s="28">
+        <v>6</v>
+      </c>
+      <c r="EL12" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM12" s="28">
+        <v>2</v>
+      </c>
+      <c r="EN12" s="28">
+        <v>3</v>
+      </c>
+      <c r="EO12" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP12" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ12" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER12" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -7973,19 +8424,19 @@
       <c r="BH13" t="s">
         <v>384</v>
       </c>
-      <c r="BO13" s="25">
+      <c r="BO13" s="23">
         <v>5</v>
       </c>
-      <c r="BP13" s="25">
+      <c r="BP13" s="23">
         <v>6</v>
       </c>
-      <c r="BQ13" s="25">
+      <c r="BQ13" s="23">
         <v>4</v>
       </c>
-      <c r="BR13" s="25">
+      <c r="BR13" s="23">
         <v>2</v>
       </c>
-      <c r="BS13" s="25">
+      <c r="BS13" s="23">
         <v>3</v>
       </c>
       <c r="CI13" t="s">
@@ -8006,8 +8457,28 @@
       <c r="DB13" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="14" spans="1:111">
+      <c r="DO13" t="s">
+        <v>521</v>
+      </c>
+      <c r="DX13" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ13" s="5"/>
+      <c r="EA13" s="5"/>
+      <c r="EE13" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EF13" s="5"/>
+      <c r="EG13" s="5"/>
+      <c r="EH13" s="5"/>
+      <c r="EM13" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EN13" s="5"/>
+      <c r="EO13" s="5"/>
+      <c r="EP13" s="5"/>
+    </row>
+    <row r="14" spans="1:148">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -8041,12 +8512,12 @@
       <c r="BI14" t="s">
         <v>385</v>
       </c>
-      <c r="CA14" s="24"/>
-      <c r="CC14" s="27" t="s">
+      <c r="CA14" s="22"/>
+      <c r="CC14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="CD14" s="27"/>
-      <c r="CE14" s="27" t="s">
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="24" t="s">
         <v>133</v>
       </c>
       <c r="CJ14" t="s">
@@ -8067,8 +8538,17 @@
       <c r="DF14" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="15" spans="1:111">
+      <c r="DJ14" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>518</v>
+      </c>
+      <c r="EM14" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -8120,28 +8600,28 @@
       <c r="BI15" t="s">
         <v>372</v>
       </c>
-      <c r="BN15" s="24" t="s">
+      <c r="BN15" s="22" t="s">
         <v>404</v>
       </c>
       <c r="BO15" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="CA15" s="26" t="s">
+      <c r="CA15" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="CB15" s="25">
+      <c r="CB15" s="23">
         <v>5</v>
       </c>
-      <c r="CC15" s="25">
+      <c r="CC15" s="23">
         <v>6</v>
       </c>
-      <c r="CD15" s="25">
+      <c r="CD15" s="23">
         <v>4</v>
       </c>
-      <c r="CE15" s="25">
+      <c r="CE15" s="23">
         <v>2</v>
       </c>
-      <c r="CF15" s="25">
+      <c r="CF15" s="23">
         <v>3</v>
       </c>
       <c r="CK15" t="s">
@@ -8162,8 +8642,46 @@
       <c r="DE15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="16" spans="1:111">
+      <c r="DJ15" t="s">
+        <v>502</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY15" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ15" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA15" s="5"/>
+      <c r="ED15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF15" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG15" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI15" s="5"/>
+      <c r="EL15" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -8230,8 +8748,44 @@
       <c r="DB16" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="17" spans="1:110">
+      <c r="DP16" t="s">
+        <v>139</v>
+      </c>
+      <c r="DW16" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX16" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY16" s="28">
+        <v>3</v>
+      </c>
+      <c r="DZ16" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA16" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED16" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE16" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF16" s="28">
+        <v>3</v>
+      </c>
+      <c r="EG16" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH16" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI16" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:148">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -8274,14 +8828,14 @@
       <c r="BJ17" t="s">
         <v>390</v>
       </c>
-      <c r="BO17" s="27"/>
-      <c r="BQ17" s="27" t="s">
+      <c r="BO17" s="24"/>
+      <c r="BQ17" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="BR17" s="27" t="s">
+      <c r="BR17" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="BS17" s="27"/>
+      <c r="BS17" s="24"/>
       <c r="CC17" t="s">
         <v>431</v>
       </c>
@@ -8297,8 +8851,42 @@
       <c r="DC17" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="18" spans="1:110">
+      <c r="DJ17" t="s">
+        <v>504</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>523</v>
+      </c>
+      <c r="DY17" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ17" s="5"/>
+      <c r="EA17" s="5"/>
+      <c r="EF17" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EG17" s="5"/>
+      <c r="EH17" s="5"/>
+      <c r="EL17" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM17" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN17" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO17" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP17" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ17" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:148">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -8359,19 +8947,19 @@
       <c r="BJ18" t="s">
         <v>391</v>
       </c>
-      <c r="BO18" s="25">
+      <c r="BO18" s="23">
         <v>5</v>
       </c>
-      <c r="BP18" s="25">
+      <c r="BP18" s="23">
         <v>6</v>
       </c>
-      <c r="BQ18" s="25">
+      <c r="BQ18" s="23">
         <v>4</v>
       </c>
-      <c r="BR18" s="25">
+      <c r="BR18" s="23">
         <v>2</v>
       </c>
-      <c r="BS18" s="25">
+      <c r="BS18" s="23">
         <v>3</v>
       </c>
       <c r="CD18" t="s">
@@ -8395,8 +8983,43 @@
       <c r="DE18" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="19" spans="1:110">
+      <c r="DJ18" t="s">
+        <v>505</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>530</v>
+      </c>
+      <c r="DY18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED18" s="5"/>
+      <c r="EE18" s="5"/>
+      <c r="EF18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL18" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM18" s="28">
+        <v>2</v>
+      </c>
+      <c r="EN18" s="28">
+        <v>3</v>
+      </c>
+      <c r="EO18" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP18" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ18" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER18" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:148">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -8454,8 +9077,25 @@
       <c r="DB19" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="20" spans="1:110">
+      <c r="DO19" t="s">
+        <v>531</v>
+      </c>
+      <c r="DW19" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="ED19" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="EE19" s="5"/>
+      <c r="EF19" s="5"/>
+      <c r="EM19" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EN19" s="5"/>
+      <c r="EO19" s="5"/>
+      <c r="EP19" s="5"/>
+    </row>
+    <row r="20" spans="1:148">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -8486,7 +9126,7 @@
       <c r="BA20" t="s">
         <v>383</v>
       </c>
-      <c r="BN20" s="24" t="s">
+      <c r="BN20" s="22" t="s">
         <v>409</v>
       </c>
       <c r="BO20" s="18" t="s">
@@ -8501,8 +9141,17 @@
       <c r="DC20" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:110">
+      <c r="DJ20" t="s">
+        <v>506</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM20" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:148">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -8536,11 +9185,11 @@
       <c r="BB21" t="s">
         <v>369</v>
       </c>
-      <c r="CA21" s="24"/>
-      <c r="CD21" s="27" t="s">
+      <c r="CA21" s="22"/>
+      <c r="CD21" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="CE21" s="27"/>
+      <c r="CE21" s="24"/>
       <c r="CY21" t="s">
         <v>460</v>
       </c>
@@ -8553,8 +9202,46 @@
       <c r="DE21" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="22" spans="1:110">
+      <c r="DJ21" t="s">
+        <v>507</v>
+      </c>
+      <c r="DO21" t="s">
+        <v>529</v>
+      </c>
+      <c r="DW21" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX21" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA21" s="5"/>
+      <c r="ED21" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE21" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH21" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI21" s="5"/>
+      <c r="EL21" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:148">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -8585,29 +9272,29 @@
       <c r="BC22" t="s">
         <v>370</v>
       </c>
-      <c r="BO22" s="27"/>
-      <c r="BR22" s="27" t="s">
+      <c r="BO22" s="24"/>
+      <c r="BR22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="BS22" s="27" t="s">
+      <c r="BS22" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="CA22" s="26" t="s">
+      <c r="CA22" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="CB22" s="25">
+      <c r="CB22" s="23">
         <v>5</v>
       </c>
-      <c r="CC22" s="25">
+      <c r="CC22" s="23">
         <v>6</v>
       </c>
-      <c r="CD22" s="25">
+      <c r="CD22" s="23">
         <v>4</v>
       </c>
-      <c r="CE22" s="25">
+      <c r="CE22" s="23">
         <v>2</v>
       </c>
-      <c r="CF22" s="25">
+      <c r="CF22" s="23">
         <v>3</v>
       </c>
       <c r="CW22" s="9" t="s">
@@ -8622,8 +9309,41 @@
       <c r="DB22" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="23" spans="1:110">
+      <c r="DW22" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX22" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY22" s="28">
+        <v>3</v>
+      </c>
+      <c r="DZ22" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA22" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED22" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE22" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF22" s="28">
+        <v>3</v>
+      </c>
+      <c r="EG22" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH22" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI22" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:148">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -8645,19 +9365,19 @@
       <c r="BB23" t="s">
         <v>371</v>
       </c>
-      <c r="BO23" s="25">
+      <c r="BO23" s="23">
         <v>5</v>
       </c>
-      <c r="BP23" s="25">
+      <c r="BP23" s="23">
         <v>6</v>
       </c>
-      <c r="BQ23" s="25">
+      <c r="BQ23" s="23">
         <v>4</v>
       </c>
-      <c r="BR23" s="25">
+      <c r="BR23" s="23">
         <v>2</v>
       </c>
-      <c r="BS23" s="25">
+      <c r="BS23" s="23">
         <v>3</v>
       </c>
       <c r="CA23" t="s">
@@ -8675,8 +9395,39 @@
       <c r="DF23" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="24" spans="1:110">
+      <c r="DJ23" t="s">
+        <v>508</v>
+      </c>
+      <c r="DY23" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ23" s="5"/>
+      <c r="EA23" s="5"/>
+      <c r="EF23" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EG23" s="5"/>
+      <c r="EH23" s="5"/>
+      <c r="EL23" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN23" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ23" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:148">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -8719,8 +9470,41 @@
       <c r="DE24" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="25" spans="1:110">
+      <c r="DJ24" t="s">
+        <v>509</v>
+      </c>
+      <c r="DZ24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED24" s="5"/>
+      <c r="EE24" s="5"/>
+      <c r="EF24" s="5"/>
+      <c r="EG24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL24" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM24" s="28">
+        <v>2</v>
+      </c>
+      <c r="EN24" s="28">
+        <v>3</v>
+      </c>
+      <c r="EO24" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP24" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ24" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER24" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:148">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -8748,7 +9532,7 @@
       <c r="BA25" t="s">
         <v>372</v>
       </c>
-      <c r="BN25" s="24" t="s">
+      <c r="BN25" s="22" t="s">
         <v>412</v>
       </c>
       <c r="BO25" s="18" t="s">
@@ -8763,8 +9547,22 @@
       <c r="DB25" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="26" spans="1:110">
+      <c r="DW25" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="ED25" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="EE25" s="5"/>
+      <c r="EF25" s="5"/>
+      <c r="EM25" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EN25" s="5"/>
+      <c r="EO25" s="5"/>
+      <c r="EP25" s="5"/>
+    </row>
+    <row r="26" spans="1:148">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -8795,8 +9593,14 @@
       <c r="DC26" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="27" spans="1:110">
+      <c r="DJ26" t="s">
+        <v>510</v>
+      </c>
+      <c r="EM26" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:148">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -8821,8 +9625,43 @@
       <c r="DE27" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="28" spans="1:110">
+      <c r="DJ27" t="s">
+        <v>511</v>
+      </c>
+      <c r="DW27" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX27" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA27" s="5"/>
+      <c r="ED27" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE27" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH27" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI27" s="5"/>
+      <c r="EL27" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:148">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -8832,8 +9671,44 @@
       <c r="DB28" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="29" spans="1:110">
+      <c r="DW28" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX28" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY28" s="28">
+        <v>3</v>
+      </c>
+      <c r="DZ28" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA28" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED28" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE28" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF28" s="28">
+        <v>3</v>
+      </c>
+      <c r="EG28" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH28" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI28" s="28">
+        <v>6</v>
+      </c>
+      <c r="EN28" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:148">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -8843,46 +9718,1005 @@
       <c r="DF29" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="30" spans="1:110">
+      <c r="DJ29" t="s">
+        <v>527</v>
+      </c>
+      <c r="DY29" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ29" s="5"/>
+      <c r="EA29" s="5"/>
+      <c r="EF29" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EG29" s="5"/>
+      <c r="EH29" s="5"/>
+    </row>
+    <row r="30" spans="1:148">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="31" spans="1:110">
+      <c r="DJ30" t="s">
+        <v>528</v>
+      </c>
+      <c r="DZ30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED30" s="5"/>
+      <c r="EE30" s="5"/>
+      <c r="EF30" s="5"/>
+      <c r="EG30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL30" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM30" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN30" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO30" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP30" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ30" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:148">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
       <c r="DB31" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="32" spans="1:110">
+      <c r="DW31" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="ED31" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="EE31" s="5"/>
+      <c r="EF31" s="5"/>
+      <c r="EL31" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM31" s="31">
+        <v>3</v>
+      </c>
+      <c r="EN31" s="28">
+        <v>3</v>
+      </c>
+      <c r="EO31" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP31" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ31" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER31" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:148">
       <c r="BC32" t="s">
         <v>375</v>
       </c>
       <c r="BF32" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="33" spans="53:55">
+      <c r="EA32" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EH32" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EM32" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EN32" s="5"/>
+      <c r="EO32" s="5"/>
+      <c r="EP32" s="5"/>
+    </row>
+    <row r="33" spans="53:148">
       <c r="BA33" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="34" spans="53:55">
+      <c r="EM33" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="53:148">
       <c r="BB34" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="35" spans="53:55">
+      <c r="DW34" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX34" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY34" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ34" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA34" s="5"/>
+      <c r="ED34" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE34" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF34" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG34" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH34" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI34" s="5"/>
+      <c r="EL34" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="53:148">
       <c r="BB35" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="36" spans="53:55">
+      <c r="DW35" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX35" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY35" s="31">
+        <v>5</v>
+      </c>
+      <c r="DZ35" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA35" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED35" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE35" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF35" s="31">
+        <v>5</v>
+      </c>
+      <c r="EG35" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH35" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI35" s="28">
+        <v>6</v>
+      </c>
+      <c r="EM35" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="53:148">
       <c r="BC36" t="s">
         <v>382</v>
+      </c>
+      <c r="DY36" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="DZ36" s="5"/>
+      <c r="EA36" s="5"/>
+      <c r="EF36" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EG36" s="5"/>
+      <c r="EH36" s="5"/>
+    </row>
+    <row r="37" spans="53:148">
+      <c r="DZ37" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED37" s="5"/>
+      <c r="EE37" s="5"/>
+      <c r="EF37" s="5"/>
+      <c r="EG37" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL37" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM37" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN37" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO37" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP37" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ37" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="53:148">
+      <c r="DW38" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="ED38" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="EE38" s="5"/>
+      <c r="EF38" s="5"/>
+      <c r="EL38" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM38" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN38" s="31">
+        <v>2</v>
+      </c>
+      <c r="EO38" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP38" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ38" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER38" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="53:148">
+      <c r="DY39" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EF39" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EN39" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EO39" s="5"/>
+      <c r="EP39" s="5"/>
+    </row>
+    <row r="40" spans="53:148">
+      <c r="EM40" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="53:148">
+      <c r="DW41" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX41" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY41" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ41" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA41" s="5"/>
+      <c r="ED41" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE41" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF41" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG41" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH41" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI41" s="5"/>
+      <c r="EL41" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="53:148">
+      <c r="DW42" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX42" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY42" s="28">
+        <v>5</v>
+      </c>
+      <c r="DZ42" s="31">
+        <v>4</v>
+      </c>
+      <c r="EA42" s="28">
+        <v>5</v>
+      </c>
+      <c r="ED42" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE42" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF42" s="28">
+        <v>5</v>
+      </c>
+      <c r="EG42" s="31">
+        <v>4</v>
+      </c>
+      <c r="EH42" s="28">
+        <v>5</v>
+      </c>
+      <c r="EI42" s="28">
+        <v>6</v>
+      </c>
+      <c r="EN42" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="53:148">
+      <c r="DZ43" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EA43" s="5"/>
+      <c r="EG43" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EH43" s="5"/>
+    </row>
+    <row r="44" spans="53:148">
+      <c r="DZ44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED44" s="5"/>
+      <c r="EE44" s="5"/>
+      <c r="EF44" s="5"/>
+      <c r="EG44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL44" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN44" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ44" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="53:148">
+      <c r="DW45" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="ED45" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="EE45" s="5"/>
+      <c r="EF45" s="5"/>
+      <c r="EL45" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM45" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN45" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO45" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP45" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ45" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER45" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="53:148">
+      <c r="DZ46" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EG46" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EN46" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EO46" s="5"/>
+      <c r="EP46" s="5"/>
+    </row>
+    <row r="48" spans="53:148">
+      <c r="DW48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DX48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="DZ48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA48" s="5"/>
+      <c r="ED48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI48" s="5"/>
+      <c r="EL48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN48" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ48" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="127:148">
+      <c r="DW49" s="28">
+        <v>1</v>
+      </c>
+      <c r="DX49" s="28">
+        <v>2</v>
+      </c>
+      <c r="DY49" s="28">
+        <v>5</v>
+      </c>
+      <c r="DZ49" s="28">
+        <v>4</v>
+      </c>
+      <c r="EA49" s="31">
+        <v>3</v>
+      </c>
+      <c r="ED49" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE49" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF49" s="28">
+        <v>5</v>
+      </c>
+      <c r="EG49" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH49" s="31">
+        <v>3</v>
+      </c>
+      <c r="EI49" s="28">
+        <v>6</v>
+      </c>
+      <c r="EL49" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM49" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN49" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO49" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP49" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ49" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER49" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="127:148">
+      <c r="EA50" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EG50" s="5"/>
+      <c r="EH50" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EO50" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP50" s="5"/>
+    </row>
+    <row r="51" spans="127:148">
+      <c r="DZ51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="ED51" s="5"/>
+      <c r="EE51" s="5"/>
+      <c r="EF51" s="5"/>
+      <c r="EG51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EO51" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="127:148">
+      <c r="DW52" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="ED52" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE52" s="5"/>
+      <c r="EF52" s="5"/>
+      <c r="EL52" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="127:148">
+      <c r="EA53" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="EH53" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="127:148">
+      <c r="EL54" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM54" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN54" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO54" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP54" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ54" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="127:148">
+      <c r="ED55" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE55" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EF55" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG55" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EH55" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EI55" s="5"/>
+      <c r="EL55" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM55" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN55" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO55" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP55" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ55" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER55" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="127:148">
+      <c r="ED56" s="28">
+        <v>1</v>
+      </c>
+      <c r="EE56" s="28">
+        <v>2</v>
+      </c>
+      <c r="EF56" s="28">
+        <v>5</v>
+      </c>
+      <c r="EG56" s="28">
+        <v>4</v>
+      </c>
+      <c r="EH56" s="28">
+        <v>3</v>
+      </c>
+      <c r="EI56" s="28">
+        <v>6</v>
+      </c>
+      <c r="EO56" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP56" s="5"/>
+    </row>
+    <row r="57" spans="127:148">
+      <c r="EG57" s="5"/>
+      <c r="EI57" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP57" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="127:148">
+      <c r="ED58" s="5"/>
+      <c r="EE58" s="5"/>
+      <c r="EF58" s="5"/>
+      <c r="EG58" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="EL58" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60" spans="127:148">
+      <c r="EL60" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN60" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ60" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="127:148">
+      <c r="EL61" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM61" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN61" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO61" s="28">
+        <v>4</v>
+      </c>
+      <c r="EP61" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ61" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER61" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="127:148">
+      <c r="EO62" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP62" s="5"/>
+    </row>
+    <row r="63" spans="127:148">
+      <c r="EP63" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="127:148">
+      <c r="EL64" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="142:148">
+      <c r="EQ65" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67" spans="142:148">
+      <c r="EL67" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM67" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN67" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO67" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP67" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ67" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="142:148">
+      <c r="EL68" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM68" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN68" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO68" s="31">
+        <v>6</v>
+      </c>
+      <c r="EP68" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ68" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER68" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="142:148">
+      <c r="EO69" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP69" s="5"/>
+    </row>
+    <row r="70" spans="142:148">
+      <c r="EP70" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="142:148">
+      <c r="EL71" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="142:148">
+      <c r="EO72" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="142:148">
+      <c r="EL74" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM74" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN74" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO74" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP74" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ74" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="142:148">
+      <c r="EL75" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM75" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN75" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO75" s="28">
+        <v>6</v>
+      </c>
+      <c r="EP75" s="31">
+        <v>5</v>
+      </c>
+      <c r="EQ75" s="28">
+        <v>6</v>
+      </c>
+      <c r="ER75" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="142:148">
+      <c r="EP76" s="29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="77" spans="142:148">
+      <c r="EP77" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="142:148">
+      <c r="EL78" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="142:148">
+      <c r="EP79" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="142:148">
+      <c r="EL81" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN81" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ81" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="142:148">
+      <c r="EL82" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM82" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN82" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO82" s="28">
+        <v>6</v>
+      </c>
+      <c r="EP82" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ82" s="31">
+        <v>4</v>
+      </c>
+      <c r="ER82" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="142:148">
+      <c r="EP83" s="5"/>
+      <c r="EQ83" s="29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="84" spans="142:148">
+      <c r="EP84" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="142:148">
+      <c r="EL85" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="142:148">
+      <c r="EQ86" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="88" spans="142:148">
+      <c r="EL88" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM88" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN88" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO88" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EP88" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="EQ88" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="142:148">
+      <c r="EL89" s="28">
+        <v>1</v>
+      </c>
+      <c r="EM89" s="28">
+        <v>3</v>
+      </c>
+      <c r="EN89" s="28">
+        <v>2</v>
+      </c>
+      <c r="EO89" s="28">
+        <v>6</v>
+      </c>
+      <c r="EP89" s="28">
+        <v>5</v>
+      </c>
+      <c r="EQ89" s="28">
+        <v>4</v>
+      </c>
+      <c r="ER89" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="142:148">
+      <c r="EP90" s="5"/>
+      <c r="EQ90" s="5"/>
+      <c r="ER90" s="29" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CE0C5-11DE-4936-B3B6-E59AF3AB9836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83ACA1-6A40-435B-8676-5AD07A94351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="580">
   <si>
     <t>*</t>
   </si>
@@ -2122,12 +2122,157 @@
   <si>
     <t>for(;count&gt;=0;count - -)</t>
   </si>
+  <si>
+    <t>Reverse Prefix of Word</t>
+  </si>
+  <si>
+    <t>==&gt;</t>
+  </si>
+  <si>
+    <t>s = 'abcdef'</t>
+  </si>
+  <si>
+    <t>ch='d'</t>
+  </si>
+  <si>
+    <t>op='dcbaef'</t>
+  </si>
+  <si>
+    <t>s='abc'</t>
+  </si>
+  <si>
+    <t>op='abc'</t>
+  </si>
+  <si>
+    <t>for(;i&lt;s.len; i++)</t>
+  </si>
+  <si>
+    <t>i=0, c=0</t>
+  </si>
+  <si>
+    <t>if(s[i]==ch)</t>
+  </si>
+  <si>
+    <t>if(c&gt;0)</t>
+  </si>
+  <si>
+    <t>j=0</t>
+  </si>
+  <si>
+    <t>j&lt;=i</t>
+  </si>
+  <si>
+    <t>s=s[i,i+1]+s[j+1,i-1]+s[j,j+1]+s[i]</t>
+  </si>
+  <si>
+    <t>i--, j++</t>
+  </si>
+  <si>
+    <t>return s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>c=0</t>
+  </si>
+  <si>
+    <t>c=1</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>lp-a</t>
+  </si>
+  <si>
+    <t>j++, i--</t>
+  </si>
+  <si>
+    <t>lp-b</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity</t>
+  </si>
+  <si>
+    <t>n=[3,1,2,4]</t>
+  </si>
+  <si>
+    <t>op: [2,4,1,3]
+(or) [4,2,3,1]</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L%2!=0 &amp;&amp; R%2==0</t>
+  </si>
+  <si>
+    <t>L,R = R,L</t>
+  </si>
+  <si>
+    <t>L++, R--</t>
+  </si>
+  <si>
+    <t>L%2==0</t>
+  </si>
+  <si>
+    <t>L++</t>
+  </si>
+  <si>
+    <t>L &lt; R</t>
+  </si>
+  <si>
+    <t>L == R</t>
+  </si>
+  <si>
+    <t>return n</t>
+  </si>
+  <si>
+    <t>l=0, r=n.len-1</t>
+  </si>
+  <si>
+    <t>l &lt; r</t>
+  </si>
+  <si>
+    <t>l % 2 == 0</t>
+  </si>
+  <si>
+    <t>l ++</t>
+  </si>
+  <si>
+    <t>l % 2 != 0</t>
+  </si>
+  <si>
+    <t>r % 2 == 0</t>
+  </si>
+  <si>
+    <t>l, r = r, l</t>
+  </si>
+  <si>
+    <t>l ++, r --</t>
+  </si>
+  <si>
+    <t>return r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2280,6 +2425,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2353,7 +2504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2399,12 +2550,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2420,6 +2565,26 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4655,11 +4820,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -5978,21 +6143,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -6062,17 +6227,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -7565,10 +7730,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:ER90"/>
+  <dimension ref="A1:GE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="FQ15" sqref="FQ15"/>
+    <sheetView tabSelected="1" topLeftCell="ER2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="FX14" sqref="FX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7586,15 +7751,21 @@
     <col min="106" max="111" width="3.77734375" customWidth="1"/>
     <col min="117" max="122" width="3.77734375" customWidth="1"/>
     <col min="123" max="129" width="3.77734375" style="5" customWidth="1"/>
-    <col min="130" max="152" width="3.77734375" customWidth="1"/>
+    <col min="130" max="148" width="3.77734375" customWidth="1"/>
+    <col min="149" max="149" width="1.5546875" customWidth="1"/>
+    <col min="150" max="150" width="4.6640625" customWidth="1"/>
+    <col min="151" max="166" width="3.77734375" customWidth="1"/>
+    <col min="167" max="167" width="2.44140625" customWidth="1"/>
+    <col min="168" max="168" width="10.6640625" customWidth="1"/>
+    <col min="169" max="196" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148">
+    <row r="1" spans="1:187">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:148">
+    <row r="2" spans="1:187">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -7606,7 +7777,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:148">
+    <row r="3" spans="1:187" ht="16.8">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -7644,20 +7815,26 @@
       <c r="DM3" t="s">
         <v>440</v>
       </c>
-      <c r="DN3" s="27" t="s">
+      <c r="DN3" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DO3" s="27" t="s">
+      <c r="DO3" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DP3" s="27" t="s">
+      <c r="DP3" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DQ3" s="27" t="s">
+      <c r="DQ3" s="25" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="4" spans="1:148">
+      <c r="ET3" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="FL3" s="32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:187">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -7714,8 +7891,35 @@
       <c r="DK4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="1:148">
+      <c r="EU4" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="FE4" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FF4" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG4" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH4" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI4" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ4" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FL4" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="FX4" s="37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:187">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7735,8 +7939,41 @@
       <c r="DM5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="6" spans="1:148">
+      <c r="EV5" t="s">
+        <v>534</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>403</v>
+      </c>
+      <c r="FE5" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>559</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>395</v>
+      </c>
+      <c r="FZ5" s="25">
+        <v>3</v>
+      </c>
+      <c r="GA5" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB5" s="25">
+        <v>1</v>
+      </c>
+      <c r="GC5" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD5" s="25">
+        <v>2</v>
+      </c>
+      <c r="GE5" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:187" ht="14.4" customHeight="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -7787,8 +8024,29 @@
       <c r="DM6" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:148">
+      <c r="EV6" t="s">
+        <v>535</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>552</v>
+      </c>
+      <c r="FM6" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="FN6" s="36"/>
+      <c r="FO6" s="36"/>
+      <c r="FP6" s="36"/>
+      <c r="FX6" t="s">
+        <v>403</v>
+      </c>
+      <c r="FZ6" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GE6" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:187">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -7852,55 +8110,65 @@
       <c r="DM7" t="s">
         <v>515</v>
       </c>
-      <c r="DW7" s="27" t="s">
+      <c r="DW7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX7" s="27" t="s">
+      <c r="DX7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY7" s="27" t="s">
+      <c r="DY7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ7" s="27" t="s">
+      <c r="DZ7" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA7" s="5"/>
-      <c r="ED7" s="27" t="s">
+      <c r="ED7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE7" s="27" t="s">
+      <c r="EE7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF7" s="27" t="s">
+      <c r="EF7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG7" s="27" t="s">
+      <c r="EG7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH7" s="27" t="s">
+      <c r="EH7" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI7" s="5"/>
-      <c r="EL7" s="27" t="s">
+      <c r="EL7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM7" s="27" t="s">
+      <c r="EM7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN7" s="27" t="s">
+      <c r="EN7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO7" s="27" t="s">
+      <c r="EO7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP7" s="27" t="s">
+      <c r="EP7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ7" s="27" t="s">
+      <c r="EQ7" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="8" spans="1:148">
+      <c r="EV7" t="s">
+        <v>536</v>
+      </c>
+      <c r="FM7" s="36"/>
+      <c r="FN7" s="36"/>
+      <c r="FO7" s="36"/>
+      <c r="FP7" s="36"/>
+      <c r="FZ7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:187">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -7947,62 +8215,83 @@
       <c r="DN8" t="s">
         <v>514</v>
       </c>
-      <c r="DW8" s="28">
+      <c r="DW8" s="26">
         <v>1</v>
       </c>
-      <c r="DX8" s="28">
+      <c r="DX8" s="26">
         <v>2</v>
       </c>
-      <c r="DY8" s="28">
+      <c r="DY8" s="26">
         <v>3</v>
       </c>
-      <c r="DZ8" s="28">
+      <c r="DZ8" s="26">
         <v>4</v>
       </c>
-      <c r="EA8" s="28">
+      <c r="EA8" s="26">
         <v>5</v>
       </c>
-      <c r="ED8" s="28">
+      <c r="ED8" s="26">
         <v>1</v>
       </c>
-      <c r="EE8" s="28">
+      <c r="EE8" s="26">
         <v>2</v>
       </c>
-      <c r="EF8" s="28">
+      <c r="EF8" s="26">
         <v>3</v>
       </c>
-      <c r="EG8" s="28">
+      <c r="EG8" s="26">
         <v>4</v>
       </c>
-      <c r="EH8" s="28">
+      <c r="EH8" s="26">
         <v>5</v>
       </c>
-      <c r="EI8" s="28">
+      <c r="EI8" s="26">
         <v>6</v>
       </c>
-      <c r="EL8" s="28">
+      <c r="EL8" s="26">
         <v>1</v>
       </c>
-      <c r="EM8" s="28">
+      <c r="EM8" s="26">
         <v>2</v>
       </c>
-      <c r="EN8" s="28">
+      <c r="EN8" s="26">
         <v>3</v>
       </c>
-      <c r="EO8" s="28">
+      <c r="EO8" s="26">
         <v>4</v>
       </c>
-      <c r="EP8" s="28">
+      <c r="EP8" s="26">
         <v>5</v>
       </c>
-      <c r="EQ8" s="28">
+      <c r="EQ8" s="26">
         <v>6</v>
       </c>
-      <c r="ER8" s="28">
+      <c r="ER8" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:148">
+      <c r="FE8" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FF8" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG8" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH8" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI8" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ8" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:187">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -8058,27 +8347,57 @@
       <c r="DM9" t="s">
         <v>516</v>
       </c>
-      <c r="DW9" s="29" t="s">
+      <c r="DW9" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ9" s="5"/>
       <c r="EA9" s="5"/>
-      <c r="ED9" s="29" t="s">
+      <c r="ED9" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EE9" s="5"/>
       <c r="EF9" s="5"/>
       <c r="EG9" s="5"/>
       <c r="EH9" s="5"/>
-      <c r="EL9" s="29" t="s">
+      <c r="EL9" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EM9" s="5"/>
       <c r="EN9" s="5"/>
       <c r="EO9" s="5"/>
       <c r="EP9" s="5"/>
-    </row>
-    <row r="10" spans="1:148">
+      <c r="EV9" t="s">
+        <v>537</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>404</v>
+      </c>
+      <c r="FF9" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>571</v>
+      </c>
+      <c r="FZ9" s="33">
+        <v>6</v>
+      </c>
+      <c r="GA9" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB9" s="25">
+        <v>1</v>
+      </c>
+      <c r="GC9" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD9" s="25">
+        <v>2</v>
+      </c>
+      <c r="GE9" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:187">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -8126,8 +8445,23 @@
       <c r="DN10" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="11" spans="1:148">
+      <c r="EV10" t="s">
+        <v>535</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>552</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>572</v>
+      </c>
+      <c r="FZ10" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GE10" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:187">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -8182,55 +8516,64 @@
       <c r="DO11" t="s">
         <v>520</v>
       </c>
-      <c r="DW11" s="27" t="s">
+      <c r="DW11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX11" s="27" t="s">
+      <c r="DX11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY11" s="27" t="s">
+      <c r="DY11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ11" s="27" t="s">
+      <c r="DZ11" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA11" s="5"/>
-      <c r="ED11" s="27" t="s">
+      <c r="ED11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE11" s="27" t="s">
+      <c r="EE11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF11" s="27" t="s">
+      <c r="EF11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG11" s="27" t="s">
+      <c r="EG11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH11" s="27" t="s">
+      <c r="EH11" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI11" s="5"/>
-      <c r="EL11" s="27" t="s">
+      <c r="EL11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM11" s="27" t="s">
+      <c r="EM11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN11" s="27" t="s">
+      <c r="EN11" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO11" s="27" t="s">
+      <c r="EO11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP11" s="27" t="s">
+      <c r="EP11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ11" s="27" t="s">
+      <c r="EQ11" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="12" spans="1:148">
+      <c r="EV11" t="s">
+        <v>538</v>
+      </c>
+      <c r="FN11" t="s">
+        <v>573</v>
+      </c>
+      <c r="FZ11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:187">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -8329,62 +8672,83 @@
       <c r="DO12" t="s">
         <v>219</v>
       </c>
-      <c r="DW12" s="28">
+      <c r="DW12" s="26">
         <v>1</v>
       </c>
-      <c r="DX12" s="28">
+      <c r="DX12" s="26">
         <v>2</v>
       </c>
-      <c r="DY12" s="28">
+      <c r="DY12" s="26">
         <v>3</v>
       </c>
-      <c r="DZ12" s="28">
+      <c r="DZ12" s="26">
         <v>4</v>
       </c>
-      <c r="EA12" s="28">
+      <c r="EA12" s="26">
         <v>5</v>
       </c>
-      <c r="ED12" s="28">
+      <c r="ED12" s="26">
         <v>1</v>
       </c>
-      <c r="EE12" s="28">
+      <c r="EE12" s="26">
         <v>2</v>
       </c>
-      <c r="EF12" s="28">
+      <c r="EF12" s="26">
         <v>3</v>
       </c>
-      <c r="EG12" s="28">
+      <c r="EG12" s="26">
         <v>4</v>
       </c>
-      <c r="EH12" s="28">
+      <c r="EH12" s="26">
         <v>5</v>
       </c>
-      <c r="EI12" s="28">
+      <c r="EI12" s="26">
         <v>6</v>
       </c>
-      <c r="EL12" s="28">
+      <c r="EL12" s="26">
         <v>1</v>
       </c>
-      <c r="EM12" s="28">
+      <c r="EM12" s="26">
         <v>2</v>
       </c>
-      <c r="EN12" s="28">
+      <c r="EN12" s="26">
         <v>3</v>
       </c>
-      <c r="EO12" s="28">
+      <c r="EO12" s="26">
         <v>4</v>
       </c>
-      <c r="EP12" s="28">
+      <c r="EP12" s="26">
         <v>5</v>
       </c>
-      <c r="EQ12" s="28">
+      <c r="EQ12" s="26">
         <v>6</v>
       </c>
-      <c r="ER12" s="28">
+      <c r="ER12" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:148">
+      <c r="FE12" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FF12" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG12" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH12" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI12" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ12" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:187">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -8460,25 +8824,58 @@
       <c r="DO13" t="s">
         <v>521</v>
       </c>
-      <c r="DX13" s="29" t="s">
+      <c r="DX13" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ13" s="5"/>
       <c r="EA13" s="5"/>
-      <c r="EE13" s="29" t="s">
+      <c r="EE13" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EF13" s="5"/>
       <c r="EG13" s="5"/>
       <c r="EH13" s="5"/>
-      <c r="EM13" s="29" t="s">
+      <c r="EM13" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EN13" s="5"/>
       <c r="EO13" s="5"/>
       <c r="EP13" s="5"/>
-    </row>
-    <row r="14" spans="1:148">
+      <c r="EU13" t="s">
+        <v>540</v>
+      </c>
+      <c r="FD13" t="s">
+        <v>409</v>
+      </c>
+      <c r="FG13" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FN13" t="s">
+        <v>575</v>
+      </c>
+      <c r="FY13" t="s">
+        <v>395</v>
+      </c>
+      <c r="FZ13" s="25">
+        <v>3</v>
+      </c>
+      <c r="GA13" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB13" s="25">
+        <v>1</v>
+      </c>
+      <c r="GC13" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD13" s="25">
+        <v>2</v>
+      </c>
+      <c r="GE13" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:187">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -8544,11 +8941,29 @@
       <c r="DP14" t="s">
         <v>518</v>
       </c>
-      <c r="EM14" s="29" t="s">
+      <c r="EM14" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:148">
+      <c r="EU14" t="s">
+        <v>539</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>552</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>576</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>404</v>
+      </c>
+      <c r="GA14" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GD14" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:187">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -8648,40 +9063,49 @@
       <c r="DQ15" t="s">
         <v>90</v>
       </c>
-      <c r="DW15" s="27" t="s">
+      <c r="DW15" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX15" s="27" t="s">
+      <c r="DX15" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY15" s="27" t="s">
+      <c r="DY15" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ15" s="27" t="s">
+      <c r="DZ15" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA15" s="5"/>
-      <c r="ED15" s="27" t="s">
+      <c r="ED15" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE15" s="27" t="s">
+      <c r="EE15" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF15" s="27" t="s">
+      <c r="EF15" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG15" s="27" t="s">
+      <c r="EG15" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH15" s="27" t="s">
+      <c r="EH15" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI15" s="5"/>
       <c r="EL15" s="21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="16" spans="1:148">
+      <c r="EV15" t="s">
+        <v>541</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>577</v>
+      </c>
+      <c r="FZ15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:187">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -8751,41 +9175,68 @@
       <c r="DP16" t="s">
         <v>139</v>
       </c>
-      <c r="DW16" s="28">
+      <c r="DW16" s="26">
         <v>1</v>
       </c>
-      <c r="DX16" s="28">
+      <c r="DX16" s="26">
         <v>2</v>
       </c>
-      <c r="DY16" s="28">
+      <c r="DY16" s="26">
         <v>3</v>
       </c>
-      <c r="DZ16" s="28">
+      <c r="DZ16" s="26">
         <v>4</v>
       </c>
-      <c r="EA16" s="28">
+      <c r="EA16" s="26">
         <v>5</v>
       </c>
-      <c r="ED16" s="28">
+      <c r="ED16" s="26">
         <v>1</v>
       </c>
-      <c r="EE16" s="28">
+      <c r="EE16" s="26">
         <v>2</v>
       </c>
-      <c r="EF16" s="28">
+      <c r="EF16" s="26">
         <v>3</v>
       </c>
-      <c r="EG16" s="28">
+      <c r="EG16" s="26">
         <v>4</v>
       </c>
-      <c r="EH16" s="28">
+      <c r="EH16" s="26">
         <v>5</v>
       </c>
-      <c r="EI16" s="28">
+      <c r="EI16" s="26">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:148">
+      <c r="EW16" t="s">
+        <v>222</v>
+      </c>
+      <c r="FE16" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FF16" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG16" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH16" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI16" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ16" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>578</v>
+      </c>
+      <c r="FZ16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:187">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -8857,36 +9308,48 @@
       <c r="DQ17" t="s">
         <v>523</v>
       </c>
-      <c r="DY17" s="29" t="s">
+      <c r="DY17" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ17" s="5"/>
       <c r="EA17" s="5"/>
-      <c r="EF17" s="29" t="s">
+      <c r="EF17" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EG17" s="5"/>
       <c r="EH17" s="5"/>
-      <c r="EL17" s="27" t="s">
+      <c r="EL17" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM17" s="27" t="s">
+      <c r="EM17" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN17" s="27" t="s">
+      <c r="EN17" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO17" s="27" t="s">
+      <c r="EO17" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP17" s="27" t="s">
+      <c r="EP17" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ17" s="27" t="s">
+      <c r="EQ17" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="18" spans="1:148">
+      <c r="EW17" t="s">
+        <v>90</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>412</v>
+      </c>
+      <c r="FH17" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:187">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -8989,37 +9452,67 @@
       <c r="DO18" t="s">
         <v>530</v>
       </c>
-      <c r="DY18" s="29" t="s">
+      <c r="DY18" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED18" s="5"/>
       <c r="EE18" s="5"/>
-      <c r="EF18" s="29" t="s">
+      <c r="EF18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EL18" s="28">
+      <c r="EL18" s="26">
         <v>1</v>
       </c>
-      <c r="EM18" s="28">
+      <c r="EM18" s="26">
         <v>2</v>
       </c>
-      <c r="EN18" s="28">
+      <c r="EN18" s="26">
         <v>3</v>
       </c>
-      <c r="EO18" s="28">
+      <c r="EO18" s="26">
         <v>4</v>
       </c>
-      <c r="EP18" s="28">
+      <c r="EP18" s="26">
         <v>5</v>
       </c>
-      <c r="EQ18" s="28">
+      <c r="EQ18" s="26">
         <v>6</v>
       </c>
-      <c r="ER18" s="28">
+      <c r="ER18" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:148">
+      <c r="EU18" t="s">
+        <v>542</v>
+      </c>
+      <c r="FE18" t="s">
+        <v>553</v>
+      </c>
+      <c r="FF18" t="s">
+        <v>554</v>
+      </c>
+      <c r="FY18" t="s">
+        <v>395</v>
+      </c>
+      <c r="FZ18" s="25">
+        <v>6</v>
+      </c>
+      <c r="GA18" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB18" s="25">
+        <v>1</v>
+      </c>
+      <c r="GC18" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD18" s="25">
+        <v>2</v>
+      </c>
+      <c r="GE18" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:187">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -9088,14 +9581,26 @@
       </c>
       <c r="EE19" s="5"/>
       <c r="EF19" s="5"/>
-      <c r="EM19" s="29" t="s">
+      <c r="EM19" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EN19" s="5"/>
       <c r="EO19" s="5"/>
       <c r="EP19" s="5"/>
-    </row>
-    <row r="20" spans="1:148">
+      <c r="EV19" t="s">
+        <v>543</v>
+      </c>
+      <c r="FX19" t="s">
+        <v>409</v>
+      </c>
+      <c r="GB19" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GD19" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:187">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -9147,11 +9652,35 @@
       <c r="DP20" t="s">
         <v>526</v>
       </c>
-      <c r="EM20" s="29" t="s">
+      <c r="EM20" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:148">
+      <c r="EV20" t="s">
+        <v>544</v>
+      </c>
+      <c r="FE20" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="FF20" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG20" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH20" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI20" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ20" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FZ20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:187">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -9208,40 +9737,55 @@
       <c r="DO21" t="s">
         <v>529</v>
       </c>
-      <c r="DW21" s="27" t="s">
+      <c r="DW21" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX21" s="27" t="s">
+      <c r="DX21" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY21" s="27" t="s">
+      <c r="DY21" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ21" s="27" t="s">
+      <c r="DZ21" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA21" s="5"/>
-      <c r="ED21" s="27" t="s">
+      <c r="ED21" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE21" s="27" t="s">
+      <c r="EE21" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF21" s="27" t="s">
+      <c r="EF21" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG21" s="27" t="s">
+      <c r="EG21" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH21" s="27" t="s">
+      <c r="EH21" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI21" s="5"/>
       <c r="EL21" s="21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="22" spans="1:148">
+      <c r="EW21" t="s">
+        <v>545</v>
+      </c>
+      <c r="FD21" t="s">
+        <v>555</v>
+      </c>
+      <c r="FE21" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="FH21" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FZ21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:187">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -9309,41 +9853,80 @@
       <c r="DB22" t="s">
         <v>457</v>
       </c>
-      <c r="DW22" s="28">
+      <c r="DW22" s="26">
         <v>1</v>
       </c>
-      <c r="DX22" s="28">
+      <c r="DX22" s="26">
         <v>2</v>
       </c>
-      <c r="DY22" s="28">
+      <c r="DY22" s="26">
         <v>3</v>
       </c>
-      <c r="DZ22" s="28">
+      <c r="DZ22" s="26">
         <v>4</v>
       </c>
-      <c r="EA22" s="28">
+      <c r="EA22" s="26">
         <v>5</v>
       </c>
-      <c r="ED22" s="28">
+      <c r="ED22" s="26">
         <v>1</v>
       </c>
-      <c r="EE22" s="28">
+      <c r="EE22" s="26">
         <v>2</v>
       </c>
-      <c r="EF22" s="28">
+      <c r="EF22" s="26">
         <v>3</v>
       </c>
-      <c r="EG22" s="28">
+      <c r="EG22" s="26">
         <v>4</v>
       </c>
-      <c r="EH22" s="28">
+      <c r="EH22" s="26">
         <v>5</v>
       </c>
-      <c r="EI22" s="28">
+      <c r="EI22" s="26">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:148">
+      <c r="EW22" t="s">
+        <v>546</v>
+      </c>
+      <c r="FE22" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF22" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG22" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH22" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="FI22" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ22" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FZ22" s="25">
+        <v>6</v>
+      </c>
+      <c r="GA22" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB22" s="33">
+        <v>2</v>
+      </c>
+      <c r="GC22" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD22" s="33">
+        <v>1</v>
+      </c>
+      <c r="GE22" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:187">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -9398,36 +9981,48 @@
       <c r="DJ23" t="s">
         <v>508</v>
       </c>
-      <c r="DY23" s="29" t="s">
+      <c r="DY23" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ23" s="5"/>
       <c r="EA23" s="5"/>
-      <c r="EF23" s="29" t="s">
+      <c r="EF23" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EG23" s="5"/>
       <c r="EH23" s="5"/>
-      <c r="EL23" s="27" t="s">
+      <c r="EL23" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM23" s="27" t="s">
+      <c r="EM23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN23" s="27" t="s">
+      <c r="EN23" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO23" s="27" t="s">
+      <c r="EO23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP23" s="27" t="s">
+      <c r="EP23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ23" s="27" t="s">
+      <c r="EQ23" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="24" spans="1:148">
+      <c r="EU23" t="s">
+        <v>547</v>
+      </c>
+      <c r="FE23" t="s">
+        <v>556</v>
+      </c>
+      <c r="GB23" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GD23" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:187">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9473,38 +10068,41 @@
       <c r="DJ24" t="s">
         <v>509</v>
       </c>
-      <c r="DZ24" s="29" t="s">
+      <c r="DZ24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED24" s="5"/>
       <c r="EE24" s="5"/>
       <c r="EF24" s="5"/>
-      <c r="EG24" s="29" t="s">
+      <c r="EG24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EL24" s="28">
+      <c r="EL24" s="26">
         <v>1</v>
       </c>
-      <c r="EM24" s="28">
+      <c r="EM24" s="26">
         <v>2</v>
       </c>
-      <c r="EN24" s="28">
+      <c r="EN24" s="26">
         <v>3</v>
       </c>
-      <c r="EO24" s="28">
+      <c r="EO24" s="26">
         <v>4</v>
       </c>
-      <c r="EP24" s="28">
+      <c r="EP24" s="26">
         <v>5</v>
       </c>
-      <c r="EQ24" s="28">
+      <c r="EQ24" s="26">
         <v>6</v>
       </c>
-      <c r="ER24" s="28">
+      <c r="ER24" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:148">
+      <c r="FZ24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:187">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -9555,14 +10153,32 @@
       </c>
       <c r="EE25" s="5"/>
       <c r="EF25" s="5"/>
-      <c r="EM25" s="29" t="s">
+      <c r="EM25" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EN25" s="5"/>
       <c r="EO25" s="5"/>
       <c r="EP25" s="5"/>
-    </row>
-    <row r="26" spans="1:148">
+      <c r="FE25" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF25" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG25" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="FH25" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FI25" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ25" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:187">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -9596,11 +10212,41 @@
       <c r="DJ26" t="s">
         <v>510</v>
       </c>
-      <c r="EM26" s="29" t="s">
+      <c r="EM26" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:148">
+      <c r="FD26" t="s">
+        <v>557</v>
+      </c>
+      <c r="FF26" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="FG26" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="FY26" t="s">
+        <v>395</v>
+      </c>
+      <c r="FZ26" s="25">
+        <v>6</v>
+      </c>
+      <c r="GA26" s="25">
+        <v>4</v>
+      </c>
+      <c r="GB26" s="25">
+        <v>2</v>
+      </c>
+      <c r="GC26" s="25">
+        <v>5</v>
+      </c>
+      <c r="GD26" s="25">
+        <v>1</v>
+      </c>
+      <c r="GE26" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:187">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -9628,40 +10274,64 @@
       <c r="DJ27" t="s">
         <v>511</v>
       </c>
-      <c r="DW27" s="27" t="s">
+      <c r="DW27" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX27" s="27" t="s">
+      <c r="DX27" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY27" s="27" t="s">
+      <c r="DY27" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ27" s="27" t="s">
+      <c r="DZ27" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA27" s="5"/>
-      <c r="ED27" s="27" t="s">
+      <c r="ED27" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE27" s="27" t="s">
+      <c r="EE27" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF27" s="27" t="s">
+      <c r="EF27" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG27" s="27" t="s">
+      <c r="EG27" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH27" s="27" t="s">
+      <c r="EH27" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI27" s="5"/>
       <c r="EL27" s="21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="28" spans="1:148">
+      <c r="FE27" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF27" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="FG27" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="FH27" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FI27" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ27" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="FX27" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="GC27" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:187">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -9671,44 +10341,47 @@
       <c r="DB28" t="s">
         <v>453</v>
       </c>
-      <c r="DW28" s="28">
+      <c r="DW28" s="26">
         <v>1</v>
       </c>
-      <c r="DX28" s="28">
+      <c r="DX28" s="26">
         <v>2</v>
       </c>
-      <c r="DY28" s="28">
+      <c r="DY28" s="26">
         <v>3</v>
       </c>
-      <c r="DZ28" s="28">
+      <c r="DZ28" s="26">
         <v>4</v>
       </c>
-      <c r="EA28" s="28">
+      <c r="EA28" s="26">
         <v>5</v>
       </c>
-      <c r="ED28" s="28">
+      <c r="ED28" s="26">
         <v>1</v>
       </c>
-      <c r="EE28" s="28">
+      <c r="EE28" s="26">
         <v>2</v>
       </c>
-      <c r="EF28" s="28">
+      <c r="EF28" s="26">
         <v>3</v>
       </c>
-      <c r="EG28" s="28">
+      <c r="EG28" s="26">
         <v>4</v>
       </c>
-      <c r="EH28" s="28">
+      <c r="EH28" s="26">
         <v>5</v>
       </c>
-      <c r="EI28" s="28">
+      <c r="EI28" s="26">
         <v>6</v>
       </c>
-      <c r="EN28" s="30" t="s">
+      <c r="EN28" s="28" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="29" spans="1:148">
+      <c r="FE28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:187">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -9721,53 +10394,59 @@
       <c r="DJ29" t="s">
         <v>527</v>
       </c>
-      <c r="DY29" s="29" t="s">
+      <c r="DY29" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ29" s="5"/>
       <c r="EA29" s="5"/>
-      <c r="EF29" s="29" t="s">
+      <c r="EF29" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EG29" s="5"/>
       <c r="EH29" s="5"/>
-    </row>
-    <row r="30" spans="1:148">
+      <c r="FX29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:187">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
       <c r="DJ30" t="s">
         <v>528</v>
       </c>
-      <c r="DZ30" s="29" t="s">
+      <c r="DZ30" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED30" s="5"/>
       <c r="EE30" s="5"/>
       <c r="EF30" s="5"/>
-      <c r="EG30" s="29" t="s">
+      <c r="EG30" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EL30" s="27" t="s">
+      <c r="EL30" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM30" s="27" t="s">
+      <c r="EM30" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN30" s="27" t="s">
+      <c r="EN30" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO30" s="27" t="s">
+      <c r="EO30" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP30" s="27" t="s">
+      <c r="EP30" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ30" s="27" t="s">
+      <c r="EQ30" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="31" spans="1:148">
+      <c r="FD30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:187">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
@@ -9782,42 +10461,60 @@
       </c>
       <c r="EE31" s="5"/>
       <c r="EF31" s="5"/>
-      <c r="EL31" s="28">
+      <c r="EL31" s="26">
         <v>1</v>
       </c>
-      <c r="EM31" s="31">
+      <c r="EM31" s="29">
         <v>3</v>
       </c>
-      <c r="EN31" s="28">
+      <c r="EN31" s="26">
         <v>3</v>
       </c>
-      <c r="EO31" s="28">
+      <c r="EO31" s="26">
         <v>4</v>
       </c>
-      <c r="EP31" s="28">
+      <c r="EP31" s="26">
         <v>5</v>
       </c>
-      <c r="EQ31" s="28">
+      <c r="EQ31" s="26">
         <v>6</v>
       </c>
-      <c r="ER31" s="28">
+      <c r="ER31" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:148">
+      <c r="FE31" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF31" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="FG31" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="FH31" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="FI31" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ31" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:187">
       <c r="BC32" t="s">
         <v>375</v>
       </c>
       <c r="BF32" t="s">
         <v>393</v>
       </c>
-      <c r="EA32" s="30" t="s">
+      <c r="EA32" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EH32" s="30" t="s">
+      <c r="EH32" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EM32" s="29" t="s">
+      <c r="EM32" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EN32" s="5"/>
@@ -9828,7 +10525,7 @@
       <c r="BA33" t="s">
         <v>380</v>
       </c>
-      <c r="EM33" s="29" t="s">
+      <c r="EM33" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9836,32 +10533,32 @@
       <c r="BB34" t="s">
         <v>378</v>
       </c>
-      <c r="DW34" s="27" t="s">
+      <c r="DW34" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX34" s="27" t="s">
+      <c r="DX34" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY34" s="27" t="s">
+      <c r="DY34" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ34" s="27" t="s">
+      <c r="DZ34" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA34" s="5"/>
-      <c r="ED34" s="27" t="s">
+      <c r="ED34" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE34" s="27" t="s">
+      <c r="EE34" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF34" s="27" t="s">
+      <c r="EF34" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG34" s="27" t="s">
+      <c r="EG34" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH34" s="27" t="s">
+      <c r="EH34" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI34" s="5"/>
@@ -9873,40 +10570,40 @@
       <c r="BB35" t="s">
         <v>381</v>
       </c>
-      <c r="DW35" s="28">
+      <c r="DW35" s="26">
         <v>1</v>
       </c>
-      <c r="DX35" s="28">
+      <c r="DX35" s="26">
         <v>2</v>
       </c>
-      <c r="DY35" s="31">
+      <c r="DY35" s="29">
         <v>5</v>
       </c>
-      <c r="DZ35" s="28">
+      <c r="DZ35" s="26">
         <v>4</v>
       </c>
-      <c r="EA35" s="28">
+      <c r="EA35" s="26">
         <v>5</v>
       </c>
-      <c r="ED35" s="28">
+      <c r="ED35" s="26">
         <v>1</v>
       </c>
-      <c r="EE35" s="28">
+      <c r="EE35" s="26">
         <v>2</v>
       </c>
-      <c r="EF35" s="31">
+      <c r="EF35" s="29">
         <v>5</v>
       </c>
-      <c r="EG35" s="28">
+      <c r="EG35" s="26">
         <v>4</v>
       </c>
-      <c r="EH35" s="28">
+      <c r="EH35" s="26">
         <v>5</v>
       </c>
-      <c r="EI35" s="28">
+      <c r="EI35" s="26">
         <v>6</v>
       </c>
-      <c r="EM35" s="30" t="s">
+      <c r="EM35" s="28" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9914,43 +10611,43 @@
       <c r="BC36" t="s">
         <v>382</v>
       </c>
-      <c r="DY36" s="29" t="s">
+      <c r="DY36" s="27" t="s">
         <v>517</v>
       </c>
       <c r="DZ36" s="5"/>
       <c r="EA36" s="5"/>
-      <c r="EF36" s="29" t="s">
+      <c r="EF36" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EG36" s="5"/>
       <c r="EH36" s="5"/>
     </row>
     <row r="37" spans="53:148">
-      <c r="DZ37" s="29" t="s">
+      <c r="DZ37" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED37" s="5"/>
       <c r="EE37" s="5"/>
       <c r="EF37" s="5"/>
-      <c r="EG37" s="29" t="s">
+      <c r="EG37" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EL37" s="27" t="s">
+      <c r="EL37" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM37" s="27" t="s">
+      <c r="EM37" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN37" s="27" t="s">
+      <c r="EN37" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO37" s="27" t="s">
+      <c r="EO37" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP37" s="27" t="s">
+      <c r="EP37" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ37" s="27" t="s">
+      <c r="EQ37" s="25" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9963,73 +10660,73 @@
       </c>
       <c r="EE38" s="5"/>
       <c r="EF38" s="5"/>
-      <c r="EL38" s="28">
+      <c r="EL38" s="26">
         <v>1</v>
       </c>
-      <c r="EM38" s="28">
+      <c r="EM38" s="26">
         <v>3</v>
       </c>
-      <c r="EN38" s="31">
+      <c r="EN38" s="29">
         <v>2</v>
       </c>
-      <c r="EO38" s="28">
+      <c r="EO38" s="26">
         <v>4</v>
       </c>
-      <c r="EP38" s="28">
+      <c r="EP38" s="26">
         <v>5</v>
       </c>
-      <c r="EQ38" s="28">
+      <c r="EQ38" s="26">
         <v>6</v>
       </c>
-      <c r="ER38" s="28">
+      <c r="ER38" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="53:148">
-      <c r="DY39" s="30" t="s">
+      <c r="DY39" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EF39" s="30" t="s">
+      <c r="EF39" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EN39" s="29" t="s">
+      <c r="EN39" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EO39" s="5"/>
       <c r="EP39" s="5"/>
     </row>
     <row r="40" spans="53:148">
-      <c r="EM40" s="29" t="s">
+      <c r="EM40" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="53:148">
-      <c r="DW41" s="27" t="s">
+      <c r="DW41" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX41" s="27" t="s">
+      <c r="DX41" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY41" s="27" t="s">
+      <c r="DY41" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ41" s="27" t="s">
+      <c r="DZ41" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA41" s="5"/>
-      <c r="ED41" s="27" t="s">
+      <c r="ED41" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE41" s="27" t="s">
+      <c r="EE41" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF41" s="27" t="s">
+      <c r="EF41" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG41" s="27" t="s">
+      <c r="EG41" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH41" s="27" t="s">
+      <c r="EH41" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI41" s="5"/>
@@ -10038,79 +10735,79 @@
       </c>
     </row>
     <row r="42" spans="53:148">
-      <c r="DW42" s="28">
+      <c r="DW42" s="26">
         <v>1</v>
       </c>
-      <c r="DX42" s="28">
+      <c r="DX42" s="26">
         <v>2</v>
       </c>
-      <c r="DY42" s="28">
+      <c r="DY42" s="26">
         <v>5</v>
       </c>
-      <c r="DZ42" s="31">
+      <c r="DZ42" s="29">
         <v>4</v>
       </c>
-      <c r="EA42" s="28">
+      <c r="EA42" s="26">
         <v>5</v>
       </c>
-      <c r="ED42" s="28">
+      <c r="ED42" s="26">
         <v>1</v>
       </c>
-      <c r="EE42" s="28">
+      <c r="EE42" s="26">
         <v>2</v>
       </c>
-      <c r="EF42" s="28">
+      <c r="EF42" s="26">
         <v>5</v>
       </c>
-      <c r="EG42" s="31">
+      <c r="EG42" s="29">
         <v>4</v>
       </c>
-      <c r="EH42" s="28">
+      <c r="EH42" s="26">
         <v>5</v>
       </c>
-      <c r="EI42" s="28">
+      <c r="EI42" s="26">
         <v>6</v>
       </c>
-      <c r="EN42" s="30" t="s">
+      <c r="EN42" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="43" spans="53:148">
-      <c r="DZ43" s="29" t="s">
+      <c r="DZ43" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EA43" s="5"/>
-      <c r="EG43" s="29" t="s">
+      <c r="EG43" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EH43" s="5"/>
     </row>
     <row r="44" spans="53:148">
-      <c r="DZ44" s="29" t="s">
+      <c r="DZ44" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED44" s="5"/>
       <c r="EE44" s="5"/>
       <c r="EF44" s="5"/>
-      <c r="EG44" s="29" t="s">
+      <c r="EG44" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EL44" s="27" t="s">
+      <c r="EL44" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM44" s="27" t="s">
+      <c r="EM44" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN44" s="27" t="s">
+      <c r="EN44" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO44" s="27" t="s">
+      <c r="EO44" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP44" s="27" t="s">
+      <c r="EP44" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ44" s="27" t="s">
+      <c r="EQ44" s="25" t="s">
         <v>441</v>
       </c>
     </row>
@@ -10123,170 +10820,170 @@
       </c>
       <c r="EE45" s="5"/>
       <c r="EF45" s="5"/>
-      <c r="EL45" s="28">
+      <c r="EL45" s="26">
         <v>1</v>
       </c>
-      <c r="EM45" s="28">
+      <c r="EM45" s="26">
         <v>3</v>
       </c>
-      <c r="EN45" s="28">
+      <c r="EN45" s="26">
         <v>2</v>
       </c>
-      <c r="EO45" s="28">
+      <c r="EO45" s="26">
         <v>4</v>
       </c>
-      <c r="EP45" s="28">
+      <c r="EP45" s="26">
         <v>5</v>
       </c>
-      <c r="EQ45" s="28">
+      <c r="EQ45" s="26">
         <v>6</v>
       </c>
-      <c r="ER45" s="28">
+      <c r="ER45" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="53:148">
-      <c r="DZ46" s="30" t="s">
+      <c r="DZ46" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EG46" s="30" t="s">
+      <c r="EG46" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EN46" s="29" t="s">
+      <c r="EN46" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EO46" s="5"/>
       <c r="EP46" s="5"/>
     </row>
     <row r="48" spans="53:148">
-      <c r="DW48" s="27" t="s">
+      <c r="DW48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DX48" s="27" t="s">
+      <c r="DX48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="DY48" s="27" t="s">
+      <c r="DY48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="DZ48" s="27" t="s">
+      <c r="DZ48" s="25" t="s">
         <v>310</v>
       </c>
       <c r="EA48" s="5"/>
-      <c r="ED48" s="27" t="s">
+      <c r="ED48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE48" s="27" t="s">
+      <c r="EE48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF48" s="27" t="s">
+      <c r="EF48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG48" s="27" t="s">
+      <c r="EG48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH48" s="27" t="s">
+      <c r="EH48" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI48" s="5"/>
-      <c r="EL48" s="27" t="s">
+      <c r="EL48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM48" s="27" t="s">
+      <c r="EM48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN48" s="27" t="s">
+      <c r="EN48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO48" s="27" t="s">
+      <c r="EO48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP48" s="27" t="s">
+      <c r="EP48" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ48" s="27" t="s">
+      <c r="EQ48" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="49" spans="127:148">
-      <c r="DW49" s="28">
+      <c r="DW49" s="26">
         <v>1</v>
       </c>
-      <c r="DX49" s="28">
+      <c r="DX49" s="26">
         <v>2</v>
       </c>
-      <c r="DY49" s="28">
+      <c r="DY49" s="26">
         <v>5</v>
       </c>
-      <c r="DZ49" s="28">
+      <c r="DZ49" s="26">
         <v>4</v>
       </c>
-      <c r="EA49" s="31">
+      <c r="EA49" s="29">
         <v>3</v>
       </c>
-      <c r="ED49" s="28">
+      <c r="ED49" s="26">
         <v>1</v>
       </c>
-      <c r="EE49" s="28">
+      <c r="EE49" s="26">
         <v>2</v>
       </c>
-      <c r="EF49" s="28">
+      <c r="EF49" s="26">
         <v>5</v>
       </c>
-      <c r="EG49" s="28">
+      <c r="EG49" s="26">
         <v>4</v>
       </c>
-      <c r="EH49" s="31">
+      <c r="EH49" s="29">
         <v>3</v>
       </c>
-      <c r="EI49" s="28">
+      <c r="EI49" s="26">
         <v>6</v>
       </c>
-      <c r="EL49" s="28">
+      <c r="EL49" s="26">
         <v>1</v>
       </c>
-      <c r="EM49" s="28">
+      <c r="EM49" s="26">
         <v>3</v>
       </c>
-      <c r="EN49" s="28">
+      <c r="EN49" s="26">
         <v>2</v>
       </c>
-      <c r="EO49" s="28">
+      <c r="EO49" s="26">
         <v>4</v>
       </c>
-      <c r="EP49" s="28">
+      <c r="EP49" s="26">
         <v>5</v>
       </c>
-      <c r="EQ49" s="28">
+      <c r="EQ49" s="26">
         <v>6</v>
       </c>
-      <c r="ER49" s="28">
+      <c r="ER49" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="127:148">
-      <c r="EA50" s="29" t="s">
+      <c r="EA50" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EG50" s="5"/>
-      <c r="EH50" s="29" t="s">
+      <c r="EH50" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="EO50" s="29" t="s">
+      <c r="EO50" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EP50" s="5"/>
     </row>
     <row r="51" spans="127:148">
-      <c r="DZ51" s="29" t="s">
+      <c r="DZ51" s="27" t="s">
         <v>55</v>
       </c>
       <c r="ED51" s="5"/>
       <c r="EE51" s="5"/>
       <c r="EF51" s="5"/>
-      <c r="EG51" s="29" t="s">
+      <c r="EG51" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EO51" s="29" t="s">
+      <c r="EO51" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10304,102 +11001,102 @@
       </c>
     </row>
     <row r="53" spans="127:148">
-      <c r="EA53" s="30" t="s">
+      <c r="EA53" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="EH53" s="30" t="s">
+      <c r="EH53" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="54" spans="127:148">
-      <c r="EL54" s="27" t="s">
+      <c r="EL54" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM54" s="27" t="s">
+      <c r="EM54" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN54" s="27" t="s">
+      <c r="EN54" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO54" s="27" t="s">
+      <c r="EO54" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP54" s="27" t="s">
+      <c r="EP54" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ54" s="27" t="s">
+      <c r="EQ54" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="55" spans="127:148">
-      <c r="ED55" s="27" t="s">
+      <c r="ED55" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EE55" s="27" t="s">
+      <c r="EE55" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EF55" s="27" t="s">
+      <c r="EF55" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EG55" s="27" t="s">
+      <c r="EG55" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EH55" s="27" t="s">
+      <c r="EH55" s="25" t="s">
         <v>441</v>
       </c>
       <c r="EI55" s="5"/>
-      <c r="EL55" s="28">
+      <c r="EL55" s="26">
         <v>1</v>
       </c>
-      <c r="EM55" s="28">
+      <c r="EM55" s="26">
         <v>3</v>
       </c>
-      <c r="EN55" s="28">
+      <c r="EN55" s="26">
         <v>2</v>
       </c>
-      <c r="EO55" s="28">
+      <c r="EO55" s="26">
         <v>4</v>
       </c>
-      <c r="EP55" s="28">
+      <c r="EP55" s="26">
         <v>5</v>
       </c>
-      <c r="EQ55" s="28">
+      <c r="EQ55" s="26">
         <v>6</v>
       </c>
-      <c r="ER55" s="28">
+      <c r="ER55" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="127:148">
-      <c r="ED56" s="28">
+      <c r="ED56" s="26">
         <v>1</v>
       </c>
-      <c r="EE56" s="28">
+      <c r="EE56" s="26">
         <v>2</v>
       </c>
-      <c r="EF56" s="28">
+      <c r="EF56" s="26">
         <v>5</v>
       </c>
-      <c r="EG56" s="28">
+      <c r="EG56" s="26">
         <v>4</v>
       </c>
-      <c r="EH56" s="28">
+      <c r="EH56" s="26">
         <v>3</v>
       </c>
-      <c r="EI56" s="28">
+      <c r="EI56" s="26">
         <v>6</v>
       </c>
-      <c r="EO56" s="29" t="s">
+      <c r="EO56" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EP56" s="5"/>
     </row>
     <row r="57" spans="127:148">
       <c r="EG57" s="5"/>
-      <c r="EI57" s="29" t="s">
+      <c r="EI57" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="EP57" s="29" t="s">
+      <c r="EP57" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10407,7 +11104,7 @@
       <c r="ED58" s="5"/>
       <c r="EE58" s="5"/>
       <c r="EF58" s="5"/>
-      <c r="EG58" s="29" t="s">
+      <c r="EG58" s="27" t="s">
         <v>55</v>
       </c>
       <c r="EL58" s="21" t="s">
@@ -10415,56 +11112,56 @@
       </c>
     </row>
     <row r="60" spans="127:148">
-      <c r="EL60" s="27" t="s">
+      <c r="EL60" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM60" s="27" t="s">
+      <c r="EM60" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN60" s="27" t="s">
+      <c r="EN60" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO60" s="27" t="s">
+      <c r="EO60" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP60" s="27" t="s">
+      <c r="EP60" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ60" s="27" t="s">
+      <c r="EQ60" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="61" spans="127:148">
-      <c r="EL61" s="28">
+      <c r="EL61" s="26">
         <v>1</v>
       </c>
-      <c r="EM61" s="28">
+      <c r="EM61" s="26">
         <v>3</v>
       </c>
-      <c r="EN61" s="28">
+      <c r="EN61" s="26">
         <v>2</v>
       </c>
-      <c r="EO61" s="28">
+      <c r="EO61" s="26">
         <v>4</v>
       </c>
-      <c r="EP61" s="28">
+      <c r="EP61" s="26">
         <v>5</v>
       </c>
-      <c r="EQ61" s="28">
+      <c r="EQ61" s="26">
         <v>6</v>
       </c>
-      <c r="ER61" s="28">
+      <c r="ER61" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="127:148">
-      <c r="EO62" s="29" t="s">
+      <c r="EO62" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EP62" s="5"/>
     </row>
     <row r="63" spans="127:148">
-      <c r="EP63" s="29" t="s">
+      <c r="EP63" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10474,61 +11171,61 @@
       </c>
     </row>
     <row r="65" spans="142:148">
-      <c r="EQ65" s="30" t="s">
+      <c r="EQ65" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="67" spans="142:148">
-      <c r="EL67" s="27" t="s">
+      <c r="EL67" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM67" s="27" t="s">
+      <c r="EM67" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN67" s="27" t="s">
+      <c r="EN67" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO67" s="27" t="s">
+      <c r="EO67" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP67" s="27" t="s">
+      <c r="EP67" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ67" s="27" t="s">
+      <c r="EQ67" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="68" spans="142:148">
-      <c r="EL68" s="28">
+      <c r="EL68" s="26">
         <v>1</v>
       </c>
-      <c r="EM68" s="28">
+      <c r="EM68" s="26">
         <v>3</v>
       </c>
-      <c r="EN68" s="28">
+      <c r="EN68" s="26">
         <v>2</v>
       </c>
-      <c r="EO68" s="31">
+      <c r="EO68" s="29">
         <v>6</v>
       </c>
-      <c r="EP68" s="28">
+      <c r="EP68" s="26">
         <v>5</v>
       </c>
-      <c r="EQ68" s="28">
+      <c r="EQ68" s="26">
         <v>6</v>
       </c>
-      <c r="ER68" s="28">
+      <c r="ER68" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="142:148">
-      <c r="EO69" s="29" t="s">
+      <c r="EO69" s="27" t="s">
         <v>517</v>
       </c>
       <c r="EP69" s="5"/>
     </row>
     <row r="70" spans="142:148">
-      <c r="EP70" s="29" t="s">
+      <c r="EP70" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10538,60 +11235,60 @@
       </c>
     </row>
     <row r="72" spans="142:148">
-      <c r="EO72" s="30" t="s">
+      <c r="EO72" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="74" spans="142:148">
-      <c r="EL74" s="27" t="s">
+      <c r="EL74" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM74" s="27" t="s">
+      <c r="EM74" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN74" s="27" t="s">
+      <c r="EN74" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO74" s="27" t="s">
+      <c r="EO74" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP74" s="27" t="s">
+      <c r="EP74" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ74" s="27" t="s">
+      <c r="EQ74" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="75" spans="142:148">
-      <c r="EL75" s="28">
+      <c r="EL75" s="26">
         <v>1</v>
       </c>
-      <c r="EM75" s="28">
+      <c r="EM75" s="26">
         <v>3</v>
       </c>
-      <c r="EN75" s="28">
+      <c r="EN75" s="26">
         <v>2</v>
       </c>
-      <c r="EO75" s="28">
+      <c r="EO75" s="26">
         <v>6</v>
       </c>
-      <c r="EP75" s="31">
+      <c r="EP75" s="29">
         <v>5</v>
       </c>
-      <c r="EQ75" s="28">
+      <c r="EQ75" s="26">
         <v>6</v>
       </c>
-      <c r="ER75" s="28">
+      <c r="ER75" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="142:148">
-      <c r="EP76" s="29" t="s">
+      <c r="EP76" s="27" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="77" spans="142:148">
-      <c r="EP77" s="29" t="s">
+      <c r="EP77" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10601,61 +11298,61 @@
       </c>
     </row>
     <row r="79" spans="142:148">
-      <c r="EP79" s="30" t="s">
+      <c r="EP79" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="81" spans="142:148">
-      <c r="EL81" s="27" t="s">
+      <c r="EL81" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM81" s="27" t="s">
+      <c r="EM81" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN81" s="27" t="s">
+      <c r="EN81" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO81" s="27" t="s">
+      <c r="EO81" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP81" s="27" t="s">
+      <c r="EP81" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ81" s="27" t="s">
+      <c r="EQ81" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="82" spans="142:148">
-      <c r="EL82" s="28">
+      <c r="EL82" s="26">
         <v>1</v>
       </c>
-      <c r="EM82" s="28">
+      <c r="EM82" s="26">
         <v>3</v>
       </c>
-      <c r="EN82" s="28">
+      <c r="EN82" s="26">
         <v>2</v>
       </c>
-      <c r="EO82" s="28">
+      <c r="EO82" s="26">
         <v>6</v>
       </c>
-      <c r="EP82" s="28">
+      <c r="EP82" s="26">
         <v>5</v>
       </c>
-      <c r="EQ82" s="31">
+      <c r="EQ82" s="29">
         <v>4</v>
       </c>
-      <c r="ER82" s="28">
+      <c r="ER82" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="142:148">
       <c r="EP83" s="5"/>
-      <c r="EQ83" s="29" t="s">
+      <c r="EQ83" s="27" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="84" spans="142:148">
-      <c r="EP84" s="29" t="s">
+      <c r="EP84" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10665,61 +11362,64 @@
       </c>
     </row>
     <row r="86" spans="142:148">
-      <c r="EQ86" s="30" t="s">
+      <c r="EQ86" s="28" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="88" spans="142:148">
-      <c r="EL88" s="27" t="s">
+      <c r="EL88" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EM88" s="27" t="s">
+      <c r="EM88" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EN88" s="27" t="s">
+      <c r="EN88" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="EO88" s="27" t="s">
+      <c r="EO88" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EP88" s="27" t="s">
+      <c r="EP88" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="EQ88" s="27" t="s">
+      <c r="EQ88" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="89" spans="142:148">
-      <c r="EL89" s="28">
+      <c r="EL89" s="26">
         <v>1</v>
       </c>
-      <c r="EM89" s="28">
+      <c r="EM89" s="26">
         <v>3</v>
       </c>
-      <c r="EN89" s="28">
+      <c r="EN89" s="26">
         <v>2</v>
       </c>
-      <c r="EO89" s="28">
+      <c r="EO89" s="26">
         <v>6</v>
       </c>
-      <c r="EP89" s="28">
+      <c r="EP89" s="26">
         <v>5</v>
       </c>
-      <c r="EQ89" s="28">
+      <c r="EQ89" s="26">
         <v>4</v>
       </c>
-      <c r="ER89" s="28">
+      <c r="ER89" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="142:148">
       <c r="EP90" s="5"/>
       <c r="EQ90" s="5"/>
-      <c r="ER90" s="29" t="s">
+      <c r="ER90" s="27" t="s">
         <v>517</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="FM6:FP7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83ACA1-6A40-435B-8676-5AD07A94351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C6706-8800-4264-BE1C-51273E861427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="602">
   <si>
     <t>*</t>
   </si>
@@ -2267,12 +2267,78 @@
   <si>
     <t>return r</t>
   </si>
+  <si>
+    <t>Sort Even and Odd Indices Independently</t>
+  </si>
+  <si>
+    <t>n=[5,2,3,7]</t>
+  </si>
+  <si>
+    <t>op:[3,7,5,2]</t>
+  </si>
+  <si>
+    <t>i.e odd index (1,3,..,n) shall have dec order val</t>
+  </si>
+  <si>
+    <t>and even index (0,2,..,n) shall have inc order val</t>
+  </si>
+  <si>
+    <t>n.len&lt;3</t>
+  </si>
+  <si>
+    <t>R &lt; N.Len</t>
+  </si>
+  <si>
+    <t>R%2 == 0</t>
+  </si>
+  <si>
+    <t>L &gt; R</t>
+  </si>
+  <si>
+    <t>L-2 &gt; L</t>
+  </si>
+  <si>
+    <t>L-2,L = L, L-2</t>
+  </si>
+  <si>
+    <t>L++, R++</t>
+  </si>
+  <si>
+    <t>R%2 != 0</t>
+  </si>
+  <si>
+    <t>L-2</t>
+  </si>
+  <si>
+    <t>L-2 &lt; L</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>L==0</t>
+  </si>
+  <si>
+    <t>L=0, R=2</t>
+  </si>
+  <si>
+    <t>else L==1</t>
+  </si>
+  <si>
+    <t>else R%2 == 0</t>
+  </si>
+  <si>
+    <t>else R%2 != 0</t>
+  </si>
+  <si>
+    <t>Return N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2431,8 +2497,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2475,6 +2556,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2504,7 +2591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2565,12 +2652,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2581,10 +2662,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4820,11 +4914,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -6143,21 +6237,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -6227,17 +6321,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -7730,10 +7824,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:GE90"/>
+  <dimension ref="A1:HA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="FX14" sqref="FX14"/>
+    <sheetView tabSelected="1" topLeftCell="FW1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="GI30" sqref="GI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7757,15 +7851,20 @@
     <col min="151" max="166" width="3.77734375" customWidth="1"/>
     <col min="167" max="167" width="2.44140625" customWidth="1"/>
     <col min="168" max="168" width="10.6640625" customWidth="1"/>
-    <col min="169" max="196" width="3.77734375" customWidth="1"/>
+    <col min="169" max="187" width="3.77734375" customWidth="1"/>
+    <col min="188" max="188" width="2" customWidth="1"/>
+    <col min="189" max="189" width="6" customWidth="1"/>
+    <col min="190" max="201" width="3.77734375" customWidth="1"/>
+    <col min="202" max="202" width="10" bestFit="1" customWidth="1"/>
+    <col min="203" max="216" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187">
+    <row r="1" spans="1:209">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:187">
+    <row r="2" spans="1:209">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -7777,7 +7876,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:187" ht="16.8">
+    <row r="3" spans="1:209" ht="16.8">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -7827,14 +7926,17 @@
       <c r="DQ3" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="ET3" s="32" t="s">
+      <c r="ET3" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="FL3" s="32" t="s">
+      <c r="FL3" s="30" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="4" spans="1:187">
+      <c r="GG3" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:209">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -7912,14 +8014,20 @@
       <c r="FJ4" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="FL4" s="35" t="s">
+      <c r="FL4" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="FX4" s="37" t="s">
+      <c r="FX4" s="34" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="5" spans="1:187">
+      <c r="GG4" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="GT4" s="34" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:209">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7972,8 +8080,32 @@
       <c r="GE5" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:187" ht="14.4" customHeight="1">
+      <c r="GH5" t="s">
+        <v>581</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV5" s="28">
+        <v>3</v>
+      </c>
+      <c r="GW5" s="39">
+        <v>4</v>
+      </c>
+      <c r="GX5" s="28">
+        <v>1</v>
+      </c>
+      <c r="GY5" s="39">
+        <v>5</v>
+      </c>
+      <c r="GZ5" s="28">
+        <v>2</v>
+      </c>
+      <c r="HA5" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:209" ht="14.4" customHeight="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -8030,12 +8162,12 @@
       <c r="FE6" t="s">
         <v>552</v>
       </c>
-      <c r="FM6" s="36" t="s">
+      <c r="FM6" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="FN6" s="36"/>
-      <c r="FO6" s="36"/>
-      <c r="FP6" s="36"/>
+      <c r="FN6" s="37"/>
+      <c r="FO6" s="37"/>
+      <c r="FP6" s="37"/>
       <c r="FX6" t="s">
         <v>403</v>
       </c>
@@ -8045,8 +8177,20 @@
       <c r="GE6" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="7" spans="1:187">
+      <c r="GH6" t="s">
+        <v>582</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>403</v>
+      </c>
+      <c r="GV6" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GX6" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:209">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8160,15 +8304,21 @@
       <c r="EV7" t="s">
         <v>536</v>
       </c>
-      <c r="FM7" s="36"/>
-      <c r="FN7" s="36"/>
-      <c r="FO7" s="36"/>
-      <c r="FP7" s="36"/>
+      <c r="FM7" s="37"/>
+      <c r="FN7" s="37"/>
+      <c r="FO7" s="37"/>
+      <c r="FP7" s="37"/>
       <c r="FZ7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:187">
+      <c r="GH7" t="s">
+        <v>583</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:209">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -8290,8 +8440,14 @@
       <c r="FZ8" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="9" spans="1:187">
+      <c r="GH8" t="s">
+        <v>584</v>
+      </c>
+      <c r="GW8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:209">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -8378,7 +8534,7 @@
       <c r="FM9" t="s">
         <v>571</v>
       </c>
-      <c r="FZ9" s="33">
+      <c r="FZ9" s="31">
         <v>6</v>
       </c>
       <c r="GA9" s="25">
@@ -8393,11 +8549,14 @@
       <c r="GD9" s="25">
         <v>2</v>
       </c>
-      <c r="GE9" s="33">
+      <c r="GE9" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:187">
+      <c r="GX9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:209">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -8460,8 +8619,32 @@
       <c r="GE10" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="11" spans="1:187">
+      <c r="GH10" t="s">
+        <v>585</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV10" s="32">
+        <v>1</v>
+      </c>
+      <c r="GW10" s="39">
+        <v>4</v>
+      </c>
+      <c r="GX10" s="32">
+        <v>3</v>
+      </c>
+      <c r="GY10" s="39">
+        <v>5</v>
+      </c>
+      <c r="GZ10" s="28">
+        <v>2</v>
+      </c>
+      <c r="HA10" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:209">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -8572,8 +8755,17 @@
       <c r="FZ11" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="12" spans="1:187">
+      <c r="GI11" t="s">
+        <v>570</v>
+      </c>
+      <c r="GV11" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GX11" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:209">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -8747,8 +8939,14 @@
       <c r="FO12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="13" spans="1:187">
+      <c r="GH12" t="s">
+        <v>597</v>
+      </c>
+      <c r="GX12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:209">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -8874,8 +9072,11 @@
       <c r="GE13" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:187">
+      <c r="GH13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:209">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -8962,8 +9163,32 @@
       <c r="GD14" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="15" spans="1:187">
+      <c r="GI14" t="s">
+        <v>596</v>
+      </c>
+      <c r="GU14" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV14" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW14" s="39">
+        <v>4</v>
+      </c>
+      <c r="GX14" s="28">
+        <v>3</v>
+      </c>
+      <c r="GY14" s="39">
+        <v>5</v>
+      </c>
+      <c r="GZ14" s="28">
+        <v>2</v>
+      </c>
+      <c r="HA14" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:209">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -9104,8 +9329,20 @@
       <c r="FZ15" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="16" spans="1:187">
+      <c r="GJ15" t="s">
+        <v>588</v>
+      </c>
+      <c r="GT15" t="s">
+        <v>404</v>
+      </c>
+      <c r="GW15" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GY15" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:209">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -9235,8 +9472,14 @@
       <c r="FZ16" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="17" spans="1:187">
+      <c r="GK16" t="s">
+        <v>564</v>
+      </c>
+      <c r="GV16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:209">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -9348,8 +9591,14 @@
       <c r="FM17" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="18" spans="1:187">
+      <c r="GI17" t="s">
+        <v>598</v>
+      </c>
+      <c r="GW17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:209">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -9511,8 +9760,14 @@
       <c r="GE18" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:187">
+      <c r="GJ18" t="s">
+        <v>568</v>
+      </c>
+      <c r="GX18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:209">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -9599,8 +9854,32 @@
       <c r="GD19" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="20" spans="1:187">
+      <c r="GK19" t="s">
+        <v>564</v>
+      </c>
+      <c r="GU19" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV19" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW19" s="40">
+        <v>5</v>
+      </c>
+      <c r="GX19" s="28">
+        <v>3</v>
+      </c>
+      <c r="GY19" s="40">
+        <v>4</v>
+      </c>
+      <c r="GZ19" s="28">
+        <v>2</v>
+      </c>
+      <c r="HA19" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:209">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -9658,7 +9937,7 @@
       <c r="EV20" t="s">
         <v>544</v>
       </c>
-      <c r="FE20" s="34" t="s">
+      <c r="FE20" s="32" t="s">
         <v>338</v>
       </c>
       <c r="FF20" s="25" t="s">
@@ -9667,7 +9946,7 @@
       <c r="FG20" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="FH20" s="33" t="s">
+      <c r="FH20" s="31" t="s">
         <v>525</v>
       </c>
       <c r="FI20" s="25" t="s">
@@ -9679,8 +9958,17 @@
       <c r="FZ20" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="21" spans="1:187">
+      <c r="GI20" t="s">
+        <v>599</v>
+      </c>
+      <c r="GW20" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GY20" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:209">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -9784,8 +10072,14 @@
       <c r="FZ21" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="22" spans="1:187">
+      <c r="GJ21" t="s">
+        <v>588</v>
+      </c>
+      <c r="GX21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:209">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -9889,7 +10183,7 @@
       <c r="EW22" t="s">
         <v>546</v>
       </c>
-      <c r="FE22" s="33" t="s">
+      <c r="FE22" s="31" t="s">
         <v>525</v>
       </c>
       <c r="FF22" s="25" t="s">
@@ -9898,7 +10192,7 @@
       <c r="FG22" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="FH22" s="34" t="s">
+      <c r="FH22" s="32" t="s">
         <v>338</v>
       </c>
       <c r="FI22" s="25" t="s">
@@ -9913,20 +10207,23 @@
       <c r="GA22" s="25">
         <v>4</v>
       </c>
-      <c r="GB22" s="33">
+      <c r="GB22" s="31">
         <v>2</v>
       </c>
       <c r="GC22" s="25">
         <v>5</v>
       </c>
-      <c r="GD22" s="33">
+      <c r="GD22" s="31">
         <v>1</v>
       </c>
       <c r="GE22" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:187">
+      <c r="GK22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:209">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -10021,8 +10318,32 @@
       <c r="GD23" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="24" spans="1:187">
+      <c r="GK23" t="s">
+        <v>589</v>
+      </c>
+      <c r="GU23" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV23" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW23" s="39">
+        <v>5</v>
+      </c>
+      <c r="GX23" s="28">
+        <v>3</v>
+      </c>
+      <c r="GY23" s="39">
+        <v>4</v>
+      </c>
+      <c r="GZ23" s="28">
+        <v>2</v>
+      </c>
+      <c r="HA23" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:209">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10101,8 +10422,20 @@
       <c r="FZ24" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="25" spans="1:187">
+      <c r="GL24" t="s">
+        <v>590</v>
+      </c>
+      <c r="GT24" t="s">
+        <v>409</v>
+      </c>
+      <c r="GX24" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GZ24" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:209">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -10162,10 +10495,10 @@
       <c r="FE25" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="FF25" s="34" t="s">
+      <c r="FF25" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="FG25" s="33" t="s">
+      <c r="FG25" s="31" t="s">
         <v>548</v>
       </c>
       <c r="FH25" s="25" t="s">
@@ -10177,8 +10510,14 @@
       <c r="FJ25" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="26" spans="1:187">
+      <c r="GI25" t="s">
+        <v>600</v>
+      </c>
+      <c r="GV25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:209">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -10245,8 +10584,14 @@
       <c r="GE26" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:187">
+      <c r="GJ26" t="s">
+        <v>568</v>
+      </c>
+      <c r="GW26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:209">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -10309,10 +10654,10 @@
       <c r="FE27" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="FF27" s="33" t="s">
+      <c r="FF27" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="FG27" s="34" t="s">
+      <c r="FG27" s="32" t="s">
         <v>339</v>
       </c>
       <c r="FH27" s="25" t="s">
@@ -10330,8 +10675,14 @@
       <c r="GC27" s="27" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="28" spans="1:187">
+      <c r="GK27" t="s">
+        <v>564</v>
+      </c>
+      <c r="GX27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:209">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -10380,8 +10731,32 @@
       <c r="FE28" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="29" spans="1:187">
+      <c r="GK28" t="s">
+        <v>594</v>
+      </c>
+      <c r="GU28" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV28" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW28" s="39">
+        <v>5</v>
+      </c>
+      <c r="GX28" s="32">
+        <v>2</v>
+      </c>
+      <c r="GY28" s="39">
+        <v>4</v>
+      </c>
+      <c r="GZ28" s="32">
+        <v>3</v>
+      </c>
+      <c r="HA28" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:209">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -10407,8 +10782,20 @@
       <c r="FX29" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="30" spans="1:187">
+      <c r="GL29" t="s">
+        <v>590</v>
+      </c>
+      <c r="GV29" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="GX29" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="GZ29" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:209">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
@@ -10445,8 +10832,14 @@
       <c r="FD30" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="31" spans="1:187">
+      <c r="GI30" t="s">
+        <v>591</v>
+      </c>
+      <c r="GX30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:209">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
@@ -10500,8 +10893,14 @@
       <c r="FJ31" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="32" spans="1:187">
+      <c r="GH31" t="s">
+        <v>601</v>
+      </c>
+      <c r="GX31" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:209">
       <c r="BC32" t="s">
         <v>375</v>
       </c>
@@ -10521,15 +10920,36 @@
       <c r="EO32" s="5"/>
       <c r="EP32" s="5"/>
     </row>
-    <row r="33" spans="53:148">
+    <row r="33" spans="53:209">
       <c r="BA33" t="s">
         <v>380</v>
       </c>
       <c r="EM33" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="53:148">
+      <c r="GU33" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV33" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW33" s="39">
+        <v>5</v>
+      </c>
+      <c r="GX33" s="28">
+        <v>2</v>
+      </c>
+      <c r="GY33" s="39">
+        <v>4</v>
+      </c>
+      <c r="GZ33" s="28">
+        <v>3</v>
+      </c>
+      <c r="HA33" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="53:209">
       <c r="BB34" t="s">
         <v>378</v>
       </c>
@@ -10565,8 +10985,17 @@
       <c r="EL34" s="21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="35" spans="53:148">
+      <c r="GT34" t="s">
+        <v>409</v>
+      </c>
+      <c r="GY34" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="HA34" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="35" spans="53:209">
       <c r="BB35" t="s">
         <v>381</v>
       </c>
@@ -10606,8 +11035,11 @@
       <c r="EM35" s="28" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="36" spans="53:148">
+      <c r="GV35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="53:209">
       <c r="BC36" t="s">
         <v>382</v>
       </c>
@@ -10621,8 +11053,11 @@
       </c>
       <c r="EG36" s="5"/>
       <c r="EH36" s="5"/>
-    </row>
-    <row r="37" spans="53:148">
+      <c r="GW36" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="53:209">
       <c r="DZ37" s="27" t="s">
         <v>55</v>
       </c>
@@ -10650,8 +11085,11 @@
       <c r="EQ37" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="38" spans="53:148">
+      <c r="GX37" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="53:209">
       <c r="DW38" s="21" t="s">
         <v>524</v>
       </c>
@@ -10681,8 +11119,29 @@
       <c r="ER38" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="53:148">
+      <c r="GU38" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV38" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW38" s="39">
+        <v>5</v>
+      </c>
+      <c r="GX38" s="28">
+        <v>2</v>
+      </c>
+      <c r="GY38" s="40">
+        <v>6</v>
+      </c>
+      <c r="GZ38" s="28">
+        <v>3</v>
+      </c>
+      <c r="HA38" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="53:209">
       <c r="DY39" s="28" t="s">
         <v>525</v>
       </c>
@@ -10694,13 +11153,25 @@
       </c>
       <c r="EO39" s="5"/>
       <c r="EP39" s="5"/>
-    </row>
-    <row r="40" spans="53:148">
+      <c r="GW39" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="GY39" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="HA39" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="53:209">
       <c r="EM40" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="53:148">
+      <c r="GX40" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="53:209">
       <c r="DW41" s="25" t="s">
         <v>441</v>
       </c>
@@ -10733,8 +11204,11 @@
       <c r="EL41" s="21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="53:148">
+      <c r="GY41" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="42" spans="53:209">
       <c r="DW42" s="26">
         <v>1</v>
       </c>
@@ -10771,8 +11245,29 @@
       <c r="EN42" s="28" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="43" spans="53:148">
+      <c r="GU42" t="s">
+        <v>395</v>
+      </c>
+      <c r="GV42" s="28">
+        <v>1</v>
+      </c>
+      <c r="GW42" s="40">
+        <v>6</v>
+      </c>
+      <c r="GX42" s="28">
+        <v>2</v>
+      </c>
+      <c r="GY42" s="40">
+        <v>5</v>
+      </c>
+      <c r="GZ42" s="28">
+        <v>3</v>
+      </c>
+      <c r="HA42" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="53:209">
       <c r="DZ43" s="27" t="s">
         <v>517</v>
       </c>
@@ -10781,8 +11276,17 @@
         <v>517</v>
       </c>
       <c r="EH43" s="5"/>
-    </row>
-    <row r="44" spans="53:148">
+      <c r="GW43" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="GY43" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="HA43" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44" spans="53:209">
       <c r="DZ44" s="27" t="s">
         <v>55</v>
       </c>
@@ -10810,8 +11314,11 @@
       <c r="EQ44" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="45" spans="53:148">
+      <c r="GX44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="53:209">
       <c r="DW45" s="21" t="s">
         <v>522</v>
       </c>
@@ -10841,8 +11348,11 @@
       <c r="ER45" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="53:148">
+      <c r="GT45" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="53:209">
       <c r="DZ46" s="28" t="s">
         <v>525</v>
       </c>
@@ -10854,8 +11364,11 @@
       </c>
       <c r="EO46" s="5"/>
       <c r="EP46" s="5"/>
-    </row>
-    <row r="48" spans="53:148">
+      <c r="GT46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="48" spans="53:209">
       <c r="DW48" s="25" t="s">
         <v>441</v>
       </c>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C6706-8800-4264-BE1C-51273E861427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7A992-1DC5-469D-8F81-09E9362456B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="668">
   <si>
     <t>*</t>
   </si>
@@ -2333,12 +2333,210 @@
   <si>
     <t>Return N</t>
   </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>n1 = [1,2,3,0,0]</t>
+  </si>
+  <si>
+    <t>n2 = [2,4]</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>s="hello world"</t>
+  </si>
+  <si>
+    <t>for(int i=0; i&lt;s.len; i++)</t>
+  </si>
+  <si>
+    <t>if(s(i) == " ")</t>
+  </si>
+  <si>
+    <t>for(int k=i-1; j&lt;k; j++, k--)</t>
+  </si>
+  <si>
+    <t>char t = s(k)</t>
+  </si>
+  <si>
+    <t>s(k) = s(j)</t>
+  </si>
+  <si>
+    <t>s(j)=t</t>
+  </si>
+  <si>
+    <t>j=i+1</t>
+  </si>
+  <si>
+    <t>I &lt; s.len</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>j &lt; k</t>
+  </si>
+  <si>
+    <t>j &lt;= k</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>j == K</t>
+  </si>
+  <si>
+    <t>k = i+1</t>
+  </si>
+  <si>
+    <t>else if (i == s.len-1)</t>
+  </si>
+  <si>
+    <t>k = i</t>
+  </si>
+  <si>
+    <t>int j =0, f = 0</t>
+  </si>
+  <si>
+    <t>f = 1</t>
+  </si>
+  <si>
+    <t>if(f==1)</t>
+  </si>
+  <si>
+    <t>f = 0</t>
+  </si>
+  <si>
+    <t>Reverse String for the mentioned integer</t>
+  </si>
+  <si>
+    <t>if s.len &lt; k</t>
+  </si>
+  <si>
+    <t>while(i&lt;k)</t>
+  </si>
+  <si>
+    <t>s[i],s[j] = s[j], s[i]</t>
+  </si>
+  <si>
+    <t>i++, j--</t>
+  </si>
+  <si>
+    <t>j=s.len-1</t>
+  </si>
+  <si>
+    <t>I = 0, j = 0</t>
+  </si>
+  <si>
+    <t>j = k-1</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>k = 3</t>
+  </si>
+  <si>
+    <t>I == j</t>
+  </si>
+  <si>
+    <t>k = 4</t>
+  </si>
+  <si>
+    <t>j = s.len -1</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>n1=[3,4,4,5]</t>
+  </si>
+  <si>
+    <t>k=8</t>
+  </si>
+  <si>
+    <t>op:[1,2]</t>
+  </si>
+  <si>
+    <t>for(i=0;i&lt;n1.len;i++)</t>
+  </si>
+  <si>
+    <t>for(j=0;j&lt;n1.len;j++)</t>
+  </si>
+  <si>
+    <t>if j!=i</t>
+  </si>
+  <si>
+    <t>if(k==(n1[i] + n1[j]))</t>
+  </si>
+  <si>
+    <t>print i, j</t>
+  </si>
+  <si>
+    <t>m==1 &amp; (m-1)==0</t>
+  </si>
+  <si>
+    <t>return arr.len - m</t>
+  </si>
+  <si>
+    <t>m==0</t>
+  </si>
+  <si>
+    <t>l = m+1</t>
+  </si>
+  <si>
+    <t>m==1</t>
+  </si>
+  <si>
+    <t>r = m-1</t>
+  </si>
+  <si>
+    <t>m = (l+r)/2</t>
+  </si>
+  <si>
+    <t>m = (0+6)/2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>l = m+1 ==&gt; 3 +1 ==&gt; 4</t>
+  </si>
+  <si>
+    <t>m=(4+6)/2 ==&gt;5</t>
+  </si>
+  <si>
+    <t>r = 1-1 ==&gt; 0</t>
+  </si>
+  <si>
+    <t>m=(0+0)/2</t>
+  </si>
+  <si>
+    <t>l == m == r == 0</t>
+  </si>
+  <si>
+    <t>op = length(n+m)</t>
+  </si>
+  <si>
+    <t>for(j=0;j&lt;m.len;j++)</t>
+  </si>
+  <si>
+    <t>if(n[i]&lt;m[j])</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2512,6 +2710,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2563,7 +2767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2586,12 +2790,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2663,6 +2947,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2672,11 +2989,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4914,11 +5230,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -6237,21 +6553,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -6321,17 +6637,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -7824,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:HA90"/>
+  <dimension ref="A1:KF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FW1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="GI30" sqref="GI30"/>
+    <sheetView tabSelected="1" topLeftCell="JA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="KC13" sqref="KC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7856,15 +8172,31 @@
     <col min="189" max="189" width="6" customWidth="1"/>
     <col min="190" max="201" width="3.77734375" customWidth="1"/>
     <col min="202" max="202" width="10" bestFit="1" customWidth="1"/>
-    <col min="203" max="216" width="3.77734375" customWidth="1"/>
+    <col min="203" max="209" width="3.77734375" customWidth="1"/>
+    <col min="210" max="210" width="1.33203125" customWidth="1"/>
+    <col min="211" max="211" width="8.44140625" customWidth="1"/>
+    <col min="212" max="215" width="3.77734375" customWidth="1"/>
+    <col min="216" max="216" width="1.88671875" customWidth="1"/>
+    <col min="217" max="217" width="7.44140625" customWidth="1"/>
+    <col min="218" max="225" width="3.77734375" customWidth="1"/>
+    <col min="226" max="226" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="227" max="233" width="3.77734375" customWidth="1"/>
+    <col min="234" max="234" width="1.6640625" customWidth="1"/>
+    <col min="235" max="235" width="5.5546875" customWidth="1"/>
+    <col min="236" max="241" width="3.77734375" customWidth="1"/>
+    <col min="242" max="242" width="1.21875" customWidth="1"/>
+    <col min="243" max="250" width="3.77734375" customWidth="1"/>
+    <col min="251" max="251" width="1.6640625" customWidth="1"/>
+    <col min="252" max="252" width="7.5546875" customWidth="1"/>
+    <col min="253" max="306" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:209">
+    <row r="1" spans="1:292">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:209">
+    <row r="2" spans="1:292">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -7875,8 +8207,17 @@
       <c r="DJ2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="3" spans="1:209" ht="16.8">
+      <c r="JD2" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="JJ2" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:292" ht="16.8">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -7932,11 +8273,68 @@
       <c r="FL3" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="GG3" s="38" t="s">
+      <c r="GG3" s="35" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="4" spans="1:209">
+      <c r="HC3" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="HI3" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="IA3" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="IR3" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD3" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF3" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG3" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH3" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI3" s="25">
+        <v>1</v>
+      </c>
+      <c r="JJ3" s="25">
+        <v>1</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>652</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>395</v>
+      </c>
+      <c r="JV3" s="25">
+        <v>1</v>
+      </c>
+      <c r="JW3" s="25">
+        <v>3</v>
+      </c>
+      <c r="JX3" s="25">
+        <v>5</v>
+      </c>
+      <c r="JY3" s="25">
+        <v>7</v>
+      </c>
+      <c r="JZ3" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:292">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -8026,8 +8424,38 @@
       <c r="GT4" s="34" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="5" spans="1:209">
+      <c r="HC4" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="HI4" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="HR4" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="IA4" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="IR4" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>653</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>402</v>
+      </c>
+      <c r="JV4" s="25">
+        <v>2</v>
+      </c>
+      <c r="JW4" s="25">
+        <v>8</v>
+      </c>
+      <c r="JX4" s="25"/>
+      <c r="JY4" s="25"/>
+      <c r="JZ4" s="25"/>
+    </row>
+    <row r="5" spans="1:292" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8089,23 +8517,63 @@
       <c r="GV5" s="28">
         <v>3</v>
       </c>
-      <c r="GW5" s="39">
+      <c r="GW5" s="36">
         <v>4</v>
       </c>
       <c r="GX5" s="28">
         <v>1</v>
       </c>
-      <c r="GY5" s="39">
+      <c r="GY5" s="36">
         <v>5</v>
       </c>
       <c r="GZ5" s="28">
         <v>2</v>
       </c>
-      <c r="HA5" s="39">
+      <c r="HA5" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:209" ht="14.4" customHeight="1">
+      <c r="HD5" t="s">
+        <v>603</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>606</v>
+      </c>
+      <c r="HO5" s="25"/>
+      <c r="HP5" s="25"/>
+      <c r="HQ5" s="25"/>
+      <c r="HS5" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT5" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU5" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV5" s="25"/>
+      <c r="HW5" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX5" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY5" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="IB5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>643</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>657</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:292" ht="14.4" customHeight="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -8162,12 +8630,12 @@
       <c r="FE6" t="s">
         <v>552</v>
       </c>
-      <c r="FM6" s="37" t="s">
+      <c r="FM6" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="FN6" s="37"/>
-      <c r="FO6" s="37"/>
-      <c r="FP6" s="37"/>
+      <c r="FN6" s="56"/>
+      <c r="FO6" s="56"/>
+      <c r="FP6" s="56"/>
       <c r="FX6" t="s">
         <v>403</v>
       </c>
@@ -8189,8 +8657,75 @@
       <c r="GX6" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="7" spans="1:209">
+      <c r="HD6" t="s">
+        <v>604</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>625</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>403</v>
+      </c>
+      <c r="HT6" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>635</v>
+      </c>
+      <c r="II6" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="IJ6" s="42"/>
+      <c r="IK6" s="57" t="s">
+        <v>636</v>
+      </c>
+      <c r="IL6" s="57"/>
+      <c r="IM6" s="42"/>
+      <c r="IN6" s="42"/>
+      <c r="IO6" s="42"/>
+      <c r="IP6" s="43"/>
+      <c r="IS6" t="s">
+        <v>644</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>658</v>
+      </c>
+      <c r="JF6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>655</v>
+      </c>
+      <c r="JU6" t="s">
+        <v>18</v>
+      </c>
+      <c r="JV6" s="25">
+        <v>0</v>
+      </c>
+      <c r="JW6" s="25">
+        <v>0</v>
+      </c>
+      <c r="JX6" s="25">
+        <v>0</v>
+      </c>
+      <c r="JY6" s="25">
+        <v>0</v>
+      </c>
+      <c r="JZ6" s="25">
+        <v>0</v>
+      </c>
+      <c r="KA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="KB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="KD6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:292">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8304,10 +8839,10 @@
       <c r="EV7" t="s">
         <v>536</v>
       </c>
-      <c r="FM7" s="37"/>
-      <c r="FN7" s="37"/>
-      <c r="FO7" s="37"/>
-      <c r="FP7" s="37"/>
+      <c r="FM7" s="56"/>
+      <c r="FN7" s="56"/>
+      <c r="FO7" s="56"/>
+      <c r="FP7" s="56"/>
       <c r="FZ7" t="s">
         <v>563</v>
       </c>
@@ -8317,8 +8852,36 @@
       <c r="GV7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="8" spans="1:209">
+      <c r="HJ7" t="s">
+        <v>607</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>630</v>
+      </c>
+      <c r="II7" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="IP7" s="45"/>
+      <c r="IS7" t="s">
+        <v>645</v>
+      </c>
+      <c r="JD7" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="JG7" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="JJ7" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="JN7" t="s">
+        <v>656</v>
+      </c>
+      <c r="KD7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:292">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -8446,8 +9009,88 @@
       <c r="GW8" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="9" spans="1:209">
+      <c r="HK8" t="s">
+        <v>608</v>
+      </c>
+      <c r="HO8" s="25"/>
+      <c r="HP8" s="25"/>
+      <c r="HQ8" s="25"/>
+      <c r="HS8" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT8" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU8" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV8" s="25"/>
+      <c r="HW8" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY8" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="ID8" t="s">
+        <v>634</v>
+      </c>
+      <c r="II8" s="46"/>
+      <c r="IJ8" t="s">
+        <v>440</v>
+      </c>
+      <c r="IK8" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="IL8" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM8" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="IN8" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="IO8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="IP8" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>403</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF8" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG8" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH8" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI8" s="25">
+        <v>1</v>
+      </c>
+      <c r="JJ8" s="25">
+        <v>1</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:292">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -8555,8 +9198,39 @@
       <c r="GX9" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="10" spans="1:209">
+      <c r="HL9" t="s">
+        <v>622</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>404</v>
+      </c>
+      <c r="HU9" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>139</v>
+      </c>
+      <c r="II9" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="IK9" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM9" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="IP9" s="45"/>
+      <c r="IS9" t="s">
+        <v>646</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>660</v>
+      </c>
+      <c r="KF9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:292">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -8628,23 +9302,37 @@
       <c r="GV10" s="32">
         <v>1</v>
       </c>
-      <c r="GW10" s="39">
+      <c r="GW10" s="36">
         <v>4</v>
       </c>
       <c r="GX10" s="32">
         <v>3</v>
       </c>
-      <c r="GY10" s="39">
+      <c r="GY10" s="36">
         <v>5</v>
       </c>
       <c r="GZ10" s="28">
         <v>2</v>
       </c>
-      <c r="HA10" s="39">
+      <c r="HA10" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:209">
+      <c r="HL10" t="s">
+        <v>626</v>
+      </c>
+      <c r="ID10" t="s">
+        <v>636</v>
+      </c>
+      <c r="II10" s="46"/>
+      <c r="IP10" s="45"/>
+      <c r="IT10" t="s">
+        <v>647</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:292">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -8764,8 +9452,67 @@
       <c r="GX11" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="12" spans="1:209">
+      <c r="HK11" t="s">
+        <v>623</v>
+      </c>
+      <c r="HS11" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT11" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU11" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV11" s="25"/>
+      <c r="HW11" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX11" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY11" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="IC11" t="s">
+        <v>631</v>
+      </c>
+      <c r="II11" s="46"/>
+      <c r="IJ11" t="s">
+        <v>440</v>
+      </c>
+      <c r="IK11" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="IL11" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM11" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="IN11" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="IO11" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="IP11" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>648</v>
+      </c>
+      <c r="JH11" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="JI11" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="JJ11" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:292">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -8945,8 +9692,60 @@
       <c r="GX12" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="13" spans="1:209">
+      <c r="HL12" t="s">
+        <v>624</v>
+      </c>
+      <c r="HR12" t="s">
+        <v>409</v>
+      </c>
+      <c r="HV12" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="ID12" t="s">
+        <v>632</v>
+      </c>
+      <c r="II12" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="IL12" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="IP12" s="45"/>
+      <c r="IV12" t="s">
+        <v>649</v>
+      </c>
+      <c r="JB12" t="s">
+        <v>404</v>
+      </c>
+      <c r="JC12" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI12" s="25">
+        <v>1</v>
+      </c>
+      <c r="JJ12" s="25">
+        <v>1</v>
+      </c>
+      <c r="JL12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:292">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -9075,8 +9874,43 @@
       <c r="GH13" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="14" spans="1:209">
+      <c r="HL13" t="s">
+        <v>626</v>
+      </c>
+      <c r="ID13" t="s">
+        <v>633</v>
+      </c>
+      <c r="II13" s="46"/>
+      <c r="IP13" s="45"/>
+      <c r="IW13" t="s">
+        <v>90</v>
+      </c>
+      <c r="JB13" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>652</v>
+      </c>
+      <c r="JU13" t="s">
+        <v>395</v>
+      </c>
+      <c r="JV13" s="25">
+        <v>4</v>
+      </c>
+      <c r="JW13" s="25">
+        <v>3</v>
+      </c>
+      <c r="JX13" s="25">
+        <v>2</v>
+      </c>
+      <c r="JY13" s="25">
+        <v>1</v>
+      </c>
+      <c r="JZ13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:292" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -9172,23 +10006,45 @@
       <c r="GV14" s="28">
         <v>1</v>
       </c>
-      <c r="GW14" s="39">
+      <c r="GW14" s="36">
         <v>4</v>
       </c>
       <c r="GX14" s="28">
         <v>3</v>
       </c>
-      <c r="GY14" s="39">
+      <c r="GY14" s="36">
         <v>5</v>
       </c>
       <c r="GZ14" s="28">
         <v>2</v>
       </c>
-      <c r="HA14" s="39">
+      <c r="HA14" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:209">
+      <c r="HK14" t="s">
+        <v>627</v>
+      </c>
+      <c r="HR14" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="IC14" t="s">
+        <v>547</v>
+      </c>
+      <c r="II14" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="IJ14" s="50"/>
+      <c r="IK14" s="50"/>
+      <c r="IL14" s="50"/>
+      <c r="IM14" s="50"/>
+      <c r="IN14" s="50"/>
+      <c r="IO14" s="50"/>
+      <c r="IP14" s="51"/>
+      <c r="IS14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:292" ht="15" thickBot="1">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -9341,8 +10197,36 @@
       <c r="GY15" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="16" spans="1:209">
+      <c r="HL15" t="s">
+        <v>609</v>
+      </c>
+      <c r="HS15" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT15" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU15" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV15" s="25"/>
+      <c r="HW15" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY15" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="JD15" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="JF15" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:292">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -9478,8 +10362,45 @@
       <c r="GV16" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="17" spans="1:209">
+      <c r="HM16" t="s">
+        <v>610</v>
+      </c>
+      <c r="HR16" t="s">
+        <v>555</v>
+      </c>
+      <c r="HT16" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="HU16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="II16" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="IJ16" s="42"/>
+      <c r="IK16" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="IL16" s="57"/>
+      <c r="IM16" s="58"/>
+      <c r="JC16" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD16" s="25">
+        <v>1</v>
+      </c>
+      <c r="JE16" s="25">
+        <v>1</v>
+      </c>
+      <c r="JF16" s="25">
+        <v>1</v>
+      </c>
+      <c r="JG16" s="25"/>
+      <c r="JH16" s="25"/>
+      <c r="JI16" s="25"/>
+      <c r="JJ16" s="25"/>
+    </row>
+    <row r="17" spans="1:268">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -9597,8 +10518,15 @@
       <c r="GW17" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="18" spans="1:209">
+      <c r="HM17" t="s">
+        <v>611</v>
+      </c>
+      <c r="II17" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="IM17" s="45"/>
+    </row>
+    <row r="18" spans="1:268">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -9766,8 +10694,55 @@
       <c r="GX18" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="19" spans="1:209">
+      <c r="HM18" t="s">
+        <v>612</v>
+      </c>
+      <c r="HS18" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT18" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="HU18" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="HV18" s="25"/>
+      <c r="HW18" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX18" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY18" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="II18" s="46"/>
+      <c r="IJ18" t="s">
+        <v>440</v>
+      </c>
+      <c r="IK18" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="IL18" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM18" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="IN18" s="25"/>
+      <c r="IO18" s="25"/>
+      <c r="IP18" s="25"/>
+      <c r="JD18" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="JE18" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="JF18" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:268">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -9863,23 +10838,62 @@
       <c r="GV19" s="28">
         <v>1</v>
       </c>
-      <c r="GW19" s="40">
+      <c r="GW19" s="37">
         <v>5</v>
       </c>
       <c r="GX19" s="28">
         <v>3</v>
       </c>
-      <c r="GY19" s="40">
+      <c r="GY19" s="37">
         <v>4</v>
       </c>
       <c r="GZ19" s="28">
         <v>2</v>
       </c>
-      <c r="HA19" s="39">
+      <c r="HA19" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:209">
+      <c r="HL19" t="s">
+        <v>613</v>
+      </c>
+      <c r="HR19" t="s">
+        <v>557</v>
+      </c>
+      <c r="HT19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="HU19" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="II19" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="IK19" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM19" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="JC19" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD19" s="25">
+        <v>1</v>
+      </c>
+      <c r="JE19" s="25">
+        <v>1</v>
+      </c>
+      <c r="JF19" s="25">
+        <v>1</v>
+      </c>
+      <c r="JG19" t="s">
+        <v>403</v>
+      </c>
+      <c r="JH19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:268">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -9967,8 +10981,16 @@
       <c r="GY20" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="21" spans="1:209">
+      <c r="HL20" t="s">
+        <v>628</v>
+      </c>
+      <c r="II20" s="46"/>
+      <c r="IM20" s="45"/>
+      <c r="JH20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:268">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -10078,8 +11100,46 @@
       <c r="GX21" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="22" spans="1:209">
+      <c r="HJ21" t="s">
+        <v>547</v>
+      </c>
+      <c r="HS21" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT21" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="HU21" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="HV21" s="25"/>
+      <c r="HW21" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY21" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="II21" s="46"/>
+      <c r="IJ21" t="s">
+        <v>440</v>
+      </c>
+      <c r="IK21" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="IL21" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM21" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="JH21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:268">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -10222,8 +11282,24 @@
       <c r="GK22" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="23" spans="1:209">
+      <c r="HR22" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="HT22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="HW22" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="II22" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="IL22" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="IM22" s="45"/>
+    </row>
+    <row r="23" spans="1:268">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -10327,23 +11403,25 @@
       <c r="GV23" s="28">
         <v>1</v>
       </c>
-      <c r="GW23" s="39">
+      <c r="GW23" s="36">
         <v>5</v>
       </c>
       <c r="GX23" s="28">
         <v>3</v>
       </c>
-      <c r="GY23" s="39">
+      <c r="GY23" s="36">
         <v>4</v>
       </c>
       <c r="GZ23" s="28">
         <v>2</v>
       </c>
-      <c r="HA23" s="39">
+      <c r="HA23" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:209">
+      <c r="II23" s="46"/>
+      <c r="IM23" s="45"/>
+    </row>
+    <row r="24" spans="1:268" ht="15" thickBot="1">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10434,8 +11512,34 @@
       <c r="GZ24" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="25" spans="1:209">
+      <c r="HS24" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT24" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU24" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV24" s="25"/>
+      <c r="HW24" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY24" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="II24" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="IJ24" s="50"/>
+      <c r="IK24" s="50"/>
+      <c r="IL24" s="50"/>
+      <c r="IM24" s="51"/>
+    </row>
+    <row r="25" spans="1:268">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -10516,8 +11620,14 @@
       <c r="GV25" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="26" spans="1:209">
+      <c r="HR25" t="s">
+        <v>412</v>
+      </c>
+      <c r="HW25" s="39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:268">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -10591,7 +11701,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:209">
+    <row r="27" spans="1:268">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -10681,8 +11791,27 @@
       <c r="GX27" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="28" spans="1:209">
+      <c r="HS27" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT27" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU27" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV27" s="25"/>
+      <c r="HW27" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX27" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY27" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:268">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -10740,23 +11869,29 @@
       <c r="GV28" s="28">
         <v>1</v>
       </c>
-      <c r="GW28" s="39">
+      <c r="GW28" s="36">
         <v>5</v>
       </c>
       <c r="GX28" s="32">
         <v>2</v>
       </c>
-      <c r="GY28" s="39">
+      <c r="GY28" s="36">
         <v>4</v>
       </c>
       <c r="GZ28" s="32">
         <v>3</v>
       </c>
-      <c r="HA28" s="39">
+      <c r="HA28" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:209">
+      <c r="HR28" t="s">
+        <v>412</v>
+      </c>
+      <c r="HX28" s="39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:268">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -10795,7 +11930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:209">
+    <row r="30" spans="1:268">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
@@ -10838,8 +11973,27 @@
       <c r="GX30" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="31" spans="1:209">
+      <c r="HS30" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT30" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU30" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV30" s="25"/>
+      <c r="HW30" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX30" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY30" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:268">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
@@ -10899,8 +12053,14 @@
       <c r="GX31" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="32" spans="1:209">
+      <c r="HR31" t="s">
+        <v>412</v>
+      </c>
+      <c r="HY31" s="39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:268">
       <c r="BC32" t="s">
         <v>375</v>
       </c>
@@ -10920,7 +12080,7 @@
       <c r="EO32" s="5"/>
       <c r="EP32" s="5"/>
     </row>
-    <row r="33" spans="53:209">
+    <row r="33" spans="53:233">
       <c r="BA33" t="s">
         <v>380</v>
       </c>
@@ -10933,23 +12093,26 @@
       <c r="GV33" s="28">
         <v>1</v>
       </c>
-      <c r="GW33" s="39">
+      <c r="GW33" s="36">
         <v>5</v>
       </c>
       <c r="GX33" s="28">
         <v>2</v>
       </c>
-      <c r="GY33" s="39">
+      <c r="GY33" s="36">
         <v>4</v>
       </c>
       <c r="GZ33" s="28">
         <v>3</v>
       </c>
-      <c r="HA33" s="39">
+      <c r="HA33" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="53:209">
+      <c r="HR33" s="34" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="53:233">
       <c r="BB34" t="s">
         <v>378</v>
       </c>
@@ -10994,8 +12157,27 @@
       <c r="HA34" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="35" spans="53:209">
+      <c r="HS34" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT34" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU34" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV34" s="25"/>
+      <c r="HW34" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="HX34" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY34" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="53:233">
       <c r="BB35" t="s">
         <v>381</v>
       </c>
@@ -11038,8 +12220,17 @@
       <c r="GV35" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="36" spans="53:209">
+      <c r="HR35" t="s">
+        <v>555</v>
+      </c>
+      <c r="HW35" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="HY35" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="53:233">
       <c r="BC36" t="s">
         <v>382</v>
       </c>
@@ -11057,7 +12248,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="37" spans="53:209">
+    <row r="37" spans="53:233">
       <c r="DZ37" s="27" t="s">
         <v>55</v>
       </c>
@@ -11088,8 +12279,27 @@
       <c r="GX37" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="38" spans="53:209">
+      <c r="HS37" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT37" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU37" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV37" s="25"/>
+      <c r="HW37" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="HX37" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY37" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="53:233">
       <c r="DW38" s="21" t="s">
         <v>524</v>
       </c>
@@ -11125,23 +12335,29 @@
       <c r="GV38" s="28">
         <v>1</v>
       </c>
-      <c r="GW38" s="39">
+      <c r="GW38" s="36">
         <v>5</v>
       </c>
       <c r="GX38" s="28">
         <v>2</v>
       </c>
-      <c r="GY38" s="40">
+      <c r="GY38" s="37">
         <v>6</v>
       </c>
       <c r="GZ38" s="28">
         <v>3</v>
       </c>
-      <c r="HA38" s="40">
+      <c r="HA38" s="37">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="53:209">
+      <c r="HR38" t="s">
+        <v>557</v>
+      </c>
+      <c r="HX38" s="27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="53:233">
       <c r="DY39" s="28" t="s">
         <v>525</v>
       </c>
@@ -11163,15 +12379,34 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="53:209">
+    <row r="40" spans="53:233">
       <c r="EM40" s="27" t="s">
         <v>55</v>
       </c>
       <c r="GX40" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="41" spans="53:209">
+      <c r="HS40" t="s">
+        <v>440</v>
+      </c>
+      <c r="HT40" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="HU40" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="HV40" s="25"/>
+      <c r="HW40" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="HX40" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="HY40" s="25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="53:233">
       <c r="DW41" s="25" t="s">
         <v>441</v>
       </c>
@@ -11207,8 +12442,11 @@
       <c r="GY41" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="42" spans="53:209">
+      <c r="HR41" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="42" spans="53:233">
       <c r="DW42" s="26">
         <v>1</v>
       </c>
@@ -11251,23 +12489,23 @@
       <c r="GV42" s="28">
         <v>1</v>
       </c>
-      <c r="GW42" s="40">
+      <c r="GW42" s="37">
         <v>6</v>
       </c>
       <c r="GX42" s="28">
         <v>2</v>
       </c>
-      <c r="GY42" s="40">
+      <c r="GY42" s="37">
         <v>5</v>
       </c>
       <c r="GZ42" s="28">
         <v>3</v>
       </c>
-      <c r="HA42" s="39">
+      <c r="HA42" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="53:209">
+    <row r="43" spans="53:233">
       <c r="DZ43" s="27" t="s">
         <v>517</v>
       </c>
@@ -11285,8 +12523,11 @@
       <c r="HA43" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="44" spans="53:209">
+      <c r="HR43" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="53:233">
       <c r="DZ44" s="27" t="s">
         <v>55</v>
       </c>
@@ -11318,7 +12559,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="53:209">
+    <row r="45" spans="53:233">
       <c r="DW45" s="21" t="s">
         <v>522</v>
       </c>
@@ -11352,7 +12593,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="53:209">
+    <row r="46" spans="53:233">
       <c r="DZ46" s="28" t="s">
         <v>525</v>
       </c>
@@ -11368,7 +12609,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="53:209">
+    <row r="48" spans="53:233">
       <c r="DW48" s="25" t="s">
         <v>441</v>
       </c>
@@ -11930,8 +13171,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="FM6:FP7"/>
+    <mergeCell ref="IK6:IL6"/>
+    <mergeCell ref="IK16:IM16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7A992-1DC5-469D-8F81-09E9362456B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED74787-2D58-434C-AF06-FCCD44E327E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="685">
   <si>
     <t>*</t>
   </si>
@@ -2530,6 +2530,57 @@
   </si>
   <si>
     <t>if(n[i]&lt;m[j])</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;==</t>
+  </si>
+  <si>
+    <t>i+(k-1) ==&gt; 0 + (2-1) ==&gt; 0 + 1 ==&gt; 1</t>
+  </si>
+  <si>
+    <t>j-I == 1</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>num = 0</t>
+  </si>
+  <si>
+    <t>num = num + n[i]X10 ==&gt; 4 X 10 ==&gt; 40</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>x = s.split(" ")</t>
+  </si>
+  <si>
+    <t>a = x[i](x[i].len -1)</t>
+  </si>
+  <si>
+    <t>b = x[i].substring(0,x[i]len-1)</t>
+  </si>
+  <si>
+    <t>map.put(a, b)</t>
+  </si>
+  <si>
+    <t>s = map.get(1)</t>
+  </si>
+  <si>
+    <t>s = I Me MySelf And</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -2717,7 +2768,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2763,6 +2814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2875,7 +2932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2994,6 +3051,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8140,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:KF90"/>
+  <dimension ref="A1:LE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="KC13" sqref="KC13"/>
+    <sheetView tabSelected="1" topLeftCell="JO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="KW13" sqref="KW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8188,15 +8251,42 @@
     <col min="243" max="250" width="3.77734375" customWidth="1"/>
     <col min="251" max="251" width="1.6640625" customWidth="1"/>
     <col min="252" max="252" width="7.5546875" customWidth="1"/>
-    <col min="253" max="306" width="3.77734375" customWidth="1"/>
+    <col min="253" max="340" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:292">
+    <row r="1" spans="1:317">
       <c r="A1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:292">
+      <c r="KM1" s="5">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="5">
+        <v>1</v>
+      </c>
+      <c r="KO1" s="5">
+        <v>2</v>
+      </c>
+      <c r="KP1" s="5">
+        <v>3</v>
+      </c>
+      <c r="KQ1" s="5">
+        <v>4</v>
+      </c>
+      <c r="KR1" s="5">
+        <v>5</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>55</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>668</v>
+      </c>
+      <c r="KV1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:317">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -8216,8 +8306,32 @@
       <c r="JM2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="3" spans="1:292" ht="16.8">
+      <c r="KM2" s="59">
+        <v>4</v>
+      </c>
+      <c r="KN2" s="59">
+        <v>3</v>
+      </c>
+      <c r="KO2" s="59">
+        <v>0</v>
+      </c>
+      <c r="KP2" s="59">
+        <v>0</v>
+      </c>
+      <c r="KQ2" s="59">
+        <v>4</v>
+      </c>
+      <c r="KR2" s="59">
+        <v>3</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>669</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:317" ht="16.8">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -8333,8 +8447,23 @@
       <c r="JZ3" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:292">
+      <c r="KM3" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="KN3" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="KT3" t="s">
+        <v>551</v>
+      </c>
+      <c r="KU3" t="s">
+        <v>668</v>
+      </c>
+      <c r="KV3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:317">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -8454,8 +8583,17 @@
       <c r="JX4" s="25"/>
       <c r="JY4" s="25"/>
       <c r="JZ4" s="25"/>
-    </row>
-    <row r="5" spans="1:292" ht="15" thickBot="1">
+      <c r="KT4" t="s">
+        <v>517</v>
+      </c>
+      <c r="KU4" t="s">
+        <v>668</v>
+      </c>
+      <c r="KV4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:317" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8572,8 +8710,11 @@
       <c r="JN5" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="6" spans="1:292" ht="14.4" customHeight="1">
+      <c r="KT5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:317" ht="14.4" customHeight="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -8724,8 +8865,14 @@
       <c r="KD6" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="7" spans="1:292">
+      <c r="KT6" t="s">
+        <v>671</v>
+      </c>
+      <c r="KV6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:317">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8880,8 +9027,11 @@
       <c r="KD7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:292">
+      <c r="KT7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:317">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -9090,7 +9240,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:292">
+    <row r="9" spans="1:317">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -9229,8 +9379,65 @@
       <c r="KF9" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="10" spans="1:292">
+      <c r="KM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="5">
+        <v>1</v>
+      </c>
+      <c r="KO9" s="5">
+        <v>2</v>
+      </c>
+      <c r="KP9" s="5">
+        <v>3</v>
+      </c>
+      <c r="KQ9" s="5">
+        <v>4</v>
+      </c>
+      <c r="KR9" s="5">
+        <v>5</v>
+      </c>
+      <c r="KS9" s="5">
+        <v>6</v>
+      </c>
+      <c r="KT9" s="5">
+        <v>7</v>
+      </c>
+      <c r="KU9" s="5">
+        <v>8</v>
+      </c>
+      <c r="KV9" s="5">
+        <v>9</v>
+      </c>
+      <c r="KW9" s="5">
+        <v>10</v>
+      </c>
+      <c r="KX9" s="5">
+        <v>11</v>
+      </c>
+      <c r="KY9" s="5">
+        <v>12</v>
+      </c>
+      <c r="KZ9" s="5">
+        <v>13</v>
+      </c>
+      <c r="LA9" s="5">
+        <v>14</v>
+      </c>
+      <c r="LB9" s="5">
+        <v>15</v>
+      </c>
+      <c r="LC9" s="5">
+        <v>16</v>
+      </c>
+      <c r="LD9" s="5">
+        <v>17</v>
+      </c>
+      <c r="LE9" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:317">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -9331,8 +9538,65 @@
       <c r="JC10" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="11" spans="1:292">
+      <c r="KK10" t="s">
+        <v>440</v>
+      </c>
+      <c r="KL10" t="s">
+        <v>668</v>
+      </c>
+      <c r="KM10" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="KN10" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="KO10" s="59">
+        <v>2</v>
+      </c>
+      <c r="KP10" s="60"/>
+      <c r="KQ10" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="KR10" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="KS10" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="KT10" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="KU10" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="KV10" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="KW10" s="59">
+        <v>3</v>
+      </c>
+      <c r="KX10" s="60"/>
+      <c r="KY10" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="KZ10" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="LA10" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="LB10" s="59">
+        <v>4</v>
+      </c>
+      <c r="LC10" s="60"/>
+      <c r="LD10" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="LE10" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:317">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -9511,8 +9775,11 @@
       <c r="JJ11" s="39" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="12" spans="1:292">
+      <c r="KK11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:317">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -9744,8 +10011,14 @@
       <c r="JL12" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="13" spans="1:292">
+      <c r="KK12" t="s">
+        <v>678</v>
+      </c>
+      <c r="KS12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:317">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -9909,8 +10182,17 @@
       <c r="JZ13" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:292" ht="15" thickBot="1">
+      <c r="KK13" t="s">
+        <v>679</v>
+      </c>
+      <c r="KS13" t="s">
+        <v>55</v>
+      </c>
+      <c r="KT13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:317" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -10043,8 +10325,17 @@
       <c r="IS14" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="15" spans="1:292" ht="15" thickBot="1">
+      <c r="KK14" t="s">
+        <v>680</v>
+      </c>
+      <c r="KS14">
+        <v>1</v>
+      </c>
+      <c r="KT14" s="59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:317" ht="15" thickBot="1">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -10225,8 +10516,20 @@
       <c r="JF15" s="39" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="16" spans="1:292">
+      <c r="KK15" t="s">
+        <v>681</v>
+      </c>
+      <c r="KS15">
+        <v>2</v>
+      </c>
+      <c r="KT15" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="KU15" s="59" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:317">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -10399,8 +10702,32 @@
       <c r="JH16" s="25"/>
       <c r="JI16" s="25"/>
       <c r="JJ16" s="25"/>
-    </row>
-    <row r="17" spans="1:268">
+      <c r="KK16" t="s">
+        <v>682</v>
+      </c>
+      <c r="KS16">
+        <v>3</v>
+      </c>
+      <c r="KT16" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="KU16" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="KV16" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="KW16" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="KX16" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="KY16" s="59" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:308">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -10525,8 +10852,20 @@
         <v>614</v>
       </c>
       <c r="IM17" s="45"/>
-    </row>
-    <row r="18" spans="1:268">
+      <c r="KS17">
+        <v>4</v>
+      </c>
+      <c r="KT17" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="KU17" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="KV17" s="59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:308">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -10742,7 +11081,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:268">
+    <row r="19" spans="1:308">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -10893,7 +11232,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:268">
+    <row r="20" spans="1:308">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -10990,7 +11329,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:268">
+    <row r="21" spans="1:308">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -11139,7 +11478,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="22" spans="1:268">
+    <row r="22" spans="1:308">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -11299,7 +11638,7 @@
       </c>
       <c r="IM22" s="45"/>
     </row>
-    <row r="23" spans="1:268">
+    <row r="23" spans="1:308">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -11421,7 +11760,7 @@
       <c r="II23" s="46"/>
       <c r="IM23" s="45"/>
     </row>
-    <row r="24" spans="1:268" ht="15" thickBot="1">
+    <row r="24" spans="1:308" ht="15" thickBot="1">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11539,7 +11878,7 @@
       <c r="IL24" s="50"/>
       <c r="IM24" s="51"/>
     </row>
-    <row r="25" spans="1:268">
+    <row r="25" spans="1:308">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -11627,7 +11966,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:268">
+    <row r="26" spans="1:308">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -11701,7 +12040,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:268">
+    <row r="27" spans="1:308">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -11811,7 +12150,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:268">
+    <row r="28" spans="1:308">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -11891,7 +12230,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:268">
+    <row r="29" spans="1:308">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -11930,7 +12269,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:268">
+    <row r="30" spans="1:308">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
@@ -11993,7 +12332,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:268">
+    <row r="31" spans="1:308">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
@@ -12060,7 +12399,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="32" spans="1:268">
+    <row r="32" spans="1:308">
       <c r="BC32" t="s">
         <v>375</v>
       </c>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED74787-2D58-434C-AF06-FCCD44E327E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28135EE5-7246-40D2-92F0-0154AE56F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="707">
   <si>
     <t>*</t>
   </si>
@@ -2581,6 +2581,72 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>[4, 2]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[4-3], [2,3]</t>
+  </si>
+  <si>
+    <t>LC 219. Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>if (n[i] == n[j])</t>
+  </si>
+  <si>
+    <t>if((i-j) &lt;= k)</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>1==2 ==&gt; j++</t>
+  </si>
+  <si>
+    <t>1==1 ==&gt; (2-0) &lt;= 3 ==&gt; true</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>1==0 ==&gt; j++</t>
+  </si>
+  <si>
+    <t>0==2 ==&gt; j++</t>
+  </si>
+  <si>
+    <t>1==2 ==&gt; j==(k-i) ==&gt; i++</t>
+  </si>
+  <si>
+    <t>0==3 ==&gt; j==(k-i) ==&gt; i++</t>
+  </si>
+  <si>
+    <t>2==3 ==&gt; j++</t>
+  </si>
+  <si>
+    <t>2==2 ==&gt; (4-2) &lt;= 2 ==&gt; true</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2834,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2823,8 +2889,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2927,12 +2999,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3037,6 +3146,16 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3052,12 +3171,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5293,11 +5417,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -6616,21 +6740,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -6700,17 +6824,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -8203,10 +8327,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:LE90"/>
+  <dimension ref="A1:MB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="KW13" sqref="KW13"/>
+    <sheetView tabSelected="1" topLeftCell="KT10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="MC31" sqref="MC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8251,10 +8375,14 @@
     <col min="243" max="250" width="3.77734375" customWidth="1"/>
     <col min="251" max="251" width="1.6640625" customWidth="1"/>
     <col min="252" max="252" width="7.5546875" customWidth="1"/>
-    <col min="253" max="340" width="3.77734375" customWidth="1"/>
+    <col min="253" max="329" width="3.77734375" customWidth="1"/>
+    <col min="330" max="330" width="1.6640625" customWidth="1"/>
+    <col min="331" max="335" width="3.77734375" customWidth="1"/>
+    <col min="336" max="336" width="3.21875" customWidth="1"/>
+    <col min="337" max="353" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:317">
+    <row r="1" spans="1:340">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -8285,8 +8413,9 @@
       <c r="KV1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:317">
+      <c r="LR1" s="65"/>
+    </row>
+    <row r="2" spans="1:340">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -8306,22 +8435,22 @@
       <c r="JM2" t="s">
         <v>651</v>
       </c>
-      <c r="KM2" s="59">
+      <c r="KM2" s="54">
         <v>4</v>
       </c>
-      <c r="KN2" s="59">
+      <c r="KN2" s="54">
         <v>3</v>
       </c>
-      <c r="KO2" s="59">
+      <c r="KO2" s="54">
         <v>0</v>
       </c>
-      <c r="KP2" s="59">
+      <c r="KP2" s="54">
         <v>0</v>
       </c>
-      <c r="KQ2" s="59">
+      <c r="KQ2" s="54">
         <v>4</v>
       </c>
-      <c r="KR2" s="59">
+      <c r="KR2" s="54">
         <v>3</v>
       </c>
       <c r="KT2" t="s">
@@ -8330,8 +8459,12 @@
       <c r="KU2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="3" spans="1:317" ht="16.8">
+      <c r="LR2" s="65"/>
+      <c r="LT2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:340" ht="17.399999999999999" thickBot="1">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -8462,8 +8595,21 @@
       <c r="KV3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:317">
+      <c r="LK3">
+        <v>4</v>
+      </c>
+      <c r="LL3">
+        <v>2</v>
+      </c>
+      <c r="LM3">
+        <v>3</v>
+      </c>
+      <c r="LN3">
+        <v>1</v>
+      </c>
+      <c r="LR3" s="65"/>
+    </row>
+    <row r="4" spans="1:340">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -8592,8 +8738,22 @@
       <c r="KV4" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="5" spans="1:317" ht="15" thickBot="1">
+      <c r="LK4" t="s">
+        <v>551</v>
+      </c>
+      <c r="LL4" t="s">
+        <v>517</v>
+      </c>
+      <c r="LR4" s="65"/>
+      <c r="LT4" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="LU4" s="67"/>
+      <c r="LV4" s="67"/>
+      <c r="LW4" s="67"/>
+      <c r="LX4" s="68"/>
+    </row>
+    <row r="5" spans="1:340" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8713,8 +8873,25 @@
       <c r="KT5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="6" spans="1:317" ht="14.4" customHeight="1">
+      <c r="LK5" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="LL5">
+        <v>2</v>
+      </c>
+      <c r="LN5" t="s">
+        <v>683</v>
+      </c>
+      <c r="LR5" s="65"/>
+      <c r="LT5" s="69"/>
+      <c r="LU5" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="LV5" s="70"/>
+      <c r="LW5" s="70"/>
+      <c r="LX5" s="71"/>
+    </row>
+    <row r="6" spans="1:340" ht="14.4" customHeight="1" thickBot="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -8771,12 +8948,12 @@
       <c r="FE6" t="s">
         <v>552</v>
       </c>
-      <c r="FM6" s="56" t="s">
+      <c r="FM6" s="62" t="s">
         <v>560</v>
       </c>
-      <c r="FN6" s="56"/>
-      <c r="FO6" s="56"/>
-      <c r="FP6" s="56"/>
+      <c r="FN6" s="62"/>
+      <c r="FO6" s="62"/>
+      <c r="FP6" s="62"/>
       <c r="FX6" t="s">
         <v>403</v>
       </c>
@@ -8817,10 +8994,10 @@
         <v>638</v>
       </c>
       <c r="IJ6" s="42"/>
-      <c r="IK6" s="57" t="s">
+      <c r="IK6" s="63" t="s">
         <v>636</v>
       </c>
-      <c r="IL6" s="57"/>
+      <c r="IL6" s="63"/>
       <c r="IM6" s="42"/>
       <c r="IN6" s="42"/>
       <c r="IO6" s="42"/>
@@ -8871,8 +9048,28 @@
       <c r="KV6" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="7" spans="1:317">
+      <c r="LK6" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="LL6">
+        <v>1</v>
+      </c>
+      <c r="LN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="LO6" t="s">
+        <v>688</v>
+      </c>
+      <c r="LR6" s="65"/>
+      <c r="LT6" s="72"/>
+      <c r="LU6" s="73"/>
+      <c r="LV6" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="LW6" s="73"/>
+      <c r="LX6" s="74"/>
+    </row>
+    <row r="7" spans="1:340">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8986,10 +9183,10 @@
       <c r="EV7" t="s">
         <v>536</v>
       </c>
-      <c r="FM7" s="56"/>
-      <c r="FN7" s="56"/>
-      <c r="FO7" s="56"/>
-      <c r="FP7" s="56"/>
+      <c r="FM7" s="62"/>
+      <c r="FN7" s="62"/>
+      <c r="FO7" s="62"/>
+      <c r="FP7" s="62"/>
       <c r="FZ7" t="s">
         <v>563</v>
       </c>
@@ -9030,8 +9227,21 @@
       <c r="KT7" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="8" spans="1:317">
+      <c r="LK7" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="LL7">
+        <v>3</v>
+      </c>
+      <c r="LN7">
+        <v>2</v>
+      </c>
+      <c r="LO7" t="s">
+        <v>689</v>
+      </c>
+      <c r="LR7" s="65"/>
+    </row>
+    <row r="8" spans="1:340">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -9239,8 +9449,21 @@
       <c r="KE8" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="9" spans="1:317">
+      <c r="LN8">
+        <v>1</v>
+      </c>
+      <c r="LO8" t="s">
+        <v>691</v>
+      </c>
+      <c r="LR8" s="65"/>
+      <c r="LT8" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="LU8" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:340">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -9436,8 +9659,39 @@
       <c r="LE9" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:317">
+      <c r="LN9">
+        <v>3</v>
+      </c>
+      <c r="LO9" t="s">
+        <v>690</v>
+      </c>
+      <c r="LR9" s="65"/>
+      <c r="LU9" t="s">
+        <v>695</v>
+      </c>
+      <c r="LV9">
+        <v>1</v>
+      </c>
+      <c r="LW9">
+        <v>2</v>
+      </c>
+      <c r="LX9">
+        <v>1</v>
+      </c>
+      <c r="LY9">
+        <v>3</v>
+      </c>
+      <c r="LZ9">
+        <v>2</v>
+      </c>
+      <c r="MA9">
+        <v>3</v>
+      </c>
+      <c r="MB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:340">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -9544,59 +9798,66 @@
       <c r="KL10" t="s">
         <v>668</v>
       </c>
-      <c r="KM10" s="59" t="s">
+      <c r="KM10" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="KN10" s="59" t="s">
+      <c r="KN10" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="KO10" s="59">
+      <c r="KO10" s="54">
         <v>2</v>
       </c>
-      <c r="KP10" s="60"/>
-      <c r="KQ10" s="59" t="s">
+      <c r="KP10" s="55"/>
+      <c r="KQ10" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="KR10" s="59" t="s">
+      <c r="KR10" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="KS10" s="59" t="s">
+      <c r="KS10" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="KT10" s="59" t="s">
+      <c r="KT10" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="KU10" s="59" t="s">
+      <c r="KU10" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="KV10" s="59" t="s">
+      <c r="KV10" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="KW10" s="59">
+      <c r="KW10" s="54">
         <v>3</v>
       </c>
-      <c r="KX10" s="60"/>
-      <c r="KY10" s="59" t="s">
+      <c r="KX10" s="55"/>
+      <c r="KY10" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="KZ10" s="59" t="s">
+      <c r="KZ10" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="LA10" s="59" t="s">
+      <c r="LA10" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="LB10" s="59">
+      <c r="LB10" s="54">
         <v>4</v>
       </c>
-      <c r="LC10" s="60"/>
-      <c r="LD10" s="59" t="s">
+      <c r="LC10" s="55"/>
+      <c r="LD10" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="LE10" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:317">
+      <c r="LE10" s="54">
+        <v>1</v>
+      </c>
+      <c r="LR10" s="65"/>
+      <c r="LV10" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LW10" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:340">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -9778,8 +10039,15 @@
       <c r="KK11" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="12" spans="1:317">
+      <c r="LR11" s="65"/>
+      <c r="LT11" t="s">
+        <v>403</v>
+      </c>
+      <c r="LU11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:340" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -10017,8 +10285,33 @@
       <c r="KS12" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="13" spans="1:317">
+      <c r="LR12" s="65"/>
+      <c r="LU12" t="s">
+        <v>695</v>
+      </c>
+      <c r="LV12">
+        <v>1</v>
+      </c>
+      <c r="LW12">
+        <v>2</v>
+      </c>
+      <c r="LX12">
+        <v>1</v>
+      </c>
+      <c r="LY12">
+        <v>3</v>
+      </c>
+      <c r="LZ12">
+        <v>2</v>
+      </c>
+      <c r="MA12">
+        <v>3</v>
+      </c>
+      <c r="MB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:340" ht="15" thickBot="1">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -10191,8 +10484,42 @@
       <c r="KT13" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="14" spans="1:317" ht="15" thickBot="1">
+      <c r="LH13" t="s">
+        <v>395</v>
+      </c>
+      <c r="LI13" t="s">
+        <v>668</v>
+      </c>
+      <c r="LJ13" s="57">
+        <v>10</v>
+      </c>
+      <c r="LK13" s="58">
+        <v>11</v>
+      </c>
+      <c r="LL13" s="59">
+        <v>15</v>
+      </c>
+      <c r="LM13">
+        <v>9</v>
+      </c>
+      <c r="LN13">
+        <v>8</v>
+      </c>
+      <c r="LO13">
+        <v>1</v>
+      </c>
+      <c r="LP13">
+        <v>13</v>
+      </c>
+      <c r="LR13" s="65"/>
+      <c r="LV13" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LX13" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:340" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -10331,11 +10658,33 @@
       <c r="KS14">
         <v>1</v>
       </c>
-      <c r="KT14" s="59" t="s">
+      <c r="KT14" s="54" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="15" spans="1:317" ht="15" thickBot="1">
+      <c r="LG14" t="s">
+        <v>55</v>
+      </c>
+      <c r="LH14" t="s">
+        <v>668</v>
+      </c>
+      <c r="LI14">
+        <v>3</v>
+      </c>
+      <c r="LR14" s="65"/>
+      <c r="LT14" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="LU14" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="LV14" s="75"/>
+      <c r="LW14" s="75"/>
+      <c r="LX14" s="75"/>
+      <c r="LY14" s="75"/>
+      <c r="LZ14" s="75"/>
+      <c r="MA14" s="75"/>
+    </row>
+    <row r="15" spans="1:340" ht="15" thickBot="1">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -10522,14 +10871,21 @@
       <c r="KS15">
         <v>2</v>
       </c>
-      <c r="KT15" s="59" t="s">
+      <c r="KT15" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="KU15" s="59" t="s">
+      <c r="KU15" s="54" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="16" spans="1:317">
+      <c r="LJ15">
+        <v>5</v>
+      </c>
+      <c r="LR15" s="65"/>
+      <c r="LT15" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:340">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -10681,11 +11037,11 @@
         <v>640</v>
       </c>
       <c r="IJ16" s="42"/>
-      <c r="IK16" s="57" t="s">
+      <c r="IK16" s="63" t="s">
         <v>641</v>
       </c>
-      <c r="IL16" s="57"/>
-      <c r="IM16" s="58"/>
+      <c r="IL16" s="63"/>
+      <c r="IM16" s="64"/>
       <c r="JC16" t="s">
         <v>395</v>
       </c>
@@ -10708,26 +11064,33 @@
       <c r="KS16">
         <v>3</v>
       </c>
-      <c r="KT16" s="59" t="s">
+      <c r="KT16" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="KU16" s="59" t="s">
+      <c r="KU16" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="KV16" s="59" t="s">
+      <c r="KV16" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="KW16" s="59" t="s">
+      <c r="KW16" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="KX16" s="59" t="s">
+      <c r="KX16" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="KY16" s="59" t="s">
+      <c r="KY16" s="54" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="17" spans="1:308">
+      <c r="LR16" s="65"/>
+      <c r="LT16" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="LU16" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:338">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -10855,17 +11218,36 @@
       <c r="KS17">
         <v>4</v>
       </c>
-      <c r="KT17" s="59" t="s">
+      <c r="KT17" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="KU17" s="59" t="s">
+      <c r="KU17" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="KV17" s="59" t="s">
+      <c r="KV17" s="54" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="18" spans="1:308">
+      <c r="LR17" s="65"/>
+      <c r="LU17" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV17">
+        <v>1</v>
+      </c>
+      <c r="LW17">
+        <v>0</v>
+      </c>
+      <c r="LX17">
+        <v>2</v>
+      </c>
+      <c r="LY17">
+        <v>3</v>
+      </c>
+      <c r="LZ17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:338">
       <c r="B18" t="s">
         <v>221</v>
       </c>
@@ -11080,8 +11462,15 @@
       <c r="JF18" s="39" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="19" spans="1:308">
+      <c r="LR18" s="65"/>
+      <c r="LV18" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LW18" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:338">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -11231,8 +11620,15 @@
       <c r="JH19" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="20" spans="1:308">
+      <c r="LR19" s="65"/>
+      <c r="LT19" t="s">
+        <v>403</v>
+      </c>
+      <c r="LU19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:338">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -11328,8 +11724,27 @@
       <c r="JH20" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="21" spans="1:308">
+      <c r="LR20" s="65"/>
+      <c r="LU20" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV20">
+        <v>1</v>
+      </c>
+      <c r="LW20">
+        <v>0</v>
+      </c>
+      <c r="LX20">
+        <v>2</v>
+      </c>
+      <c r="LY20">
+        <v>3</v>
+      </c>
+      <c r="LZ20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:338">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -11477,8 +11892,15 @@
       <c r="JH21" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="22" spans="1:308">
+      <c r="LR21" s="65"/>
+      <c r="LV21" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LX21" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:338">
       <c r="B22" t="s">
         <v>224</v>
       </c>
@@ -11637,8 +12059,15 @@
         <v>639</v>
       </c>
       <c r="IM22" s="45"/>
-    </row>
-    <row r="23" spans="1:308">
+      <c r="LR22" s="65"/>
+      <c r="LT22" t="s">
+        <v>404</v>
+      </c>
+      <c r="LU22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:338">
       <c r="C23" t="s">
         <v>226</v>
       </c>
@@ -11759,8 +12188,27 @@
       </c>
       <c r="II23" s="46"/>
       <c r="IM23" s="45"/>
-    </row>
-    <row r="24" spans="1:308" ht="15" thickBot="1">
+      <c r="LR23" s="65"/>
+      <c r="LU23" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV23">
+        <v>1</v>
+      </c>
+      <c r="LW23">
+        <v>0</v>
+      </c>
+      <c r="LX23">
+        <v>2</v>
+      </c>
+      <c r="LY23">
+        <v>3</v>
+      </c>
+      <c r="LZ23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:338" ht="15" thickBot="1">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11877,8 +12325,15 @@
       <c r="IK24" s="50"/>
       <c r="IL24" s="50"/>
       <c r="IM24" s="51"/>
-    </row>
-    <row r="25" spans="1:308">
+      <c r="LR24" s="65"/>
+      <c r="LW24" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LX24" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:338">
       <c r="AA25">
         <v>0</v>
       </c>
@@ -11965,8 +12420,15 @@
       <c r="HW25" s="39" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="26" spans="1:308">
+      <c r="LR25" s="65"/>
+      <c r="LT25" t="s">
+        <v>409</v>
+      </c>
+      <c r="LU25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:338">
       <c r="AB26" t="s">
         <v>338</v>
       </c>
@@ -12039,8 +12501,27 @@
       <c r="GW26" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="27" spans="1:308">
+      <c r="LR26" s="65"/>
+      <c r="LU26" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV26">
+        <v>1</v>
+      </c>
+      <c r="LW26">
+        <v>0</v>
+      </c>
+      <c r="LX26">
+        <v>2</v>
+      </c>
+      <c r="LY26">
+        <v>3</v>
+      </c>
+      <c r="LZ26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:338">
       <c r="AA27" t="s">
         <v>345</v>
       </c>
@@ -12149,8 +12630,15 @@
       <c r="HY27" s="25" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="28" spans="1:308">
+      <c r="LR27" s="65"/>
+      <c r="LW27" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LY27" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:338">
       <c r="BB28" t="s">
         <v>389</v>
       </c>
@@ -12229,8 +12717,15 @@
       <c r="HX28" s="39" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="29" spans="1:308">
+      <c r="LR28" s="65"/>
+      <c r="LT28" t="s">
+        <v>412</v>
+      </c>
+      <c r="LU28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:338">
       <c r="BA29" t="s">
         <v>377</v>
       </c>
@@ -12268,8 +12763,27 @@
       <c r="GZ29" s="27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="30" spans="1:308">
+      <c r="LR29" s="65"/>
+      <c r="LU29" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV29">
+        <v>1</v>
+      </c>
+      <c r="LW29">
+        <v>0</v>
+      </c>
+      <c r="LX29">
+        <v>2</v>
+      </c>
+      <c r="LY29">
+        <v>3</v>
+      </c>
+      <c r="LZ29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:338">
       <c r="BB30" t="s">
         <v>378</v>
       </c>
@@ -12331,8 +12845,15 @@
       <c r="HY30" s="25" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="31" spans="1:308">
+      <c r="LR30" s="65"/>
+      <c r="LX30" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LY30" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:338">
       <c r="BB31" t="s">
         <v>379</v>
       </c>
@@ -12398,8 +12919,15 @@
       <c r="HY31" s="39" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="32" spans="1:308">
+      <c r="LR31" s="65"/>
+      <c r="LT31" t="s">
+        <v>484</v>
+      </c>
+      <c r="LU31" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:338">
       <c r="BC32" t="s">
         <v>375</v>
       </c>
@@ -12418,8 +12946,27 @@
       <c r="EN32" s="5"/>
       <c r="EO32" s="5"/>
       <c r="EP32" s="5"/>
-    </row>
-    <row r="33" spans="53:233">
+      <c r="LR32" s="65"/>
+      <c r="LU32" t="s">
+        <v>700</v>
+      </c>
+      <c r="LV32">
+        <v>1</v>
+      </c>
+      <c r="LW32">
+        <v>0</v>
+      </c>
+      <c r="LX32">
+        <v>2</v>
+      </c>
+      <c r="LY32">
+        <v>3</v>
+      </c>
+      <c r="LZ32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="53:339">
       <c r="BA33" t="s">
         <v>380</v>
       </c>
@@ -12450,8 +12997,15 @@
       <c r="HR33" s="34" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="34" spans="53:233">
+      <c r="LR33" s="65"/>
+      <c r="LX33" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LZ33" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="53:339">
       <c r="BB34" t="s">
         <v>378</v>
       </c>
@@ -12515,8 +13069,21 @@
       <c r="HY34" s="25" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="35" spans="53:233">
+      <c r="LR34" s="65"/>
+      <c r="LT34" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="LU34" s="75" t="s">
+        <v>706</v>
+      </c>
+      <c r="LV34" s="75"/>
+      <c r="LW34" s="75"/>
+      <c r="LX34" s="75"/>
+      <c r="LY34" s="75"/>
+      <c r="LZ34" s="75"/>
+      <c r="MA34" s="75"/>
+    </row>
+    <row r="35" spans="53:339">
       <c r="BB35" t="s">
         <v>381</v>
       </c>
@@ -12569,7 +13136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="53:233">
+    <row r="36" spans="53:339">
       <c r="BC36" t="s">
         <v>382</v>
       </c>
@@ -12587,7 +13154,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="37" spans="53:233">
+    <row r="37" spans="53:339">
       <c r="DZ37" s="27" t="s">
         <v>55</v>
       </c>
@@ -12638,7 +13205,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="38" spans="53:233">
+    <row r="38" spans="53:339">
       <c r="DW38" s="21" t="s">
         <v>524</v>
       </c>
@@ -12696,7 +13263,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="39" spans="53:233">
+    <row r="39" spans="53:339">
       <c r="DY39" s="28" t="s">
         <v>525</v>
       </c>
@@ -12718,7 +13285,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="53:233">
+    <row r="40" spans="53:339">
       <c r="EM40" s="27" t="s">
         <v>55</v>
       </c>
@@ -12745,7 +13312,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="41" spans="53:233">
+    <row r="41" spans="53:339">
       <c r="DW41" s="25" t="s">
         <v>441</v>
       </c>
@@ -12785,7 +13352,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="42" spans="53:233">
+    <row r="42" spans="53:339">
       <c r="DW42" s="26">
         <v>1</v>
       </c>
@@ -12844,7 +13411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="53:233">
+    <row r="43" spans="53:339">
       <c r="DZ43" s="27" t="s">
         <v>517</v>
       </c>
@@ -12866,7 +13433,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="53:233">
+    <row r="44" spans="53:339">
       <c r="DZ44" s="27" t="s">
         <v>55</v>
       </c>
@@ -12898,7 +13465,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="53:233">
+    <row r="45" spans="53:339">
       <c r="DW45" s="21" t="s">
         <v>522</v>
       </c>
@@ -12932,7 +13499,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="53:233">
+    <row r="46" spans="53:339">
       <c r="DZ46" s="28" t="s">
         <v>525</v>
       </c>
@@ -12948,7 +13515,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="53:233">
+    <row r="48" spans="53:339">
       <c r="DW48" s="25" t="s">
         <v>441</v>
       </c>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28135EE5-7246-40D2-92F0-0154AE56F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49339FE-1D55-4EB3-8A08-8AFAA210FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="726">
   <si>
     <t>*</t>
   </si>
@@ -2647,6 +2647,63 @@
   </si>
   <si>
     <t>2==2 ==&gt; (4-2) &lt;= 2 ==&gt; true</t>
+  </si>
+  <si>
+    <t>Sathish4 name2 my1 is3</t>
+  </si>
+  <si>
+    <t>my name is sathish</t>
+  </si>
+  <si>
+    <t>i=</t>
+  </si>
+  <si>
+    <t>o=</t>
+  </si>
+  <si>
+    <t>1. split the given sentence based on whitespace</t>
+  </si>
+  <si>
+    <t>2. we will all the words assigned to an array</t>
+  </si>
+  <si>
+    <t>s = i.split(" ")</t>
+  </si>
+  <si>
+    <t>Sathish4</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>my1</t>
+  </si>
+  <si>
+    <t>is3</t>
+  </si>
+  <si>
+    <t>s.length = 4</t>
+  </si>
+  <si>
+    <t>3. find the last char of the word in the array</t>
+  </si>
+  <si>
+    <t>4. find the 1 int and add to the sentence</t>
+  </si>
+  <si>
+    <t>5. find the 2 int and apend to the sentence</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>8. return the sentence</t>
+  </si>
+  <si>
+    <t>ip = 3[a2[bc]]</t>
+  </si>
+  <si>
+    <t>op=abcbcabcbcabcbc</t>
   </si>
 </sst>
 </file>
@@ -3156,6 +3213,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3171,17 +3239,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5417,11 +5474,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -6740,21 +6797,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -6824,17 +6881,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -8327,10 +8384,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:MB90"/>
+  <dimension ref="A1:NE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KT10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="MC31" sqref="MC31"/>
+    <sheetView tabSelected="1" topLeftCell="MN2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="NE5" sqref="NE5:NE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8379,10 +8436,10 @@
     <col min="330" max="330" width="1.6640625" customWidth="1"/>
     <col min="331" max="335" width="3.77734375" customWidth="1"/>
     <col min="336" max="336" width="3.21875" customWidth="1"/>
-    <col min="337" max="353" width="3.77734375" customWidth="1"/>
+    <col min="337" max="391" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:340">
+    <row r="1" spans="1:369">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -8413,9 +8470,9 @@
       <c r="KV1">
         <v>2</v>
       </c>
-      <c r="LR1" s="65"/>
-    </row>
-    <row r="2" spans="1:340">
+      <c r="LR1" s="60"/>
+    </row>
+    <row r="2" spans="1:369">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -8459,12 +8516,12 @@
       <c r="KU2" t="s">
         <v>395</v>
       </c>
-      <c r="LR2" s="65"/>
+      <c r="LR2" s="60"/>
       <c r="LT2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:340" ht="17.399999999999999" thickBot="1">
+    <row r="3" spans="1:369" ht="17.399999999999999" thickBot="1">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -8607,9 +8664,9 @@
       <c r="LN3">
         <v>1</v>
       </c>
-      <c r="LR3" s="65"/>
-    </row>
-    <row r="4" spans="1:340">
+      <c r="LR3" s="60"/>
+    </row>
+    <row r="4" spans="1:369">
       <c r="Y4">
         <f>2/16</f>
         <v>0.125</v>
@@ -8744,16 +8801,19 @@
       <c r="LL4" t="s">
         <v>517</v>
       </c>
-      <c r="LR4" s="65"/>
-      <c r="LT4" s="66" t="s">
+      <c r="LR4" s="60"/>
+      <c r="LT4" s="61" t="s">
         <v>693</v>
       </c>
-      <c r="LU4" s="67"/>
-      <c r="LV4" s="67"/>
-      <c r="LW4" s="67"/>
-      <c r="LX4" s="68"/>
-    </row>
-    <row r="5" spans="1:340" ht="15" thickBot="1">
+      <c r="LU4" s="62"/>
+      <c r="LV4" s="62"/>
+      <c r="LW4" s="62"/>
+      <c r="LX4" s="63"/>
+      <c r="MS4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:369" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8882,16 +8942,31 @@
       <c r="LN5" t="s">
         <v>683</v>
       </c>
-      <c r="LR5" s="65"/>
-      <c r="LT5" s="69"/>
-      <c r="LU5" s="70" t="s">
+      <c r="LR5" s="60"/>
+      <c r="LT5" s="64"/>
+      <c r="LU5" s="65" t="s">
         <v>694</v>
       </c>
-      <c r="LV5" s="70"/>
-      <c r="LW5" s="70"/>
-      <c r="LX5" s="71"/>
-    </row>
-    <row r="6" spans="1:340" ht="14.4" customHeight="1" thickBot="1">
+      <c r="LV5" s="65"/>
+      <c r="LW5" s="65"/>
+      <c r="LX5" s="66"/>
+      <c r="MR5" t="s">
+        <v>440</v>
+      </c>
+      <c r="MS5" s="27">
+        <v>0</v>
+      </c>
+      <c r="MT5" t="s">
+        <v>714</v>
+      </c>
+      <c r="MX5" t="s">
+        <v>718</v>
+      </c>
+      <c r="NE5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:369" ht="14.4" customHeight="1" thickBot="1">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -8948,12 +9023,12 @@
       <c r="FE6" t="s">
         <v>552</v>
       </c>
-      <c r="FM6" s="62" t="s">
+      <c r="FM6" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="FN6" s="62"/>
-      <c r="FO6" s="62"/>
-      <c r="FP6" s="62"/>
+      <c r="FN6" s="73"/>
+      <c r="FO6" s="73"/>
+      <c r="FP6" s="73"/>
       <c r="FX6" t="s">
         <v>403</v>
       </c>
@@ -8994,10 +9069,10 @@
         <v>638</v>
       </c>
       <c r="IJ6" s="42"/>
-      <c r="IK6" s="63" t="s">
+      <c r="IK6" s="74" t="s">
         <v>636</v>
       </c>
-      <c r="IL6" s="63"/>
+      <c r="IL6" s="74"/>
       <c r="IM6" s="42"/>
       <c r="IN6" s="42"/>
       <c r="IO6" s="42"/>
@@ -9060,16 +9135,31 @@
       <c r="LO6" t="s">
         <v>688</v>
       </c>
-      <c r="LR6" s="65"/>
-      <c r="LT6" s="72"/>
-      <c r="LU6" s="73"/>
-      <c r="LV6" s="73" t="s">
+      <c r="LR6" s="60"/>
+      <c r="LT6" s="67"/>
+      <c r="LU6" s="68"/>
+      <c r="LV6" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="LW6" s="73"/>
-      <c r="LX6" s="74"/>
-    </row>
-    <row r="7" spans="1:340">
+      <c r="LW6" s="68"/>
+      <c r="LX6" s="69"/>
+      <c r="MI6" t="s">
+        <v>709</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>707</v>
+      </c>
+      <c r="MS6" s="27">
+        <v>1</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>715</v>
+      </c>
+      <c r="NE6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:369">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -9183,10 +9273,10 @@
       <c r="EV7" t="s">
         <v>536</v>
       </c>
-      <c r="FM7" s="62"/>
-      <c r="FN7" s="62"/>
-      <c r="FO7" s="62"/>
-      <c r="FP7" s="62"/>
+      <c r="FM7" s="73"/>
+      <c r="FN7" s="73"/>
+      <c r="FO7" s="73"/>
+      <c r="FP7" s="73"/>
       <c r="FZ7" t="s">
         <v>563</v>
       </c>
@@ -9239,9 +9329,21 @@
       <c r="LO7" t="s">
         <v>689</v>
       </c>
-      <c r="LR7" s="65"/>
-    </row>
-    <row r="8" spans="1:340">
+      <c r="LR7" s="60"/>
+      <c r="MI7" t="s">
+        <v>710</v>
+      </c>
+      <c r="MJ7" t="s">
+        <v>708</v>
+      </c>
+      <c r="MS7" s="27">
+        <v>2</v>
+      </c>
+      <c r="MT7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:369">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -9455,15 +9557,21 @@
       <c r="LO8" t="s">
         <v>691</v>
       </c>
-      <c r="LR8" s="65"/>
-      <c r="LT8" s="75" t="s">
+      <c r="LR8" s="60"/>
+      <c r="LT8" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="LU8" s="75">
+      <c r="LU8" s="70">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:340">
+      <c r="MS8" s="27">
+        <v>3</v>
+      </c>
+      <c r="MT8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:369">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -9665,7 +9773,7 @@
       <c r="LO9" t="s">
         <v>690</v>
       </c>
-      <c r="LR9" s="65"/>
+      <c r="LR9" s="60"/>
       <c r="LU9" t="s">
         <v>695</v>
       </c>
@@ -9690,8 +9798,11 @@
       <c r="MB9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:340">
+      <c r="MJ9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:369">
       <c r="AB10" t="s">
         <v>342</v>
       </c>
@@ -9849,15 +9960,18 @@
       <c r="LE10" s="54">
         <v>1</v>
       </c>
-      <c r="LR10" s="65"/>
+      <c r="LR10" s="60"/>
       <c r="LV10" s="39" t="s">
         <v>551</v>
       </c>
       <c r="LW10" s="39" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="11" spans="1:340">
+      <c r="MJ10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:369">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -10039,15 +10153,18 @@
       <c r="KK11" t="s">
         <v>677</v>
       </c>
-      <c r="LR11" s="65"/>
+      <c r="LR11" s="60"/>
       <c r="LT11" t="s">
         <v>403</v>
       </c>
       <c r="LU11" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="12" spans="1:340" ht="15" thickBot="1">
+      <c r="MJ11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:369" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -10285,7 +10402,7 @@
       <c r="KS12" t="s">
         <v>683</v>
       </c>
-      <c r="LR12" s="65"/>
+      <c r="LR12" s="60"/>
       <c r="LU12" t="s">
         <v>695</v>
       </c>
@@ -10310,8 +10427,11 @@
       <c r="MB12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:340" ht="15" thickBot="1">
+      <c r="MJ12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:369" ht="15" thickBot="1">
       <c r="B13" t="s">
         <v>218</v>
       </c>
@@ -10511,15 +10631,18 @@
       <c r="LP13">
         <v>13</v>
       </c>
-      <c r="LR13" s="65"/>
+      <c r="LR13" s="60"/>
       <c r="LV13" s="39" t="s">
         <v>551</v>
       </c>
       <c r="LX13" s="39" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="14" spans="1:340" ht="15" thickBot="1">
+      <c r="MJ13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:369" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -10670,21 +10793,24 @@
       <c r="LI14">
         <v>3</v>
       </c>
-      <c r="LR14" s="65"/>
-      <c r="LT14" s="75" t="s">
+      <c r="LR14" s="60"/>
+      <c r="LT14" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="LU14" s="75" t="s">
+      <c r="LU14" s="70" t="s">
         <v>698</v>
       </c>
-      <c r="LV14" s="75"/>
-      <c r="LW14" s="75"/>
-      <c r="LX14" s="75"/>
-      <c r="LY14" s="75"/>
-      <c r="LZ14" s="75"/>
-      <c r="MA14" s="75"/>
-    </row>
-    <row r="15" spans="1:340" ht="15" thickBot="1">
+      <c r="LV14" s="70"/>
+      <c r="LW14" s="70"/>
+      <c r="LX14" s="70"/>
+      <c r="LY14" s="70"/>
+      <c r="LZ14" s="70"/>
+      <c r="MA14" s="70"/>
+      <c r="ML14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:369" ht="15" thickBot="1">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -10880,12 +11006,15 @@
       <c r="LJ15">
         <v>5</v>
       </c>
-      <c r="LR15" s="65"/>
+      <c r="LR15" s="60"/>
       <c r="LT15" s="9" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="16" spans="1:340">
+      <c r="ML15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:369">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -11037,11 +11166,11 @@
         <v>640</v>
       </c>
       <c r="IJ16" s="42"/>
-      <c r="IK16" s="63" t="s">
+      <c r="IK16" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="IL16" s="63"/>
-      <c r="IM16" s="64"/>
+      <c r="IL16" s="74"/>
+      <c r="IM16" s="75"/>
       <c r="JC16" t="s">
         <v>395</v>
       </c>
@@ -11082,12 +11211,15 @@
       <c r="KY16" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="LR16" s="65"/>
-      <c r="LT16" s="75" t="s">
+      <c r="LR16" s="60"/>
+      <c r="LT16" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="LU16" s="75">
+      <c r="LU16" s="70">
         <v>2</v>
+      </c>
+      <c r="MJ16" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:338">
@@ -11227,7 +11359,7 @@
       <c r="KV17" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="LR17" s="65"/>
+      <c r="LR17" s="60"/>
       <c r="LU17" t="s">
         <v>700</v>
       </c>
@@ -11462,7 +11594,7 @@
       <c r="JF18" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="LR18" s="65"/>
+      <c r="LR18" s="60"/>
       <c r="LV18" s="39" t="s">
         <v>551</v>
       </c>
@@ -11620,7 +11752,7 @@
       <c r="JH19" t="s">
         <v>662</v>
       </c>
-      <c r="LR19" s="65"/>
+      <c r="LR19" s="60"/>
       <c r="LT19" t="s">
         <v>403</v>
       </c>
@@ -11724,7 +11856,7 @@
       <c r="JH20" t="s">
         <v>663</v>
       </c>
-      <c r="LR20" s="65"/>
+      <c r="LR20" s="60"/>
       <c r="LU20" t="s">
         <v>700</v>
       </c>
@@ -11892,7 +12024,7 @@
       <c r="JH21" t="s">
         <v>664</v>
       </c>
-      <c r="LR21" s="65"/>
+      <c r="LR21" s="60"/>
       <c r="LV21" s="39" t="s">
         <v>551</v>
       </c>
@@ -12059,7 +12191,7 @@
         <v>639</v>
       </c>
       <c r="IM22" s="45"/>
-      <c r="LR22" s="65"/>
+      <c r="LR22" s="60"/>
       <c r="LT22" t="s">
         <v>404</v>
       </c>
@@ -12188,7 +12320,7 @@
       </c>
       <c r="II23" s="46"/>
       <c r="IM23" s="45"/>
-      <c r="LR23" s="65"/>
+      <c r="LR23" s="60"/>
       <c r="LU23" t="s">
         <v>700</v>
       </c>
@@ -12325,7 +12457,7 @@
       <c r="IK24" s="50"/>
       <c r="IL24" s="50"/>
       <c r="IM24" s="51"/>
-      <c r="LR24" s="65"/>
+      <c r="LR24" s="60"/>
       <c r="LW24" s="39" t="s">
         <v>551</v>
       </c>
@@ -12420,7 +12552,7 @@
       <c r="HW25" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="LR25" s="65"/>
+      <c r="LR25" s="60"/>
       <c r="LT25" t="s">
         <v>409</v>
       </c>
@@ -12501,7 +12633,7 @@
       <c r="GW26" t="s">
         <v>588</v>
       </c>
-      <c r="LR26" s="65"/>
+      <c r="LR26" s="60"/>
       <c r="LU26" t="s">
         <v>700</v>
       </c>
@@ -12630,7 +12762,7 @@
       <c r="HY27" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="LR27" s="65"/>
+      <c r="LR27" s="60"/>
       <c r="LW27" s="39" t="s">
         <v>551</v>
       </c>
@@ -12717,7 +12849,7 @@
       <c r="HX28" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="LR28" s="65"/>
+      <c r="LR28" s="60"/>
       <c r="LT28" t="s">
         <v>412</v>
       </c>
@@ -12763,7 +12895,7 @@
       <c r="GZ29" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="LR29" s="65"/>
+      <c r="LR29" s="60"/>
       <c r="LU29" t="s">
         <v>700</v>
       </c>
@@ -12845,7 +12977,7 @@
       <c r="HY30" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="LR30" s="65"/>
+      <c r="LR30" s="60"/>
       <c r="LX30" s="39" t="s">
         <v>551</v>
       </c>
@@ -12919,7 +13051,7 @@
       <c r="HY31" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="LR31" s="65"/>
+      <c r="LR31" s="60"/>
       <c r="LT31" t="s">
         <v>484</v>
       </c>
@@ -12946,7 +13078,7 @@
       <c r="EN32" s="5"/>
       <c r="EO32" s="5"/>
       <c r="EP32" s="5"/>
-      <c r="LR32" s="65"/>
+      <c r="LR32" s="60"/>
       <c r="LU32" t="s">
         <v>700</v>
       </c>
@@ -12997,7 +13129,7 @@
       <c r="HR33" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="LR33" s="65"/>
+      <c r="LR33" s="60"/>
       <c r="LX33" s="39" t="s">
         <v>551</v>
       </c>
@@ -13069,19 +13201,19 @@
       <c r="HY34" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="LR34" s="65"/>
-      <c r="LT34" s="75" t="s">
+      <c r="LR34" s="60"/>
+      <c r="LT34" s="70" t="s">
         <v>487</v>
       </c>
-      <c r="LU34" s="75" t="s">
+      <c r="LU34" s="70" t="s">
         <v>706</v>
       </c>
-      <c r="LV34" s="75"/>
-      <c r="LW34" s="75"/>
-      <c r="LX34" s="75"/>
-      <c r="LY34" s="75"/>
-      <c r="LZ34" s="75"/>
-      <c r="MA34" s="75"/>
+      <c r="LV34" s="70"/>
+      <c r="LW34" s="70"/>
+      <c r="LX34" s="70"/>
+      <c r="LY34" s="70"/>
+      <c r="LZ34" s="70"/>
+      <c r="MA34" s="70"/>
     </row>
     <row r="35" spans="53:339">
       <c r="BB35" t="s">

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CFD7E-B0A8-4125-82F9-9F2C1A7ACD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90579F2B-A722-45D3-BEA1-95534B99EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="802">
   <si>
     <t>*</t>
   </si>
@@ -2877,6 +2877,30 @@
   </si>
   <si>
     <t>No. Of Students Not able to eat</t>
+  </si>
+  <si>
+    <t>Last In First Out</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>First In First Out</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -3159,7 +3183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3344,12 +3368,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3492,21 +3551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,6 +3577,25 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5768,11 +5831,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
+      <c r="P3" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -7091,21 +7154,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -7175,17 +7238,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -8680,8 +8743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
   <dimension ref="A1:OZ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MH73" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="MO27" sqref="MO27"/>
+    <sheetView tabSelected="1" topLeftCell="KO45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="KP48" sqref="KP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8735,7 +8798,8 @@
     <col min="252" max="252" width="7.5546875" style="22" customWidth="1"/>
     <col min="253" max="329" width="3.77734375" style="22" customWidth="1"/>
     <col min="330" max="330" width="1.6640625" style="22" customWidth="1"/>
-    <col min="331" max="335" width="3.77734375" style="22" customWidth="1"/>
+    <col min="331" max="334" width="3.77734375" style="22" customWidth="1"/>
+    <col min="335" max="335" width="1.44140625" style="22" customWidth="1"/>
     <col min="336" max="336" width="3.21875" style="22" customWidth="1"/>
     <col min="337" max="443" width="3.77734375" style="22" customWidth="1"/>
     <col min="444" max="16384" width="8.88671875" style="22"/>
@@ -9483,12 +9547,12 @@
       <c r="FE6" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="FM6" s="80" t="s">
+      <c r="FM6" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="FN6" s="80"/>
-      <c r="FO6" s="80"/>
-      <c r="FP6" s="80"/>
+      <c r="FN6" s="92"/>
+      <c r="FO6" s="92"/>
+      <c r="FP6" s="92"/>
       <c r="FX6" s="22" t="s">
         <v>401</v>
       </c>
@@ -9529,10 +9593,10 @@
         <v>630</v>
       </c>
       <c r="IJ6" s="50"/>
-      <c r="IK6" s="81" t="s">
+      <c r="IK6" s="93" t="s">
         <v>628</v>
       </c>
-      <c r="IL6" s="81"/>
+      <c r="IL6" s="93"/>
       <c r="IM6" s="50"/>
       <c r="IN6" s="50"/>
       <c r="IO6" s="50"/>
@@ -9771,10 +9835,10 @@
       <c r="EV7" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="FM7" s="80"/>
-      <c r="FN7" s="80"/>
-      <c r="FO7" s="80"/>
-      <c r="FP7" s="80"/>
+      <c r="FM7" s="92"/>
+      <c r="FN7" s="92"/>
+      <c r="FO7" s="92"/>
+      <c r="FP7" s="92"/>
       <c r="FZ7" s="22" t="s">
         <v>555</v>
       </c>
@@ -11829,11 +11893,11 @@
         <v>632</v>
       </c>
       <c r="IJ16" s="50"/>
-      <c r="IK16" s="81" t="s">
+      <c r="IK16" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="IL16" s="81"/>
-      <c r="IM16" s="82"/>
+      <c r="IL16" s="93"/>
+      <c r="IM16" s="94"/>
       <c r="JC16" s="22" t="s">
         <v>395</v>
       </c>
@@ -13093,7 +13157,7 @@
       <c r="LZ23" s="22">
         <v>2</v>
       </c>
-      <c r="OS23" s="85" t="s">
+      <c r="OS23" s="80" t="s">
         <v>749</v>
       </c>
     </row>
@@ -13224,25 +13288,25 @@
       <c r="OK24" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="OL24" s="83">
-        <v>1</v>
-      </c>
-      <c r="OM24" s="83">
-        <v>2</v>
-      </c>
-      <c r="ON24" s="83">
+      <c r="OL24" s="78">
+        <v>1</v>
+      </c>
+      <c r="OM24" s="78">
+        <v>2</v>
+      </c>
+      <c r="ON24" s="78">
         <v>3</v>
       </c>
-      <c r="OO24" s="83">
-        <v>2</v>
-      </c>
-      <c r="OP24" s="88">
+      <c r="OO24" s="78">
+        <v>2</v>
+      </c>
+      <c r="OP24" s="83">
         <v>1</v>
       </c>
       <c r="OQ24" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="OS24" s="85" t="s">
+      <c r="OS24" s="80" t="s">
         <v>750</v>
       </c>
     </row>
@@ -13346,7 +13410,7 @@
       <c r="OE25" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="OK25" s="84" t="s">
+      <c r="OK25" s="79" t="s">
         <v>720</v>
       </c>
       <c r="OL25" s="29">
@@ -13361,13 +13425,13 @@
       <c r="OO25" s="29">
         <v>1</v>
       </c>
-      <c r="OP25" s="86" t="s">
+      <c r="OP25" s="81" t="s">
         <v>721</v>
       </c>
-      <c r="OQ25" s="84" t="s">
+      <c r="OQ25" s="79" t="s">
         <v>720</v>
       </c>
-      <c r="OS25" s="87" t="s">
+      <c r="OS25" s="82" t="s">
         <v>751</v>
       </c>
     </row>
@@ -13472,7 +13536,7 @@
       <c r="OE26" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="OK26" s="84" t="s">
+      <c r="OK26" s="79" t="s">
         <v>746</v>
       </c>
       <c r="OL26" s="59" t="s">
@@ -13490,7 +13554,7 @@
       <c r="OP26" s="29">
         <v>2</v>
       </c>
-      <c r="OQ26" s="84" t="s">
+      <c r="OQ26" s="79" t="s">
         <v>746</v>
       </c>
     </row>
@@ -13709,7 +13773,7 @@
       <c r="MQ28" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU28" s="94">
+      <c r="MU28" s="89">
         <v>1</v>
       </c>
       <c r="MV28" s="22">
@@ -13876,7 +13940,7 @@
       <c r="MQ30" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU30" s="94">
+      <c r="MU30" s="89">
         <v>1</v>
       </c>
       <c r="MV30" s="22">
@@ -14055,7 +14119,7 @@
       <c r="MQ33" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU33" s="93">
+      <c r="MU33" s="88">
         <v>1</v>
       </c>
       <c r="MV33" s="22">
@@ -14255,7 +14319,7 @@
       <c r="MQ35" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU35" s="93">
+      <c r="MU35" s="88">
         <v>0</v>
       </c>
       <c r="MV35" s="22">
@@ -14276,19 +14340,19 @@
       <c r="OB35" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="OD35" s="89" t="s">
+      <c r="OD35" s="84" t="s">
         <v>765</v>
       </c>
-      <c r="OE35" s="90" t="s">
+      <c r="OE35" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="OF35" s="90" t="s">
+      <c r="OF35" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="OG35" s="90" t="s">
+      <c r="OG35" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="OH35" s="91" t="s">
+      <c r="OH35" s="86" t="s">
         <v>339</v>
       </c>
       <c r="OI35" s="29" t="s">
@@ -14336,10 +14400,10 @@
       <c r="NA36" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="OD36" s="92" t="s">
+      <c r="OD36" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="OH36" s="92" t="s">
+      <c r="OH36" s="87" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14532,7 +14596,7 @@
       <c r="MQ41" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU41" s="93">
+      <c r="MU41" s="88">
         <v>1</v>
       </c>
       <c r="MV41" s="22">
@@ -14556,19 +14620,19 @@
       <c r="OD41" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="OE41" s="89" t="s">
+      <c r="OE41" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="OF41" s="90" t="s">
+      <c r="OF41" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="OG41" s="90" t="s">
+      <c r="OG41" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="OH41" s="90" t="s">
+      <c r="OH41" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="OI41" s="91" t="s">
+      <c r="OI41" s="86" t="s">
         <v>339</v>
       </c>
       <c r="OJ41" s="29" t="s">
@@ -14625,10 +14689,10 @@
       <c r="NA42" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="OE42" s="92" t="s">
+      <c r="OE42" s="87" t="s">
         <v>509</v>
       </c>
-      <c r="OI42" s="92" t="s">
+      <c r="OI42" s="87" t="s">
         <v>543</v>
       </c>
     </row>
@@ -14674,7 +14738,7 @@
       <c r="MQ43" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU43" s="93">
+      <c r="MU43" s="88">
         <v>0</v>
       </c>
       <c r="MV43" s="22">
@@ -14809,6 +14873,12 @@
       <c r="GW47" s="40"/>
       <c r="GY47" s="40"/>
       <c r="HA47" s="40"/>
+      <c r="KP47" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="LL47" s="22" t="s">
+        <v>797</v>
+      </c>
       <c r="NA47" s="22" t="s">
         <v>788</v>
       </c>
@@ -14844,6 +14914,12 @@
       <c r="GX48" s="22" t="s">
         <v>583</v>
       </c>
+      <c r="KQ48" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="LM48" s="22" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="49" spans="127:365">
       <c r="DW49" s="26" t="s">
@@ -14878,10 +14954,31 @@
       <c r="GT49" s="33" t="s">
         <v>587</v>
       </c>
+      <c r="KR49" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="KW49" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LB49" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LG49" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LN49" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="LS49" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="LX49" s="22" t="s">
+        <v>799</v>
+      </c>
       <c r="MQ49" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU49" s="94">
+      <c r="MU49" s="89">
         <v>0</v>
       </c>
       <c r="MV49" s="22">
@@ -14915,15 +15012,53 @@
       <c r="GT50" s="22" t="s">
         <v>562</v>
       </c>
+      <c r="KR50" s="22">
+        <v>1</v>
+      </c>
+      <c r="KS50" s="97"/>
+      <c r="KW50" s="22">
+        <v>2</v>
+      </c>
+      <c r="KX50" s="97"/>
+      <c r="LB50" s="22">
+        <v>3</v>
+      </c>
+      <c r="LC50" s="97"/>
+      <c r="LH50" s="97"/>
+      <c r="LN50" s="22">
+        <v>1</v>
+      </c>
+      <c r="LS50" s="22">
+        <v>2</v>
+      </c>
       <c r="MO50" s="22" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="51" spans="127:365">
+      <c r="KS51" s="95"/>
+      <c r="KX51" s="95"/>
+      <c r="LC51" s="95"/>
+      <c r="LH51" s="95"/>
+      <c r="LO51" s="98"/>
+      <c r="LP51" s="98"/>
+      <c r="LQ51" s="98"/>
+      <c r="LT51" s="98"/>
+      <c r="LU51" s="98"/>
+      <c r="LV51" s="98">
+        <v>1</v>
+      </c>
+      <c r="LY51" s="98"/>
+      <c r="LZ51" s="98">
+        <v>2</v>
+      </c>
+      <c r="MA51" s="98">
+        <v>1</v>
+      </c>
       <c r="MQ51" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU51" s="94">
+      <c r="MU51" s="89">
         <v>0</v>
       </c>
       <c r="MV51" s="22">
@@ -14987,6 +15122,12 @@
       <c r="EQ52" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="KS52" s="95"/>
+      <c r="KX52" s="95"/>
+      <c r="LC52" s="95"/>
+      <c r="LH52" s="95">
+        <v>3</v>
+      </c>
       <c r="MU52" s="22" t="s">
         <v>773</v>
       </c>
@@ -15045,6 +15186,14 @@
       </c>
       <c r="ER53" s="59">
         <v>7</v>
+      </c>
+      <c r="KS53" s="95"/>
+      <c r="KX53" s="95"/>
+      <c r="LC53" s="95">
+        <v>2</v>
+      </c>
+      <c r="LH53" s="95">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="127:365">
@@ -15059,10 +15208,20 @@
         <v>509</v>
       </c>
       <c r="EP54" s="23"/>
+      <c r="KS54" s="96"/>
+      <c r="KX54" s="96">
+        <v>1</v>
+      </c>
+      <c r="LC54" s="96">
+        <v>1</v>
+      </c>
+      <c r="LH54" s="96">
+        <v>1</v>
+      </c>
       <c r="MQ54" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU54" s="94">
+      <c r="MU54" s="89">
         <v>0</v>
       </c>
       <c r="MV54" s="22">
@@ -15107,10 +15266,16 @@
       <c r="EL56" s="26" t="s">
         <v>514</v>
       </c>
+      <c r="KQ56" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="LM56" s="22" t="s">
+        <v>800</v>
+      </c>
       <c r="MQ56" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU56" s="94">
+      <c r="MU56" s="89">
         <v>0</v>
       </c>
       <c r="MV56" s="22">
@@ -15130,6 +15295,27 @@
       <c r="EH57" s="41" t="s">
         <v>517</v>
       </c>
+      <c r="KR57" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="KW57" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LB57" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LG57" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="LN57" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="LS57" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="LX57" s="22" t="s">
+        <v>799</v>
+      </c>
       <c r="MU57" s="22" t="s">
         <v>773</v>
       </c>
@@ -15153,6 +15339,19 @@
       <c r="EQ58" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="KS58" s="97"/>
+      <c r="KX58" s="97"/>
+      <c r="KY58" s="22">
+        <v>3</v>
+      </c>
+      <c r="LC58" s="97"/>
+      <c r="LD58" s="22">
+        <v>2</v>
+      </c>
+      <c r="LH58" s="97"/>
+      <c r="LI58" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="127:365" ht="14.4">
       <c r="ED59" s="30" t="s">
@@ -15192,10 +15391,29 @@
       <c r="ER59" s="59">
         <v>7</v>
       </c>
+      <c r="KS59" s="95"/>
+      <c r="KX59" s="95"/>
+      <c r="LC59" s="95"/>
+      <c r="LH59" s="95"/>
+      <c r="LN59" s="98"/>
+      <c r="LO59" s="98">
+        <v>2</v>
+      </c>
+      <c r="LP59" s="98">
+        <v>1</v>
+      </c>
+      <c r="LS59" s="98"/>
+      <c r="LT59" s="98"/>
+      <c r="LU59" s="98">
+        <v>2</v>
+      </c>
+      <c r="LX59" s="98"/>
+      <c r="LY59" s="98"/>
+      <c r="LZ59" s="98"/>
       <c r="MQ59" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU59" s="93">
+      <c r="MU59" s="88">
         <v>1</v>
       </c>
       <c r="MV59" s="22">
@@ -15231,6 +15449,18 @@
         <v>509</v>
       </c>
       <c r="EP60" s="23"/>
+      <c r="KS60" s="95">
+        <v>3</v>
+      </c>
+      <c r="KX60" s="95"/>
+      <c r="LC60" s="95"/>
+      <c r="LH60" s="95"/>
+      <c r="LV60" s="22">
+        <v>1</v>
+      </c>
+      <c r="MA60" s="22">
+        <v>2</v>
+      </c>
       <c r="MO60" s="22" t="s">
         <v>783</v>
       </c>
@@ -15246,10 +15476,18 @@
       <c r="EP61" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="KS61" s="95">
+        <v>2</v>
+      </c>
+      <c r="KX61" s="95">
+        <v>2</v>
+      </c>
+      <c r="LC61" s="95"/>
+      <c r="LH61" s="95"/>
       <c r="MQ61" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU61" s="93">
+      <c r="MU61" s="88">
         <v>0</v>
       </c>
       <c r="MV61" s="22">
@@ -15272,6 +15510,16 @@
       <c r="EL62" s="26" t="s">
         <v>516</v>
       </c>
+      <c r="KS62" s="96">
+        <v>1</v>
+      </c>
+      <c r="KX62" s="96">
+        <v>1</v>
+      </c>
+      <c r="LC62" s="96">
+        <v>1</v>
+      </c>
+      <c r="LH62" s="96"/>
       <c r="MY62" s="22" t="s">
         <v>777</v>
       </c>
@@ -15336,7 +15584,7 @@
       <c r="MQ67" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU67" s="93">
+      <c r="MU67" s="88">
         <v>1</v>
       </c>
       <c r="MV67" s="22">
@@ -15368,7 +15616,7 @@
       <c r="MQ69" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU69" s="93">
+      <c r="MU69" s="88">
         <v>0</v>
       </c>
       <c r="MV69" s="22">
@@ -15429,7 +15677,7 @@
       <c r="MQ75" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="MU75" s="93">
+      <c r="MU75" s="88">
         <v>1</v>
       </c>
       <c r="MV75" s="22">
@@ -15479,7 +15727,7 @@
       <c r="MQ77" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="MU77" s="93">
+      <c r="MU77" s="88">
         <v>0</v>
       </c>
       <c r="MV77" s="22">

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90579F2B-A722-45D3-BEA1-95534B99EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EA399-27D2-4F7F-A103-FC38D054F748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="860">
   <si>
     <t>*</t>
   </si>
@@ -2901,6 +2901,180 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>Reverse List inplace</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>praj</t>
+  </si>
+  <si>
+    <t>proj - A</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>saranya</t>
+  </si>
+  <si>
+    <t>suruthi</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>feature_01</t>
+  </si>
+  <si>
+    <t>feature_02</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>git merge master</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>def a()</t>
+  </si>
+  <si>
+    <t>a=b</t>
+  </si>
+  <si>
+    <t>a=c</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git config</t>
+  </si>
+  <si>
+    <t>git init "path\projectA"</t>
+  </si>
+  <si>
+    <t>git clone "https:path"</t>
+  </si>
+  <si>
+    <t>c:\desktop\pro-A</t>
+  </si>
+  <si>
+    <t>c:\desktop&gt;</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git comit</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -m "message"</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>git restore</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>what is git</t>
+  </si>
+  <si>
+    <t>stop at one node prev of left, if left is not equal to one</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>Move the current till one step before of right</t>
+  </si>
+  <si>
+    <t>temp = current.next</t>
+  </si>
+  <si>
+    <t>[7,8,9]</t>
+  </si>
+  <si>
+    <t>current.next = current.next.next</t>
+  </si>
+  <si>
+    <t>[6,8,9]</t>
+  </si>
+  <si>
+    <t>temp.next = previous.next</t>
+  </si>
+  <si>
+    <t>[7,3,..]</t>
+  </si>
+  <si>
+    <t>previous.next = temp</t>
+  </si>
+  <si>
+    <t>[.,2,7,3,..]</t>
+  </si>
+  <si>
+    <t>previous = previous.next</t>
+  </si>
+  <si>
+    <t>[7,..]</t>
+  </si>
+  <si>
+    <t>current = previous</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>tmp</t>
+  </si>
+  <si>
+    <t>tmp.next = hd</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>tmp = cur.next</t>
+  </si>
+  <si>
+    <t>pre</t>
   </si>
 </sst>
 </file>
@@ -3408,7 +3582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3577,6 +3751,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3592,10 +3769,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5508,6 +5681,851 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>282</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>289</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DD6FCA-558F-1B48-215C-E2803DB1CFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="93007543" y="14755586"/>
+          <a:ext cx="1785257" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>282</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>294</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161CC54E-CE23-39E7-39CA-21369212B5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93002100" y="15038614"/>
+          <a:ext cx="3026229" cy="500743"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>286</xdr:col>
+      <xdr:colOff>146958</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586699" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447865AA-D74E-E59A-FB52-B1A7367D2E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="815214">
+          <a:off x="94085229" y="14967857"/>
+          <a:ext cx="586699" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>289</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C91192-E363-B265-8311-DF13626DC176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94732928" y="14265729"/>
+          <a:ext cx="451021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>local</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>288</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>290</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAD8359-63BD-7A8A-7E04-55CC0D2FC504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94700271" y="14554200"/>
+          <a:ext cx="517072" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>283</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>294</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AFB1F5-C9EB-E889-4A96-99A1F61ABCE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="93192600" y="15561129"/>
+          <a:ext cx="2841171" cy="348342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>286</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825803" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197438AD-FDEE-4FEE-CCA1-12300D18F620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20746906">
+          <a:off x="94047128" y="15490371"/>
+          <a:ext cx="825803" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>pull (clone)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>290</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86B1D47-A82B-47B3-B321-9379469E2345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94732928" y="14265729"/>
+          <a:ext cx="451021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>local</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>289</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>291</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442B6B7B-28BB-4FBB-B5D0-D08A5CAA9DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94700271" y="14554200"/>
+          <a:ext cx="517072" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>283</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>289</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73994B9-076E-7169-BEAC-1B8CFB58E605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93214371" y="15925800"/>
+          <a:ext cx="1747157" cy="849086"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>282</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>294</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC99D55F-43D2-88D1-3E07-39E60A5D6F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="93100071" y="15610113"/>
+          <a:ext cx="3058886" cy="1883229"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>286</xdr:col>
+      <xdr:colOff>5444</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1322863" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EC6536-5ECD-5082-4862-1DD3B9BEDEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93943715" y="17259300"/>
+          <a:ext cx="1322863" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>pull (clone at initial)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>293</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197270B5-DB03-4C3B-9F07-86ABF9CDC0C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94994185" y="16399329"/>
+          <a:ext cx="451021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>local</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>292</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>294</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C64C41-C3C4-4C15-9435-89B40DE780C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94961528" y="16676914"/>
+          <a:ext cx="517072" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>282</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>292</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BDE922-C5C0-98C3-A400-1A7F0A495CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93116400" y="17520557"/>
+          <a:ext cx="2628899" cy="843643"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5831,11 +6849,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
+      <c r="P3" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -7154,21 +8172,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -7238,17 +8256,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -8741,10 +9759,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
-  <dimension ref="A1:OZ98"/>
+  <dimension ref="A1:OZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KO45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="KP48" sqref="KP48"/>
+    <sheetView tabSelected="1" topLeftCell="KO66" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="LE87" sqref="LE87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8796,8 +9814,10 @@
     <col min="243" max="250" width="3.77734375" style="22" customWidth="1"/>
     <col min="251" max="251" width="1.6640625" style="22" customWidth="1"/>
     <col min="252" max="252" width="7.5546875" style="22" customWidth="1"/>
-    <col min="253" max="329" width="3.77734375" style="22" customWidth="1"/>
-    <col min="330" max="330" width="1.6640625" style="22" customWidth="1"/>
+    <col min="253" max="288" width="3.77734375" style="22" customWidth="1"/>
+    <col min="289" max="289" width="6.6640625" style="22" customWidth="1"/>
+    <col min="290" max="329" width="3.77734375" style="22" customWidth="1"/>
+    <col min="330" max="330" width="4.5546875" style="22" customWidth="1"/>
     <col min="331" max="334" width="3.77734375" style="22" customWidth="1"/>
     <col min="335" max="335" width="1.44140625" style="22" customWidth="1"/>
     <col min="336" max="336" width="3.21875" style="22" customWidth="1"/>
@@ -9547,12 +10567,12 @@
       <c r="FE6" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="FM6" s="92" t="s">
+      <c r="FM6" s="95" t="s">
         <v>552</v>
       </c>
-      <c r="FN6" s="92"/>
-      <c r="FO6" s="92"/>
-      <c r="FP6" s="92"/>
+      <c r="FN6" s="95"/>
+      <c r="FO6" s="95"/>
+      <c r="FP6" s="95"/>
       <c r="FX6" s="22" t="s">
         <v>401</v>
       </c>
@@ -9593,10 +10613,10 @@
         <v>630</v>
       </c>
       <c r="IJ6" s="50"/>
-      <c r="IK6" s="93" t="s">
+      <c r="IK6" s="96" t="s">
         <v>628</v>
       </c>
-      <c r="IL6" s="93"/>
+      <c r="IL6" s="96"/>
       <c r="IM6" s="50"/>
       <c r="IN6" s="50"/>
       <c r="IO6" s="50"/>
@@ -9835,10 +10855,10 @@
       <c r="EV7" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="FM7" s="92"/>
-      <c r="FN7" s="92"/>
-      <c r="FO7" s="92"/>
-      <c r="FP7" s="92"/>
+      <c r="FM7" s="95"/>
+      <c r="FN7" s="95"/>
+      <c r="FO7" s="95"/>
+      <c r="FP7" s="95"/>
       <c r="FZ7" s="22" t="s">
         <v>555</v>
       </c>
@@ -11893,11 +12913,11 @@
         <v>632</v>
       </c>
       <c r="IJ16" s="50"/>
-      <c r="IK16" s="93" t="s">
+      <c r="IK16" s="96" t="s">
         <v>633</v>
       </c>
-      <c r="IL16" s="93"/>
-      <c r="IM16" s="94"/>
+      <c r="IL16" s="96"/>
+      <c r="IM16" s="97"/>
       <c r="JC16" s="22" t="s">
         <v>395</v>
       </c>
@@ -15015,16 +16035,12 @@
       <c r="KR50" s="22">
         <v>1</v>
       </c>
-      <c r="KS50" s="97"/>
       <c r="KW50" s="22">
         <v>2</v>
       </c>
-      <c r="KX50" s="97"/>
       <c r="LB50" s="22">
         <v>3</v>
       </c>
-      <c r="LC50" s="97"/>
-      <c r="LH50" s="97"/>
       <c r="LN50" s="22">
         <v>1</v>
       </c>
@@ -15036,23 +16052,23 @@
       </c>
     </row>
     <row r="51" spans="127:365">
-      <c r="KS51" s="95"/>
-      <c r="KX51" s="95"/>
-      <c r="LC51" s="95"/>
-      <c r="LH51" s="95"/>
-      <c r="LO51" s="98"/>
-      <c r="LP51" s="98"/>
-      <c r="LQ51" s="98"/>
-      <c r="LT51" s="98"/>
-      <c r="LU51" s="98"/>
-      <c r="LV51" s="98">
-        <v>1</v>
-      </c>
-      <c r="LY51" s="98"/>
-      <c r="LZ51" s="98">
-        <v>2</v>
-      </c>
-      <c r="MA51" s="98">
+      <c r="KS51" s="90"/>
+      <c r="KX51" s="90"/>
+      <c r="LC51" s="90"/>
+      <c r="LH51" s="90"/>
+      <c r="LO51" s="92"/>
+      <c r="LP51" s="92"/>
+      <c r="LQ51" s="92"/>
+      <c r="LT51" s="92"/>
+      <c r="LU51" s="92"/>
+      <c r="LV51" s="92">
+        <v>1</v>
+      </c>
+      <c r="LY51" s="92"/>
+      <c r="LZ51" s="92">
+        <v>2</v>
+      </c>
+      <c r="MA51" s="92">
         <v>1</v>
       </c>
       <c r="MQ51" s="22" t="s">
@@ -15122,10 +16138,10 @@
       <c r="EQ52" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="KS52" s="95"/>
-      <c r="KX52" s="95"/>
-      <c r="LC52" s="95"/>
-      <c r="LH52" s="95">
+      <c r="KS52" s="90"/>
+      <c r="KX52" s="90"/>
+      <c r="LC52" s="90"/>
+      <c r="LH52" s="90">
         <v>3</v>
       </c>
       <c r="MU52" s="22" t="s">
@@ -15187,12 +16203,12 @@
       <c r="ER53" s="59">
         <v>7</v>
       </c>
-      <c r="KS53" s="95"/>
-      <c r="KX53" s="95"/>
-      <c r="LC53" s="95">
-        <v>2</v>
-      </c>
-      <c r="LH53" s="95">
+      <c r="KS53" s="90"/>
+      <c r="KX53" s="90"/>
+      <c r="LC53" s="90">
+        <v>2</v>
+      </c>
+      <c r="LH53" s="90">
         <v>2</v>
       </c>
     </row>
@@ -15208,14 +16224,14 @@
         <v>509</v>
       </c>
       <c r="EP54" s="23"/>
-      <c r="KS54" s="96"/>
-      <c r="KX54" s="96">
-        <v>1</v>
-      </c>
-      <c r="LC54" s="96">
-        <v>1</v>
-      </c>
-      <c r="LH54" s="96">
+      <c r="KS54" s="91"/>
+      <c r="KX54" s="91">
+        <v>1</v>
+      </c>
+      <c r="LC54" s="91">
+        <v>1</v>
+      </c>
+      <c r="LH54" s="91">
         <v>1</v>
       </c>
       <c r="MQ54" s="22" t="s">
@@ -15339,16 +16355,12 @@
       <c r="EQ58" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="KS58" s="97"/>
-      <c r="KX58" s="97"/>
       <c r="KY58" s="22">
         <v>3</v>
       </c>
-      <c r="LC58" s="97"/>
       <c r="LD58" s="22">
         <v>2</v>
       </c>
-      <c r="LH58" s="97"/>
       <c r="LI58" s="22">
         <v>1</v>
       </c>
@@ -15391,25 +16403,25 @@
       <c r="ER59" s="59">
         <v>7</v>
       </c>
-      <c r="KS59" s="95"/>
-      <c r="KX59" s="95"/>
-      <c r="LC59" s="95"/>
-      <c r="LH59" s="95"/>
-      <c r="LN59" s="98"/>
-      <c r="LO59" s="98">
-        <v>2</v>
-      </c>
-      <c r="LP59" s="98">
-        <v>1</v>
-      </c>
-      <c r="LS59" s="98"/>
-      <c r="LT59" s="98"/>
-      <c r="LU59" s="98">
-        <v>2</v>
-      </c>
-      <c r="LX59" s="98"/>
-      <c r="LY59" s="98"/>
-      <c r="LZ59" s="98"/>
+      <c r="KS59" s="90"/>
+      <c r="KX59" s="90"/>
+      <c r="LC59" s="90"/>
+      <c r="LH59" s="90"/>
+      <c r="LN59" s="92"/>
+      <c r="LO59" s="92">
+        <v>2</v>
+      </c>
+      <c r="LP59" s="92">
+        <v>1</v>
+      </c>
+      <c r="LS59" s="92"/>
+      <c r="LT59" s="92"/>
+      <c r="LU59" s="92">
+        <v>2</v>
+      </c>
+      <c r="LX59" s="92"/>
+      <c r="LY59" s="92"/>
+      <c r="LZ59" s="92"/>
       <c r="MQ59" s="22" t="s">
         <v>770</v>
       </c>
@@ -15449,12 +16461,12 @@
         <v>509</v>
       </c>
       <c r="EP60" s="23"/>
-      <c r="KS60" s="95">
+      <c r="KS60" s="90">
         <v>3</v>
       </c>
-      <c r="KX60" s="95"/>
-      <c r="LC60" s="95"/>
-      <c r="LH60" s="95"/>
+      <c r="KX60" s="90"/>
+      <c r="LC60" s="90"/>
+      <c r="LH60" s="90"/>
       <c r="LV60" s="22">
         <v>1</v>
       </c>
@@ -15476,14 +16488,14 @@
       <c r="EP61" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="KS61" s="95">
-        <v>2</v>
-      </c>
-      <c r="KX61" s="95">
-        <v>2</v>
-      </c>
-      <c r="LC61" s="95"/>
-      <c r="LH61" s="95"/>
+      <c r="KS61" s="90">
+        <v>2</v>
+      </c>
+      <c r="KX61" s="90">
+        <v>2</v>
+      </c>
+      <c r="LC61" s="90"/>
+      <c r="LH61" s="90"/>
       <c r="MQ61" s="22" t="s">
         <v>771</v>
       </c>
@@ -15510,16 +16522,16 @@
       <c r="EL62" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="KS62" s="96">
-        <v>1</v>
-      </c>
-      <c r="KX62" s="96">
-        <v>1</v>
-      </c>
-      <c r="LC62" s="96">
-        <v>1</v>
-      </c>
-      <c r="LH62" s="96"/>
+      <c r="KS62" s="91">
+        <v>1</v>
+      </c>
+      <c r="KX62" s="91">
+        <v>1</v>
+      </c>
+      <c r="LC62" s="91">
+        <v>1</v>
+      </c>
+      <c r="LH62" s="91"/>
       <c r="MY62" s="22" t="s">
         <v>777</v>
       </c>
@@ -15535,6 +16547,9 @@
       </c>
     </row>
     <row r="65" spans="142:363">
+      <c r="KR65" s="22" t="s">
+        <v>802</v>
+      </c>
       <c r="MY65" s="22" t="s">
         <v>788</v>
       </c>
@@ -15581,6 +16596,51 @@
       <c r="ER67" s="59">
         <v>7</v>
       </c>
+      <c r="KR67" s="23">
+        <v>1</v>
+      </c>
+      <c r="KS67" s="23">
+        <v>2</v>
+      </c>
+      <c r="KT67" s="23">
+        <v>3</v>
+      </c>
+      <c r="KU67" s="23">
+        <v>4</v>
+      </c>
+      <c r="KV67" s="23">
+        <v>5</v>
+      </c>
+      <c r="KW67" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="KY67" s="22">
+        <v>1</v>
+      </c>
+      <c r="KZ67" s="22">
+        <v>2</v>
+      </c>
+      <c r="LA67" s="22">
+        <v>3</v>
+      </c>
+      <c r="LB67" s="22">
+        <v>4</v>
+      </c>
+      <c r="LC67" s="22">
+        <v>5</v>
+      </c>
+      <c r="LD67" s="22">
+        <v>6</v>
+      </c>
+      <c r="LE67" s="22">
+        <v>7</v>
+      </c>
+      <c r="LF67" s="22">
+        <v>8</v>
+      </c>
+      <c r="LG67" s="22">
+        <v>9</v>
+      </c>
       <c r="MQ67" s="22" t="s">
         <v>770</v>
       </c>
@@ -15602,6 +16662,18 @@
         <v>509</v>
       </c>
       <c r="EP68" s="23"/>
+      <c r="KS68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="KU68" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="LA68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LE68" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="MO68" s="22" t="s">
         <v>784</v>
       </c>
@@ -15613,6 +16685,15 @@
       <c r="EP69" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="KZ69" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="LL69" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="LP69" s="22" t="s">
+        <v>857</v>
+      </c>
       <c r="MQ69" s="22" t="s">
         <v>771</v>
       </c>
@@ -15633,6 +16714,21 @@
       <c r="EL70" s="26" t="s">
         <v>516</v>
       </c>
+      <c r="KR70" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="KY70" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="LL70" s="22">
+        <v>2</v>
+      </c>
+      <c r="LP70" s="22">
+        <v>6</v>
+      </c>
+      <c r="LR70" s="22">
+        <v>8</v>
+      </c>
       <c r="MY70" s="22" t="s">
         <v>777</v>
       </c>
@@ -15641,18 +16737,116 @@
       <c r="EQ71" s="41" t="s">
         <v>517</v>
       </c>
+      <c r="KS71" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="KU71" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="KY71" s="22">
+        <v>1</v>
+      </c>
+      <c r="KZ71" s="22">
+        <v>2</v>
+      </c>
+      <c r="LA71" s="22">
+        <v>3</v>
+      </c>
+      <c r="LB71" s="22">
+        <v>4</v>
+      </c>
+      <c r="LC71" s="22">
+        <v>5</v>
+      </c>
+      <c r="LD71" s="22">
+        <v>6</v>
+      </c>
+      <c r="LE71" s="22">
+        <v>7</v>
+      </c>
+      <c r="LF71" s="22">
+        <v>8</v>
+      </c>
+      <c r="LG71" s="22">
+        <v>9</v>
+      </c>
       <c r="MY71" s="22" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="72" spans="142:363">
+      <c r="LA72" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LE72" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="MY72" s="22" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="73" spans="142:363">
+      <c r="KZ73" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="LK73" s="22">
+        <v>1</v>
+      </c>
+      <c r="LL73" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM73" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN73" s="22">
+        <v>4</v>
+      </c>
+      <c r="LO73" s="22">
+        <v>5</v>
+      </c>
+      <c r="LP73" s="22">
+        <v>6</v>
+      </c>
+      <c r="LQ73" s="22">
+        <v>7</v>
+      </c>
+      <c r="LR73" s="22">
+        <v>8</v>
+      </c>
+      <c r="LS73" s="22">
+        <v>9</v>
+      </c>
       <c r="MY73" s="22" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="74" spans="142:363">
+      <c r="KZ74" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="LK74" s="22">
+        <v>1</v>
+      </c>
+      <c r="LL74" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM74" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN74" s="22">
+        <v>4</v>
+      </c>
+      <c r="LO74" s="22">
+        <v>5</v>
+      </c>
+      <c r="LP74" s="22">
+        <v>6</v>
+      </c>
+      <c r="LR74" s="22">
+        <v>8</v>
+      </c>
+      <c r="LS74" s="22">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="142:363" ht="14.4">
@@ -15674,6 +16868,18 @@
       <c r="EQ75" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="KY75" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="LQ75" s="22">
+        <v>7</v>
+      </c>
+      <c r="LR75" s="22">
+        <v>8</v>
+      </c>
+      <c r="LS75" s="22">
+        <v>9</v>
+      </c>
       <c r="MQ75" s="22" t="s">
         <v>770</v>
       </c>
@@ -15711,6 +16917,57 @@
       </c>
       <c r="ER76" s="59">
         <v>7</v>
+      </c>
+      <c r="KY76" s="22">
+        <v>1</v>
+      </c>
+      <c r="KZ76" s="22">
+        <v>2</v>
+      </c>
+      <c r="LA76" s="22">
+        <v>3</v>
+      </c>
+      <c r="LB76" s="22">
+        <v>4</v>
+      </c>
+      <c r="LC76" s="22">
+        <v>5</v>
+      </c>
+      <c r="LD76" s="22">
+        <v>6</v>
+      </c>
+      <c r="LE76" s="22">
+        <v>7</v>
+      </c>
+      <c r="LF76" s="22">
+        <v>8</v>
+      </c>
+      <c r="LG76" s="22">
+        <v>9</v>
+      </c>
+      <c r="LK76" s="22">
+        <v>1</v>
+      </c>
+      <c r="LL76" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM76" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN76" s="22">
+        <v>4</v>
+      </c>
+      <c r="LO76" s="22">
+        <v>5</v>
+      </c>
+      <c r="LP76" s="22">
+        <v>6</v>
+      </c>
+      <c r="LQ76" s="22">
+        <v>8</v>
+      </c>
+      <c r="LR76" s="22">
+        <v>9</v>
       </c>
       <c r="MO76" s="22" t="s">
         <v>785</v>
@@ -15724,6 +16981,15 @@
         <v>509</v>
       </c>
       <c r="EP77" s="23"/>
+      <c r="LA77" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LE77" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="LM77" s="22">
+        <v>7</v>
+      </c>
       <c r="MQ77" s="22" t="s">
         <v>771</v>
       </c>
@@ -15744,6 +17010,36 @@
       <c r="EP78" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="KZ78" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="LK78" s="22">
+        <v>1</v>
+      </c>
+      <c r="LL78" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM78" s="22">
+        <v>7</v>
+      </c>
+      <c r="LN78" s="22">
+        <v>3</v>
+      </c>
+      <c r="LO78" s="22">
+        <v>4</v>
+      </c>
+      <c r="LP78" s="22">
+        <v>5</v>
+      </c>
+      <c r="LQ78" s="22">
+        <v>6</v>
+      </c>
+      <c r="LR78" s="22">
+        <v>8</v>
+      </c>
+      <c r="LS78" s="22">
+        <v>9</v>
+      </c>
       <c r="MY78" s="22" t="s">
         <v>777</v>
       </c>
@@ -15752,6 +17048,9 @@
       <c r="EL79" s="26" t="s">
         <v>516</v>
       </c>
+      <c r="LD79" s="22" t="s">
+        <v>804</v>
+      </c>
       <c r="MY79" s="22" t="s">
         <v>778</v>
       </c>
@@ -15760,11 +17059,68 @@
       <c r="EO80" s="41" t="s">
         <v>517</v>
       </c>
+      <c r="KY80" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="LD80" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="LJ80" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK80" s="22">
+        <v>2</v>
+      </c>
+      <c r="LL80" s="22">
+        <v>3</v>
+      </c>
+      <c r="LM80" s="22">
+        <v>4</v>
+      </c>
+      <c r="LN80" s="22">
+        <v>5</v>
+      </c>
       <c r="MY80" s="22" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="81" spans="142:363">
+      <c r="JE81" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="JO81" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="KD81" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="KG81" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="KJ81" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="KY81" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="LF81" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="LJ81" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK81" s="22">
+        <v>4</v>
+      </c>
+      <c r="LL81" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM81" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN81" s="22">
+        <v>5</v>
+      </c>
       <c r="MY81" s="22" t="s">
         <v>788</v>
       </c>
@@ -15788,6 +17144,30 @@
       <c r="EQ82" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="JO82" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="KY82" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="LE82" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="LJ82" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK82" s="22">
+        <v>4</v>
+      </c>
+      <c r="LL82" s="22">
+        <v>3</v>
+      </c>
+      <c r="LM82" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN82" s="22">
+        <v>5</v>
+      </c>
       <c r="MY82" s="22" t="s">
         <v>791</v>
       </c>
@@ -15813,6 +17193,21 @@
       </c>
       <c r="ER83" s="59">
         <v>7</v>
+      </c>
+      <c r="JO83" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="JV83" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="KH83" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="KY83" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="LD83" s="22" t="s">
+        <v>850</v>
       </c>
       <c r="MW83" s="22" t="s">
         <v>792</v>
@@ -15822,21 +17217,146 @@
       <c r="EP84" s="40" t="s">
         <v>509</v>
       </c>
+      <c r="KY84" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="LE84" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="LK84" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="LL84" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM84" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN84" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="142:363">
       <c r="EP85" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="JO85" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="KQ85" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="KY85" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="LK85" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="LL85" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="142:363">
       <c r="EL86" s="26" t="s">
         <v>514</v>
       </c>
+      <c r="JO86" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="KI86" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="KK86" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="KQ86" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="KY86" s="22">
+        <v>1</v>
+      </c>
+      <c r="KZ86" s="22">
+        <v>2</v>
+      </c>
+      <c r="LA86" s="22">
+        <v>7</v>
+      </c>
+      <c r="LB86" s="22">
+        <v>3</v>
+      </c>
+      <c r="LC86" s="22">
+        <v>4</v>
+      </c>
+      <c r="LD86" s="22">
+        <v>5</v>
+      </c>
+      <c r="LE86" s="22">
+        <v>6</v>
+      </c>
+      <c r="LF86" s="22">
+        <v>8</v>
+      </c>
+      <c r="LG86" s="22">
+        <v>9</v>
+      </c>
+      <c r="LK86" s="22" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="87" spans="142:363" ht="14.4">
       <c r="EP87" s="41" t="s">
         <v>517</v>
       </c>
+      <c r="JO87" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="KL87" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="LB87" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LE87" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="LL87" s="22">
+        <v>4</v>
+      </c>
+      <c r="LM87" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN87" s="22">
+        <v>3</v>
+      </c>
+      <c r="LO87" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="142:363">
+      <c r="JO88" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="JV88" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="KB88" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="KD88" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="KL88" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="KO88" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="KQ88" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="LA88" s="22" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="89" spans="142:363" ht="14.4">
       <c r="EL89" s="30" t="s">
@@ -15857,6 +17377,27 @@
       <c r="EQ89" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="JO89" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="KL89" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="KO89" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="LA89" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="LK89" s="22">
+        <v>1</v>
+      </c>
+      <c r="LL89" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM89" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="142:363">
       <c r="EL90" s="59">
@@ -15879,6 +17420,18 @@
       </c>
       <c r="ER90" s="59">
         <v>7</v>
+      </c>
+      <c r="JO90" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="KY90" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="LK90" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LM90" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="142:363">
@@ -15886,21 +17439,119 @@
       <c r="EQ91" s="40" t="s">
         <v>509</v>
       </c>
+      <c r="JO91" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="KL91" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="KY91" s="22">
+        <v>1</v>
+      </c>
+      <c r="KZ91" s="22">
+        <v>2</v>
+      </c>
+      <c r="LA91" s="22">
+        <v>7</v>
+      </c>
+      <c r="LB91" s="22">
+        <v>3</v>
+      </c>
+      <c r="LC91" s="22">
+        <v>4</v>
+      </c>
+      <c r="LD91" s="22">
+        <v>5</v>
+      </c>
+      <c r="LE91" s="22">
+        <v>6</v>
+      </c>
+      <c r="LF91" s="22">
+        <v>8</v>
+      </c>
+      <c r="LG91" s="22">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="142:363">
       <c r="EP92" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="JO92" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="KL92" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="LA92" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="LE92" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="LK92" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="LL92" s="22">
+        <v>1</v>
+      </c>
+      <c r="LM92" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN92" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="142:363">
       <c r="EL93" s="26" t="s">
         <v>219</v>
       </c>
+      <c r="KE93" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="KO93" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="LA93" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="LK93" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="LL93" s="22">
+        <v>2</v>
+      </c>
+      <c r="LM93" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="142:363" ht="14.4">
       <c r="EQ94" s="41" t="s">
         <v>517</v>
       </c>
+      <c r="KO94" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="LD94" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="LK94" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="95" spans="142:363">
+      <c r="KP95" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="KS95" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="KY95" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="LL95" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="142:363" ht="14.4">
       <c r="EL96" s="30" t="s">
@@ -15921,8 +17572,11 @@
       <c r="EQ96" s="30" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="97" spans="142:148">
+      <c r="KY96" s="22" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="97" spans="142:311">
       <c r="EL97" s="59">
         <v>1</v>
       </c>
@@ -15944,12 +17598,82 @@
       <c r="ER97" s="59">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="142:148">
+      <c r="JV97" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="KY97" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="98" spans="142:311">
       <c r="EP98" s="23"/>
       <c r="EQ98" s="23"/>
       <c r="ER98" s="40" t="s">
         <v>509</v>
+      </c>
+      <c r="KO98" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="KS98" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="KY98" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="99" spans="142:311">
+      <c r="KO99" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="KY99" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="100" spans="142:311">
+      <c r="KP100" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="KY100" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="102" spans="142:311">
+      <c r="KH102" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="KO102" s="22" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="103" spans="142:311">
+      <c r="KO103" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="KS103" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="KU103" s="33" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="104" spans="142:311">
+      <c r="KP104" s="22" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" spans="142:311">
+      <c r="KS105" s="22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="107" spans="142:311">
+      <c r="KS107" s="22" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="108" spans="142:311">
+      <c r="KS108" s="22" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -15960,6 +17684,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EA399-27D2-4F7F-A103-FC38D054F748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77C522-85DC-494A-848A-5B59602638F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="879">
   <si>
     <t>*</t>
   </si>
@@ -3075,6 +3075,63 @@
   </si>
   <si>
     <t>pre</t>
+  </si>
+  <si>
+    <t>p.next = n</t>
+  </si>
+  <si>
+    <t>c.next = p</t>
+  </si>
+  <si>
+    <t>p = c</t>
+  </si>
+  <si>
+    <t>c = p.next</t>
+  </si>
+  <si>
+    <t>n = c.next</t>
+  </si>
+  <si>
+    <t>p = p.next.next</t>
+  </si>
+  <si>
+    <t>3456</t>
+  </si>
+  <si>
+    <t>13456</t>
+  </si>
+  <si>
+    <t>213456</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>4356</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>c != null</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>---Add if c.next != null else break</t>
+  </si>
+  <si>
+    <t>---Add if p.next != null else break</t>
   </si>
 </sst>
 </file>
@@ -3582,7 +3639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3769,6 +3826,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9761,8 +9819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
   <dimension ref="A1:OZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KO66" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="LE87" sqref="LE87"/>
+    <sheetView tabSelected="1" topLeftCell="LF90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="ML92" sqref="ML92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16781,6 +16839,40 @@
       <c r="LE72" s="22" t="s">
         <v>133</v>
       </c>
+      <c r="LY72" s="23"/>
+      <c r="LZ72" s="23">
+        <v>1</v>
+      </c>
+      <c r="MA72" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MB72" s="23">
+        <v>2</v>
+      </c>
+      <c r="MC72" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MD72" s="23">
+        <v>3</v>
+      </c>
+      <c r="ME72" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MF72" s="23">
+        <v>4</v>
+      </c>
+      <c r="MG72" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MH72" s="23">
+        <v>5</v>
+      </c>
+      <c r="MI72" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MJ72" s="23">
+        <v>6</v>
+      </c>
       <c r="MY72" s="22" t="s">
         <v>789</v>
       </c>
@@ -16816,6 +16908,24 @@
       <c r="LS73" s="22">
         <v>9</v>
       </c>
+      <c r="LY73" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="LZ73" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="MA73" s="23"/>
+      <c r="MB73" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="MC73" s="23"/>
+      <c r="MD73" s="23"/>
+      <c r="ME73" s="23"/>
+      <c r="MF73" s="23"/>
+      <c r="MG73" s="23"/>
+      <c r="MH73" s="23"/>
+      <c r="MI73" s="23"/>
+      <c r="MJ73" s="23"/>
       <c r="MY73" s="22" t="s">
         <v>788</v>
       </c>
@@ -16880,6 +16990,40 @@
       <c r="LS75" s="22">
         <v>9</v>
       </c>
+      <c r="LY75" s="23"/>
+      <c r="LZ75" s="23">
+        <v>1</v>
+      </c>
+      <c r="MA75" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MB75" s="23">
+        <v>2</v>
+      </c>
+      <c r="MC75" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MD75" s="23">
+        <v>3</v>
+      </c>
+      <c r="ME75" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MF75" s="23">
+        <v>4</v>
+      </c>
+      <c r="MG75" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MH75" s="23">
+        <v>5</v>
+      </c>
+      <c r="MI75" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MJ75" s="23">
+        <v>6</v>
+      </c>
       <c r="MQ75" s="22" t="s">
         <v>770</v>
       </c>
@@ -16969,6 +17113,23 @@
       <c r="LR76" s="22">
         <v>9</v>
       </c>
+      <c r="LY76" s="23"/>
+      <c r="LZ76" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="MB76" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="MC76" s="23"/>
+      <c r="MD76" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="ME76" s="23"/>
+      <c r="MF76" s="23"/>
+      <c r="MG76" s="23"/>
+      <c r="MH76" s="23"/>
+      <c r="MI76" s="23"/>
+      <c r="MJ76" s="23"/>
       <c r="MO76" s="22" t="s">
         <v>785</v>
       </c>
@@ -16990,6 +17151,9 @@
       <c r="LM77" s="22">
         <v>7</v>
       </c>
+      <c r="LZ77" s="22" t="s">
+        <v>874</v>
+      </c>
       <c r="MQ77" s="22" t="s">
         <v>771</v>
       </c>
@@ -17040,6 +17204,12 @@
       <c r="LS78" s="22">
         <v>9</v>
       </c>
+      <c r="LZ78" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="MD78" s="33" t="s">
+        <v>866</v>
+      </c>
       <c r="MY78" s="22" t="s">
         <v>777</v>
       </c>
@@ -17051,6 +17221,12 @@
       <c r="LD79" s="22" t="s">
         <v>804</v>
       </c>
+      <c r="LZ79" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="MD79" s="33" t="s">
+        <v>867</v>
+      </c>
       <c r="MY79" s="22" t="s">
         <v>778</v>
       </c>
@@ -17080,6 +17256,12 @@
       <c r="LN80" s="22">
         <v>5</v>
       </c>
+      <c r="LZ80" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="MD80" s="33" t="s">
+        <v>868</v>
+      </c>
       <c r="MY80" s="22" t="s">
         <v>790</v>
       </c>
@@ -17121,6 +17303,12 @@
       <c r="LN81" s="22">
         <v>5</v>
       </c>
+      <c r="LZ81" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="MD81" s="33" t="s">
+        <v>868</v>
+      </c>
       <c r="MY81" s="22" t="s">
         <v>788</v>
       </c>
@@ -17168,6 +17356,12 @@
       <c r="LN82" s="22">
         <v>5</v>
       </c>
+      <c r="LZ82" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD82" s="33" t="s">
+        <v>867</v>
+      </c>
       <c r="MY82" s="22" t="s">
         <v>791</v>
       </c>
@@ -17208,6 +17402,12 @@
       </c>
       <c r="LD83" s="22" t="s">
         <v>850</v>
+      </c>
+      <c r="LZ83" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="MD83" s="33" t="s">
+        <v>866</v>
       </c>
       <c r="MW83" s="22" t="s">
         <v>792</v>
@@ -17235,6 +17435,12 @@
       <c r="LN84" s="22">
         <v>5</v>
       </c>
+      <c r="LZ84" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD84" s="33" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="85" spans="142:363">
       <c r="EP85" s="40" t="s">
@@ -17255,6 +17461,39 @@
       <c r="LL85" s="22">
         <v>4</v>
       </c>
+      <c r="LZ85" s="23">
+        <v>2</v>
+      </c>
+      <c r="MA85" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MB85" s="23">
+        <v>1</v>
+      </c>
+      <c r="MC85" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MD85" s="23">
+        <v>3</v>
+      </c>
+      <c r="ME85" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MF85" s="23">
+        <v>4</v>
+      </c>
+      <c r="MG85" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MH85" s="23">
+        <v>5</v>
+      </c>
+      <c r="MI85" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MJ85" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="86" spans="142:363">
       <c r="EL86" s="26" t="s">
@@ -17302,6 +17541,18 @@
       <c r="LK86" s="22" t="s">
         <v>856</v>
       </c>
+      <c r="MD86" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="MF86" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="MG86" s="23"/>
+      <c r="MH86" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="MI86" s="23"/>
+      <c r="MJ86" s="23"/>
     </row>
     <row r="87" spans="142:363" ht="14.4">
       <c r="EP87" s="41" t="s">
@@ -17331,6 +17582,9 @@
       <c r="LO87" s="22">
         <v>5</v>
       </c>
+      <c r="LZ87" s="22" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="88" spans="142:363">
       <c r="JO88" s="22" t="s">
@@ -17357,6 +17611,12 @@
       <c r="LA88" s="22" t="s">
         <v>841</v>
       </c>
+      <c r="LZ88" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="MD88" s="98">
+        <v>56</v>
+      </c>
     </row>
     <row r="89" spans="142:363" ht="14.4">
       <c r="EL89" s="30" t="s">
@@ -17398,6 +17658,12 @@
       <c r="LM89" s="22">
         <v>3</v>
       </c>
+      <c r="LZ89" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="MD89" s="98" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="90" spans="142:363">
       <c r="EL90" s="59">
@@ -17432,6 +17698,12 @@
       </c>
       <c r="LM90" s="22" t="s">
         <v>133</v>
+      </c>
+      <c r="LZ90" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="MD90" s="98" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="142:363">
@@ -17472,6 +17744,12 @@
       <c r="LG91" s="22">
         <v>9</v>
       </c>
+      <c r="LZ91" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="MD91" s="98" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="92" spans="142:363">
       <c r="EP92" s="40" t="s">
@@ -17501,6 +17779,12 @@
       <c r="LN92" s="22">
         <v>3</v>
       </c>
+      <c r="LZ92" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD92" s="98" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="93" spans="142:363">
       <c r="EL93" s="26" t="s">
@@ -17524,6 +17808,12 @@
       <c r="LM93" s="22">
         <v>3</v>
       </c>
+      <c r="LZ93" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="MD93" s="98" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="94" spans="142:363" ht="14.4">
       <c r="EQ94" s="41" t="s">
@@ -17538,6 +17828,12 @@
       <c r="LK94" s="22" t="s">
         <v>858</v>
       </c>
+      <c r="LZ94" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD94" s="98" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="95" spans="142:363">
       <c r="KP95" s="22" t="s">
@@ -17552,6 +17848,42 @@
       <c r="LL95" s="22">
         <v>3</v>
       </c>
+      <c r="LZ95" s="23">
+        <v>2</v>
+      </c>
+      <c r="MA95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MB95" s="23">
+        <v>1</v>
+      </c>
+      <c r="MC95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MD95" s="23">
+        <v>3</v>
+      </c>
+      <c r="ME95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MF95" s="23">
+        <v>4</v>
+      </c>
+      <c r="MG95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MH95" s="23">
+        <v>5</v>
+      </c>
+      <c r="MI95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="MJ95" s="23">
+        <v>6</v>
+      </c>
+      <c r="ML95" s="22" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="96" spans="142:363" ht="14.4">
       <c r="EL96" s="30" t="s">
@@ -17575,8 +17907,18 @@
       <c r="KY96" s="22" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="97" spans="142:311">
+      <c r="MH96" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="MJ96" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="MK96" s="23"/>
+      <c r="ML96" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="142:343">
       <c r="EL97" s="59">
         <v>1</v>
       </c>
@@ -17604,8 +17946,11 @@
       <c r="KY97" s="22" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="98" spans="142:311">
+      <c r="LZ97" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="98" spans="142:343">
       <c r="EP98" s="23"/>
       <c r="EQ98" s="23"/>
       <c r="ER98" s="40" t="s">
@@ -17620,32 +17965,64 @@
       <c r="KY98" s="22" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="99" spans="142:311">
+      <c r="LZ98" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="MD98" s="98" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="99" spans="142:343">
       <c r="KO99" s="22" t="s">
         <v>818</v>
       </c>
       <c r="KY99" s="22" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="100" spans="142:311">
+      <c r="LZ99" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="MD99" s="98" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="100" spans="142:343">
       <c r="KP100" s="22" t="s">
         <v>819</v>
       </c>
       <c r="KY100" s="22" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="102" spans="142:311">
+      <c r="LZ100" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="MD100" s="98" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="101" spans="142:343">
+      <c r="LZ101" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="MD101" s="98" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="102" spans="142:343">
       <c r="KH102" s="22" t="s">
         <v>807</v>
       </c>
       <c r="KO102" s="22" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="103" spans="142:311">
+      <c r="LZ102" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD102" s="98" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="103" spans="142:343">
       <c r="KO103" s="22" t="s">
         <v>818</v>
       </c>
@@ -17655,23 +18032,41 @@
       <c r="KU103" s="33" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="104" spans="142:311">
+      <c r="LZ103" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="MD103" s="98" t="s">
+        <v>721</v>
+      </c>
+      <c r="ME103" s="33" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="104" spans="142:343">
       <c r="KP104" s="22" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="105" spans="142:311">
+      <c r="LZ104" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="MD104" s="98" t="s">
+        <v>721</v>
+      </c>
+      <c r="ME104" s="33" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="105" spans="142:343">
       <c r="KS105" s="22" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="107" spans="142:311">
+    <row r="107" spans="142:343">
       <c r="KS107" s="22" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="108" spans="142:311">
+    <row r="108" spans="142:343">
       <c r="KS108" s="22" t="s">
         <v>833</v>
       </c>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77C522-85DC-494A-848A-5B59602638F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584A2FE-FE9E-434B-9321-A5F6B5D902C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="879">
   <si>
     <t>*</t>
   </si>
@@ -3811,6 +3811,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3826,7 +3827,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6907,11 +6907,11 @@
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="P3" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
+      <c r="P3" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
       <c r="T3">
         <v>1</v>
       </c>
@@ -8230,21 +8230,21 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="28.8" customHeight="1">
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
     </row>
     <row r="19" spans="3:20">
       <c r="D19" s="6" t="s">
@@ -8314,17 +8314,17 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="28.8" customHeight="1">
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
     </row>
     <row r="31" spans="3:20">
       <c r="G31" s="6" t="s">
@@ -9820,7 +9820,7 @@
   <dimension ref="A1:OZ108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="LF90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="ML92" sqref="ML92"/>
+      <selection activeCell="LJ98" sqref="LJ98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10625,12 +10625,12 @@
       <c r="FE6" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="FM6" s="95" t="s">
+      <c r="FM6" s="96" t="s">
         <v>552</v>
       </c>
-      <c r="FN6" s="95"/>
-      <c r="FO6" s="95"/>
-      <c r="FP6" s="95"/>
+      <c r="FN6" s="96"/>
+      <c r="FO6" s="96"/>
+      <c r="FP6" s="96"/>
       <c r="FX6" s="22" t="s">
         <v>401</v>
       </c>
@@ -10671,10 +10671,10 @@
         <v>630</v>
       </c>
       <c r="IJ6" s="50"/>
-      <c r="IK6" s="96" t="s">
+      <c r="IK6" s="97" t="s">
         <v>628</v>
       </c>
-      <c r="IL6" s="96"/>
+      <c r="IL6" s="97"/>
       <c r="IM6" s="50"/>
       <c r="IN6" s="50"/>
       <c r="IO6" s="50"/>
@@ -10913,10 +10913,10 @@
       <c r="EV7" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="FM7" s="95"/>
-      <c r="FN7" s="95"/>
-      <c r="FO7" s="95"/>
-      <c r="FP7" s="95"/>
+      <c r="FM7" s="96"/>
+      <c r="FN7" s="96"/>
+      <c r="FO7" s="96"/>
+      <c r="FP7" s="96"/>
       <c r="FZ7" s="22" t="s">
         <v>555</v>
       </c>
@@ -12971,11 +12971,11 @@
         <v>632</v>
       </c>
       <c r="IJ16" s="50"/>
-      <c r="IK16" s="96" t="s">
+      <c r="IK16" s="97" t="s">
         <v>633</v>
       </c>
-      <c r="IL16" s="96"/>
-      <c r="IM16" s="97"/>
+      <c r="IL16" s="97"/>
+      <c r="IM16" s="98"/>
       <c r="JC16" s="22" t="s">
         <v>395</v>
       </c>
@@ -17614,7 +17614,7 @@
       <c r="LZ88" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="MD88" s="98">
+      <c r="MD88" s="93">
         <v>56</v>
       </c>
     </row>
@@ -17661,7 +17661,7 @@
       <c r="LZ89" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="MD89" s="98" t="s">
+      <c r="MD89" s="93" t="s">
         <v>870</v>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="LZ90" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="MD90" s="98" t="s">
+      <c r="MD90" s="93" t="s">
         <v>871</v>
       </c>
     </row>
@@ -17747,7 +17747,7 @@
       <c r="LZ91" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="MD91" s="98" t="s">
+      <c r="MD91" s="93" t="s">
         <v>871</v>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       <c r="LZ92" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="MD92" s="98" t="s">
+      <c r="MD92" s="93" t="s">
         <v>870</v>
       </c>
     </row>
@@ -17811,7 +17811,7 @@
       <c r="LZ93" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="MD93" s="98" t="s">
+      <c r="MD93" s="93" t="s">
         <v>872</v>
       </c>
     </row>
@@ -17831,7 +17831,7 @@
       <c r="LZ94" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="MD94" s="98" t="s">
+      <c r="MD94" s="93" t="s">
         <v>873</v>
       </c>
     </row>
@@ -17907,6 +17907,12 @@
       <c r="KY96" s="22" t="s">
         <v>845</v>
       </c>
+      <c r="LJ96" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="LN96" s="22" t="s">
+        <v>509</v>
+      </c>
       <c r="MH96" s="23" t="s">
         <v>725</v>
       </c>
@@ -17945,6 +17951,21 @@
       </c>
       <c r="KY97" s="22" t="s">
         <v>847</v>
+      </c>
+      <c r="LJ97" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK97" s="22">
+        <v>5</v>
+      </c>
+      <c r="LL97" s="22">
+        <v>3</v>
+      </c>
+      <c r="LM97" s="22">
+        <v>4</v>
+      </c>
+      <c r="LN97" s="22">
+        <v>2</v>
       </c>
       <c r="LZ97" s="22" t="s">
         <v>874</v>
@@ -17965,10 +17986,16 @@
       <c r="KY98" s="22" t="s">
         <v>849</v>
       </c>
+      <c r="LK98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="LM98" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="LZ98" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="MD98" s="98" t="s">
+      <c r="MD98" s="93" t="s">
         <v>721</v>
       </c>
     </row>
@@ -17979,10 +18006,22 @@
       <c r="KY99" s="22" t="s">
         <v>851</v>
       </c>
+      <c r="LJ99" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK99" s="22">
+        <v>5</v>
+      </c>
+      <c r="LN99" s="22">
+        <v>1</v>
+      </c>
+      <c r="LO99" s="22">
+        <v>2</v>
+      </c>
       <c r="LZ99" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="MD99" s="98" t="s">
+      <c r="MD99" s="93" t="s">
         <v>875</v>
       </c>
     </row>
@@ -17993,18 +18032,42 @@
       <c r="KY100" s="22" t="s">
         <v>853</v>
       </c>
+      <c r="LJ100" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK100" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN100" s="22">
+        <v>1</v>
+      </c>
+      <c r="LO100" s="22">
+        <v>4</v>
+      </c>
       <c r="LZ100" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="MD100" s="98" t="s">
+      <c r="MD100" s="93" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="101" spans="142:343">
+      <c r="LJ101" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK101" s="22">
+        <v>4</v>
+      </c>
+      <c r="LN101" s="22">
+        <v>2</v>
+      </c>
+      <c r="LO101" s="22">
+        <v>5</v>
+      </c>
       <c r="LZ101" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="MD101" s="98" t="s">
+      <c r="MD101" s="93" t="s">
         <v>876</v>
       </c>
     </row>
@@ -18015,10 +18078,22 @@
       <c r="KO102" s="22" t="s">
         <v>814</v>
       </c>
+      <c r="LJ102" s="22">
+        <v>1</v>
+      </c>
+      <c r="LK102" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN102" s="22">
+        <v>1</v>
+      </c>
+      <c r="LO102" s="22">
+        <v>3</v>
+      </c>
       <c r="LZ102" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="MD102" s="98" t="s">
+      <c r="MD102" s="93" t="s">
         <v>875</v>
       </c>
     </row>
@@ -18032,10 +18107,22 @@
       <c r="KU103" s="33" t="s">
         <v>831</v>
       </c>
+      <c r="LJ103" s="22">
+        <v>5</v>
+      </c>
+      <c r="LK103" s="22">
+        <v>3</v>
+      </c>
+      <c r="LN103" s="22">
+        <v>2</v>
+      </c>
+      <c r="LO103" s="22">
+        <v>3</v>
+      </c>
       <c r="LZ103" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="MD103" s="98" t="s">
+      <c r="MD103" s="93" t="s">
         <v>721</v>
       </c>
       <c r="ME103" s="33" t="s">
@@ -18046,10 +18133,22 @@
       <c r="KP104" s="22" t="s">
         <v>820</v>
       </c>
+      <c r="LJ104" s="22">
+        <v>5</v>
+      </c>
+      <c r="LK104" s="22">
+        <v>4</v>
+      </c>
+      <c r="LN104" s="22">
+        <v>5</v>
+      </c>
+      <c r="LO104" s="22">
+        <v>4</v>
+      </c>
       <c r="LZ104" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="MD104" s="98" t="s">
+      <c r="MD104" s="93" t="s">
         <v>721</v>
       </c>
       <c r="ME104" s="33" t="s">
@@ -18060,15 +18159,65 @@
       <c r="KS105" s="22" t="s">
         <v>830</v>
       </c>
+      <c r="LJ105" s="22">
+        <v>5</v>
+      </c>
+      <c r="LK105" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN105" s="22">
+        <v>5</v>
+      </c>
+      <c r="LO105" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="142:343">
+      <c r="LJ106" s="22">
+        <v>3</v>
+      </c>
+      <c r="LK106" s="22">
+        <v>4</v>
+      </c>
+      <c r="LN106" s="22">
+        <v>4</v>
+      </c>
+      <c r="LO106" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="142:343">
       <c r="KS107" s="22" t="s">
         <v>832</v>
       </c>
+      <c r="LJ107" s="22">
+        <v>3</v>
+      </c>
+      <c r="LK107" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN107" s="22">
+        <v>1</v>
+      </c>
+      <c r="LO107" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="142:343">
       <c r="KS108" s="22" t="s">
         <v>833</v>
+      </c>
+      <c r="LJ108" s="22">
+        <v>4</v>
+      </c>
+      <c r="LK108" s="22">
+        <v>2</v>
+      </c>
+      <c r="LN108" s="22">
+        <v>2</v>
+      </c>
+      <c r="LO108" s="22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Reference_OR_Notes/psCodeWithExample.xlsx
+++ b/Reference_OR_Notes/psCodeWithExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET Practice\SDETBatch4Team2\Reference_OR_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584A2FE-FE9E-434B-9321-A5F6B5D902C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A41B8-FF69-4F63-84DA-D0AF0EBF3A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{02FF2ABB-055E-4442-A81B-3693D41D5A4A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="880">
   <si>
     <t>*</t>
   </si>
@@ -3132,6 +3132,9 @@
   </si>
   <si>
     <t>---Add if p.next != null else break</t>
+  </si>
+  <si>
+    <t>o/p</t>
   </si>
 </sst>
 </file>
@@ -3639,7 +3642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3827,6 +3830,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9819,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887E8D9-AF17-4C89-A3FC-3657D254DE18}">
   <dimension ref="A1:OZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LF90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="LJ98" sqref="LJ98"/>
+    <sheetView tabSelected="1" topLeftCell="NJ50" zoomScale="169" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="OA57" sqref="OA57:OE58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15999,7 +16003,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="127:365">
+    <row r="49" spans="127:398">
       <c r="DW49" s="26" t="s">
         <v>514</v>
       </c>
@@ -16075,7 +16079,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="50" spans="127:365" ht="14.4">
+    <row r="50" spans="127:398" ht="14.4">
       <c r="DZ50" s="41" t="s">
         <v>517</v>
       </c>
@@ -16108,8 +16112,17 @@
       <c r="MO50" s="22" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="51" spans="127:365">
+      <c r="OB50" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="OG50" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="OH50" s="22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="127:398">
       <c r="KS51" s="90"/>
       <c r="KX51" s="90"/>
       <c r="LC51" s="90"/>
@@ -16147,8 +16160,32 @@
       <c r="MY51" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="127:365" ht="14.4">
+      <c r="NW51" s="99">
+        <v>0</v>
+      </c>
+      <c r="NX51" s="99">
+        <v>0</v>
+      </c>
+      <c r="OA51" s="99">
+        <v>0</v>
+      </c>
+      <c r="OB51" s="99">
+        <v>0</v>
+      </c>
+      <c r="OC51" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="OF51" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="OG51" s="99">
+        <v>0</v>
+      </c>
+      <c r="OH51" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="127:398" ht="14.4">
       <c r="DW52" s="30" t="s">
         <v>433</v>
       </c>
@@ -16205,8 +16242,26 @@
       <c r="MU52" s="22" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="53" spans="127:365">
+      <c r="NW52" s="99">
+        <v>0</v>
+      </c>
+      <c r="NX52" s="99">
+        <v>1</v>
+      </c>
+      <c r="OA52" s="99">
+        <v>0</v>
+      </c>
+      <c r="OB52" s="99">
+        <v>1</v>
+      </c>
+      <c r="OG52" s="99">
+        <v>0</v>
+      </c>
+      <c r="OH52" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="127:398">
       <c r="DW53" s="59">
         <v>1</v>
       </c>
@@ -16270,7 +16325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="127:365">
+    <row r="54" spans="127:398">
       <c r="EA54" s="40" t="s">
         <v>509</v>
       </c>
@@ -16310,8 +16365,20 @@
       <c r="MZ54" s="22" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="55" spans="127:365">
+      <c r="OA54" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB54" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD54" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE54" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="127:398">
       <c r="DZ55" s="40" t="s">
         <v>55</v>
       </c>
@@ -16327,8 +16394,20 @@
       <c r="MO55" s="22" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="56" spans="127:365">
+      <c r="OA55" s="22">
+        <v>1</v>
+      </c>
+      <c r="OB55" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD55" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE55" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="127:398">
       <c r="DW56" s="26" t="s">
         <v>219</v>
       </c>
@@ -16362,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="127:365" ht="14.4">
+    <row r="57" spans="127:398" ht="14.4">
       <c r="EA57" s="41" t="s">
         <v>517</v>
       </c>
@@ -16393,8 +16472,20 @@
       <c r="MU57" s="22" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="58" spans="127:365" ht="14.4">
+      <c r="OA57" s="22">
+        <v>1</v>
+      </c>
+      <c r="OB57" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD57" s="22">
+        <v>1</v>
+      </c>
+      <c r="OE57" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="127:398" ht="14.4">
       <c r="EL58" s="30" t="s">
         <v>433</v>
       </c>
@@ -16422,8 +16513,20 @@
       <c r="LI58" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="127:365" ht="14.4">
+      <c r="OA58" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB58" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD58" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE58" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="127:398" ht="14.4">
       <c r="ED59" s="30" t="s">
         <v>433</v>
       </c>
@@ -16496,7 +16599,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="127:365">
+    <row r="60" spans="127:398">
       <c r="ED60" s="59">
         <v>1</v>
       </c>
@@ -16537,8 +16640,20 @@
       <c r="MY60" s="22" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="61" spans="127:365">
+      <c r="OA60" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB60" s="22">
+        <v>1</v>
+      </c>
+      <c r="OD60" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE60" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="127:398">
       <c r="EG61" s="23"/>
       <c r="EI61" s="40" t="s">
         <v>509</v>
@@ -16569,8 +16684,20 @@
       <c r="MY61" s="22" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="62" spans="127:365">
+      <c r="OA61" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB61" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD61" s="22">
+        <v>1</v>
+      </c>
+      <c r="OE61" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="127:398">
       <c r="ED62" s="23"/>
       <c r="EE62" s="23"/>
       <c r="EF62" s="23"/>
@@ -16594,14 +16721,38 @@
         <v>777</v>
       </c>
     </row>
-    <row r="63" spans="127:365">
+    <row r="63" spans="127:398">
       <c r="MY63" s="22" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="64" spans="127:365">
+      <c r="OA63" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB63" s="22">
+        <v>0</v>
+      </c>
+      <c r="OD63" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="127:398">
       <c r="MY64" s="22" t="s">
         <v>787</v>
+      </c>
+      <c r="OA64" s="22">
+        <v>0</v>
+      </c>
+      <c r="OB64" s="22">
+        <v>1</v>
+      </c>
+      <c r="OD64" s="22">
+        <v>0</v>
+      </c>
+      <c r="OE64" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="142:363">
